--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T350"/>
+  <dimension ref="A1:T351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O289" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P289" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="T289" t="n">
         <v>10</v>
@@ -23560,36 +23560,36 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P290" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="T290" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
@@ -23635,41 +23635,41 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N291" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O291" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P291" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="T291" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292">
@@ -23720,36 +23720,36 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O292" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P292" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T292" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293">
@@ -23804,32 +23804,32 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N293" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O293" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P293" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S293" t="n">
         <v>1400</v>
       </c>
       <c r="T293" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294">
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N294" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="O294" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="P294" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T294" t="n">
         <v>15</v>
@@ -23955,41 +23955,41 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="N295" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="O295" t="n">
-        <v>16000</v>
+        <v>19500</v>
       </c>
       <c r="P295" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1550</v>
+        <v>1300</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -24044,32 +24044,32 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="N296" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O296" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P296" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N297" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="O297" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="P297" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="N298" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P298" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24275,41 +24275,41 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N299" t="n">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="P299" t="n">
-        <v>1600</v>
+        <v>15000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T299" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24360,24 +24360,24 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N300" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="O300" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="P300" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -24386,10 +24386,10 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T300" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -24444,20 +24444,20 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N301" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="O301" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="P301" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T301" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
@@ -24520,24 +24520,24 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N302" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="P302" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -24546,10 +24546,10 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T302" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -24604,20 +24604,20 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O303" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P303" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24629,7 +24629,7 @@
         <v>1000</v>
       </c>
       <c r="T303" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -24675,29 +24675,29 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>250</v>
       </c>
       <c r="N304" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="O304" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P304" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -24706,10 +24706,10 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T304" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N306" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="O306" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="P306" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T306" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
@@ -24920,24 +24920,24 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -25004,20 +25004,20 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N308" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25029,7 +25029,7 @@
         <v>1000</v>
       </c>
       <c r="T308" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T309" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -25164,20 +25164,20 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="N310" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="O310" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
@@ -25186,10 +25186,10 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T310" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -25240,24 +25240,24 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N311" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="O311" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="P311" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -25324,20 +25324,20 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N312" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="O312" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="P312" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25349,7 +25349,7 @@
         <v>1500</v>
       </c>
       <c r="T312" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -25400,24 +25400,24 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T313" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -25484,20 +25484,20 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="P314" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25509,7 +25509,7 @@
         <v>1200</v>
       </c>
       <c r="T314" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44172</v>
+        <v>44166</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,36 +25560,36 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="P315" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N316" t="n">
         <v>15000</v>
@@ -25662,7 +25662,7 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S316" t="n">
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P317" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25742,11 +25742,11 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="N318" t="n">
         <v>12000</v>
@@ -25822,7 +25822,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S318" t="n">
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="N319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25902,11 +25902,11 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25964,32 +25964,32 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N320" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S320" t="n">
         <v>1000</v>
       </c>
       <c r="T320" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -26035,29 +26035,29 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T321" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322">
@@ -26124,20 +26124,20 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N322" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P322" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N323" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O323" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P323" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P324" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T324" t="n">
         <v>10</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N325" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O325" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P325" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T326" t="n">
         <v>10</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44223</v>
+        <v>44172</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,20 +26524,20 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N327" t="n">
         <v>12000</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26546,10 +26546,10 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T327" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44187</v>
+        <v>44223</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26600,36 +26600,36 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S328" t="n">
         <v>900</v>
       </c>
       <c r="T328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O329" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P329" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>775</v>
+        <v>900</v>
       </c>
       <c r="T329" t="n">
         <v>10</v>
@@ -26764,20 +26764,20 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>140</v>
+        <v>480</v>
       </c>
       <c r="N330" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P330" t="n">
-        <v>12000</v>
+        <v>7750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="T330" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
@@ -26840,24 +26840,24 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N331" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P331" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26924,20 +26924,20 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N332" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O332" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P332" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -26946,10 +26946,10 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -27000,24 +27000,24 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O333" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="P333" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N334" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O334" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P334" t="n">
-        <v>12000</v>
+        <v>3750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1200</v>
+        <v>375</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27160,24 +27160,24 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N335" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T335" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N336" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O336" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P336" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T336" t="n">
         <v>15</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N337" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O337" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P337" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>517</v>
+        <v>700</v>
       </c>
       <c r="T337" t="n">
         <v>15</v>
@@ -27395,29 +27395,29 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>300</v>
       </c>
       <c r="N338" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O338" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P338" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>700</v>
+        <v>517</v>
       </c>
       <c r="T338" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27487,17 +27487,17 @@
         <v>300</v>
       </c>
       <c r="N339" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O339" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="P339" t="n">
-        <v>9750</v>
+        <v>7000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27560,24 +27560,24 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O340" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="P340" t="n">
-        <v>5000</v>
+        <v>9750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341">
@@ -27635,12 +27635,12 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T341" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,20 +27724,20 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N342" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O342" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P342" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T342" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O343" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P343" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T343" t="n">
         <v>15</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="T344" t="n">
         <v>15</v>
@@ -27955,29 +27955,29 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N345" t="n">
         <v>7500</v>
       </c>
       <c r="O345" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P345" t="n">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -27986,10 +27986,10 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="T345" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346">
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N346" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O346" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P346" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28124,20 +28124,20 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P347" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T347" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>860</v>
+        <v>150</v>
       </c>
       <c r="N348" t="n">
         <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>10930</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1093</v>
+        <v>667</v>
       </c>
       <c r="T348" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>60</v>
+        <v>860</v>
       </c>
       <c r="N349" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>8000</v>
+        <v>10930</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>800</v>
+        <v>1093</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28364,31 +28364,111 @@
         </is>
       </c>
       <c r="M350" t="n">
+        <v>60</v>
+      </c>
+      <c r="N350" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O350" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P350" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R350" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S350" t="n">
+        <v>800</v>
+      </c>
+      <c r="T350" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>6</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>44193</v>
+      </c>
+      <c r="E351" t="n">
+        <v>13</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
         <v>150</v>
       </c>
-      <c r="N350" t="n">
+      <c r="N351" t="n">
         <v>10000</v>
       </c>
-      <c r="O350" t="n">
+      <c r="O351" t="n">
         <v>10000</v>
       </c>
-      <c r="P350" t="n">
+      <c r="P351" t="n">
         <v>10000</v>
       </c>
-      <c r="Q350" t="inlineStr">
+      <c r="Q351" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R350" t="inlineStr">
+      <c r="R351" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S350" t="n">
+      <c r="S351" t="n">
         <v>667</v>
       </c>
-      <c r="T350" t="n">
+      <c r="T351" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T351"/>
+  <dimension ref="A1:T352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,20 +20204,20 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="N248" t="n">
-        <v>5000</v>
+        <v>39000</v>
       </c>
       <c r="O248" t="n">
-        <v>5000</v>
+        <v>42000</v>
       </c>
       <c r="P248" t="n">
-        <v>5000</v>
+        <v>40500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="T248" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
@@ -20284,20 +20284,20 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N249" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O249" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P249" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>120</v>
       </c>
       <c r="N250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P250" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T250" t="n">
         <v>15</v>
@@ -20435,25 +20435,25 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T251" t="n">
         <v>15</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>80</v>
       </c>
       <c r="N252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P252" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>733</v>
+        <v>867</v>
       </c>
       <c r="T252" t="n">
         <v>15</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P253" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T253" t="n">
         <v>15</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N254" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T254" t="n">
         <v>15</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N255" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O255" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P255" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T255" t="n">
         <v>15</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O256" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P256" t="n">
-        <v>7750</v>
+        <v>10500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>517</v>
+        <v>700</v>
       </c>
       <c r="T256" t="n">
         <v>15</v>
@@ -20915,29 +20915,29 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>300</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,10 +20946,10 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>700</v>
+        <v>517</v>
       </c>
       <c r="T257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258">
@@ -21007,17 +21007,17 @@
         <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>9750</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,10 +21026,10 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T258" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259">
@@ -21080,24 +21080,24 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O259" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="P259" t="n">
-        <v>5000</v>
+        <v>9750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T259" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
@@ -21155,12 +21155,12 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
@@ -21186,10 +21186,10 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T260" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O261" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P261" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T261" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O262" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P262" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T262" t="n">
         <v>15</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21395,16 +21395,16 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N263" t="n">
         <v>8000</v>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T263" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264">
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N264" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T264" t="n">
         <v>10</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N265" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O265" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P265" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T265" t="n">
         <v>10</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="O266" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="P266" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T266" t="n">
         <v>10</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,20 +21724,20 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21795,41 +21795,41 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N268" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="O268" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="P268" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="T268" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N269" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="P269" t="n">
-        <v>13000</v>
+        <v>1600</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T269" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -21964,20 +21964,20 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N270" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="O270" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T270" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N271" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="O271" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="P271" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -22124,20 +22124,20 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N272" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O272" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P272" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22149,7 +22149,7 @@
         <v>1000</v>
       </c>
       <c r="T272" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
@@ -22195,29 +22195,29 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P273" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
@@ -22226,10 +22226,10 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N274" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O274" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P274" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T274" t="n">
         <v>10</v>
@@ -22364,20 +22364,20 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="O275" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="P275" t="n">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T275" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N276" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="O276" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="P276" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -22524,20 +22524,20 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N277" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P277" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
@@ -22549,7 +22549,7 @@
         <v>1000</v>
       </c>
       <c r="T277" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278">
@@ -22595,29 +22595,29 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="P278" t="n">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22626,10 +22626,10 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T278" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -22684,20 +22684,20 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="N279" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>1700</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22706,10 +22706,10 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="T279" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280">
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N280" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="O280" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="P280" t="n">
-        <v>15000</v>
+        <v>1700</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T280" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -22844,20 +22844,20 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N281" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="O281" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="P281" t="n">
-        <v>1500</v>
+        <v>15000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22869,7 +22869,7 @@
         <v>1500</v>
       </c>
       <c r="T281" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22920,24 +22920,24 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N282" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="O282" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P282" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T282" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -23004,20 +23004,20 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="O283" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23029,7 +23029,7 @@
         <v>1200</v>
       </c>
       <c r="T283" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23075,41 +23075,41 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="N284" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="O284" t="n">
-        <v>6500</v>
+        <v>1200</v>
       </c>
       <c r="P284" t="n">
-        <v>6250</v>
+        <v>1200</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T284" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>435</v>
+        <v>550</v>
       </c>
       <c r="N285" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O285" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="P285" t="n">
-        <v>4000</v>
+        <v>6250</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>400</v>
+        <v>625</v>
       </c>
       <c r="T285" t="n">
         <v>10</v>
@@ -23235,38 +23235,38 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
+        <v>435</v>
+      </c>
+      <c r="N286" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O286" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P286" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S286" t="n">
         <v>400</v>
-      </c>
-      <c r="N286" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O286" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P286" t="n">
-        <v>6500</v>
-      </c>
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R286" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S286" t="n">
-        <v>650</v>
       </c>
       <c r="T286" t="n">
         <v>10</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N287" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O287" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="P287" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="T287" t="n">
         <v>10</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="O288" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="P288" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>250</v>
       </c>
       <c r="N289" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O289" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T289" t="n">
         <v>10</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T290" t="n">
         <v>10</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N291" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O291" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P291" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23724,32 +23724,32 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O292" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T292" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N293" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O293" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P293" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T293" t="n">
         <v>15</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N294" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P294" t="n">
-        <v>14250</v>
+        <v>18000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="T294" t="n">
         <v>15</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
         <v>13500</v>
       </c>
       <c r="O295" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>13500</v>
+        <v>14250</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T295" t="n">
         <v>15</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N296" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="O296" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="P296" t="n">
-        <v>9750</v>
+        <v>13500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T296" t="n">
         <v>15</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N297" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O297" t="n">
         <v>10500</v>
       </c>
       <c r="P297" t="n">
-        <v>10500</v>
+        <v>9750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24195,41 +24195,41 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N298" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P298" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="T298" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N299" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P299" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N300" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P300" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T300" t="n">
         <v>15</v>
@@ -24440,24 +24440,24 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N301" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O301" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P301" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24466,10 +24466,10 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T301" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,32 +24524,32 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N302" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P302" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T302" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24595,41 +24595,41 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P303" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T303" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N304" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="T304" t="n">
         <v>10</v>
@@ -24764,20 +24764,20 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N305" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="O305" t="n">
-        <v>1300</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>1300</v>
+        <v>13500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
@@ -24786,10 +24786,10 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="T305" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
@@ -24840,36 +24840,36 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N306" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="O306" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="P306" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N307" t="n">
         <v>10000</v>
@@ -24942,7 +24942,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S307" t="n">
@@ -25004,20 +25004,20 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N308" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T308" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25075,41 +25075,41 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>900</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>900</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>900</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="T309" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N310" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O310" t="n">
         <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25182,11 +25182,11 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25244,32 +25244,32 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N311" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O311" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P311" t="n">
-        <v>7500</v>
+        <v>15500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="T311" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25320,24 +25320,24 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N312" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P312" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T312" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313">
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N313" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>22500</v>
+        <v>13000</v>
       </c>
       <c r="P313" t="n">
-        <v>21955</v>
+        <v>13000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1464</v>
+        <v>1300</v>
       </c>
       <c r="T313" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="N314" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O314" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P314" t="n">
-        <v>18000</v>
+        <v>21955</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1200</v>
+        <v>1464</v>
       </c>
       <c r="T314" t="n">
         <v>15</v>
@@ -25564,20 +25564,20 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>1080</v>
+        <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O315" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="P315" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25589,7 +25589,7 @@
         <v>1200</v>
       </c>
       <c r="T315" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316">
@@ -25640,24 +25640,24 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -25724,20 +25724,20 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="N317" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O317" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P317" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25749,7 +25749,7 @@
         <v>1000</v>
       </c>
       <c r="T317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="N318" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P318" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T318" t="n">
         <v>15</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N319" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="O319" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P319" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T319" t="n">
         <v>15</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N320" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O320" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P320" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T320" t="n">
         <v>15</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P321" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T321" t="n">
         <v>15</v>
@@ -26115,16 +26115,16 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N322" t="n">
         <v>12000</v>
@@ -26137,7 +26137,7 @@
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T322" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T323" t="n">
         <v>10</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N324" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T324" t="n">
         <v>10</v>
@@ -26355,29 +26355,29 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N325" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="O325" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="P325" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T325" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26444,32 +26444,32 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N326" t="n">
-        <v>1300</v>
+        <v>18000</v>
       </c>
       <c r="O326" t="n">
-        <v>1300</v>
+        <v>18000</v>
       </c>
       <c r="P326" t="n">
-        <v>1300</v>
+        <v>18000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T326" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26520,36 +26520,36 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N327" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="O327" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="P327" t="n">
-        <v>8700</v>
+        <v>1300</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>870</v>
+        <v>1300</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>210</v>
+        <v>1500</v>
       </c>
       <c r="N328" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P328" t="n">
-        <v>15000</v>
+        <v>8700</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26684,32 +26684,32 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="N329" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="O329" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S329" t="n">
         <v>1000</v>
       </c>
       <c r="T329" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -26760,36 +26760,36 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N330" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="O330" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P330" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T330" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -26844,20 +26844,20 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N331" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>10875</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26866,10 +26866,10 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T331" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332">
@@ -26924,32 +26924,32 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N332" t="n">
-        <v>800</v>
+        <v>10500</v>
       </c>
       <c r="O332" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>800</v>
+        <v>10875</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="T332" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -26995,29 +26995,29 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N333" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="O333" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P333" t="n">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27026,10 +27026,10 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -27084,20 +27084,20 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>700</v>
+        <v>9000</v>
       </c>
       <c r="O334" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="P334" t="n">
-        <v>800</v>
+        <v>9500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27106,10 +27106,10 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T334" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335">
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N335" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="O335" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P335" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T335" t="n">
         <v>1</v>
@@ -27235,29 +27235,29 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="P336" t="n">
-        <v>11000</v>
+        <v>600</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O337" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>933</v>
+        <v>1100</v>
       </c>
       <c r="T337" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>800</v>
+        <v>14000</v>
       </c>
       <c r="O338" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="P338" t="n">
-        <v>850</v>
+        <v>14000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>850</v>
+        <v>933</v>
       </c>
       <c r="T338" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O339" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P339" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="T339" t="n">
         <v>1</v>
@@ -27555,25 +27555,25 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O340" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="P340" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27582,11 +27582,11 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T340" t="n">
         <v>1</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N341" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="O341" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="P341" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T341" t="n">
         <v>1</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27715,29 +27715,29 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N342" t="n">
-        <v>10000</v>
+        <v>650</v>
       </c>
       <c r="O342" t="n">
-        <v>10000</v>
+        <v>650</v>
       </c>
       <c r="P342" t="n">
-        <v>10000</v>
+        <v>650</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T342" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P343" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27875,41 +27875,41 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="N345" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P345" t="n">
-        <v>12500</v>
+        <v>7500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="T345" t="n">
         <v>15</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T346" t="n">
         <v>15</v>
@@ -28115,29 +28115,29 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="N347" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="O347" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="P347" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T347" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="N348" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="O348" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="P348" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T348" t="n">
         <v>1</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="N349" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="O349" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="P349" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T349" t="n">
         <v>1</v>
@@ -28355,41 +28355,41 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="N350" t="n">
-        <v>11000</v>
+        <v>900</v>
       </c>
       <c r="O350" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="P350" t="n">
-        <v>11500</v>
+        <v>900</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>767</v>
+        <v>900</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -28440,35 +28440,115 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>190</v>
+      </c>
+      <c r="N351" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O351" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P351" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R351" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S351" t="n">
+        <v>767</v>
+      </c>
+      <c r="T351" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>6</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E352" t="n">
+        <v>13</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M351" t="n">
+      <c r="M352" t="n">
         <v>80</v>
       </c>
-      <c r="N351" t="n">
+      <c r="N352" t="n">
         <v>8000</v>
       </c>
-      <c r="O351" t="n">
+      <c r="O352" t="n">
         <v>8000</v>
       </c>
-      <c r="P351" t="n">
+      <c r="P352" t="n">
         <v>8000</v>
       </c>
-      <c r="Q351" t="inlineStr">
+      <c r="Q352" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R351" t="inlineStr">
+      <c r="R352" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S351" t="n">
+      <c r="S352" t="n">
         <v>533</v>
       </c>
-      <c r="T351" t="n">
+      <c r="T352" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T352"/>
+  <dimension ref="A1:T355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20204,32 +20204,32 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>39000</v>
+        <v>15000</v>
       </c>
       <c r="O248" t="n">
-        <v>42000</v>
+        <v>15000</v>
       </c>
       <c r="P248" t="n">
-        <v>40500</v>
+        <v>15000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="T248" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20275,7 +20275,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
@@ -20284,32 +20284,32 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="N249" t="n">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="O249" t="n">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="P249" t="n">
-        <v>5000</v>
+        <v>45000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="T249" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20355,7 +20355,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="O250" t="n">
-        <v>12000</v>
+        <v>42000</v>
       </c>
       <c r="P250" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="T250" t="n">
         <v>15</v>
@@ -20440,24 +20440,24 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N251" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O251" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P251" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -20466,10 +20466,10 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T251" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N252" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T252" t="n">
         <v>15</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N253" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O253" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P253" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>733</v>
+        <v>667</v>
       </c>
       <c r="T253" t="n">
         <v>15</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="N254" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O254" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P254" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T254" t="n">
         <v>15</v>
@@ -20755,7 +20755,7 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P255" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T255" t="n">
         <v>15</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N256" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O256" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P256" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T256" t="n">
         <v>15</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -20915,7 +20915,7 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N257" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P257" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>517</v>
+        <v>600</v>
       </c>
       <c r="T257" t="n">
         <v>15</v>
@@ -20995,7 +20995,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -21004,20 +21004,20 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="O258" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="P258" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21029,7 +21029,7 @@
         <v>700</v>
       </c>
       <c r="T258" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O259" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>9750</v>
+        <v>7750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>650</v>
+        <v>517</v>
       </c>
       <c r="T259" t="n">
         <v>15</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O260" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P260" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T260" t="n">
         <v>10</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,20 +21244,20 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>5000</v>
+        <v>10500</v>
       </c>
       <c r="P261" t="n">
-        <v>5000</v>
+        <v>9750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
@@ -21266,10 +21266,10 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T261" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262">
@@ -21315,29 +21315,29 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O262" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P262" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T262" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
@@ -21395,29 +21395,29 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O263" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P263" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T263" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T264" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P265" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T265" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266">
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N266" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T266" t="n">
         <v>10</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21727,13 +21727,13 @@
         <v>480</v>
       </c>
       <c r="N267" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O267" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P267" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T267" t="n">
         <v>10</v>
@@ -21795,41 +21795,41 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
+        <v>240</v>
+      </c>
+      <c r="N268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P268" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
         <v>400</v>
       </c>
-      <c r="N268" t="n">
-        <v>9000</v>
-      </c>
-      <c r="O268" t="n">
-        <v>9000</v>
-      </c>
-      <c r="P268" t="n">
-        <v>9000</v>
-      </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R268" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S268" t="n">
-        <v>600</v>
-      </c>
       <c r="T268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21875,41 +21875,41 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N269" t="n">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>1600</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T269" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,32 +21964,32 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N270" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271">
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N271" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="O271" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="P271" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T271" t="n">
         <v>1</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T272" t="n">
         <v>10</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="O273" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="P273" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T273" t="n">
         <v>1</v>
@@ -22275,25 +22275,25 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N274" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T274" t="n">
         <v>10</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N275" t="n">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="O275" t="n">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="P275" t="n">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -22440,24 +22440,24 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N276" t="n">
-        <v>1400</v>
+        <v>16000</v>
       </c>
       <c r="O276" t="n">
-        <v>1400</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>1400</v>
+        <v>16000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T276" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P277" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="N278" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="O278" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="P278" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T278" t="n">
         <v>1</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="N279" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T279" t="n">
         <v>10</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N280" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="O280" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="P280" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T280" t="n">
         <v>1</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="N281" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O281" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T281" t="n">
         <v>10</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="N282" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="O282" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="P282" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T282" t="n">
         <v>1</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N283" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P283" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T283" t="n">
         <v>10</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N284" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="O284" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="P284" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T284" t="n">
         <v>1</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23155,25 +23155,25 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O285" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>6250</v>
+        <v>12000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23182,11 +23182,11 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T285" t="n">
         <v>10</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,32 +23244,32 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="N286" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="O286" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="P286" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T286" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,20 +23324,20 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N287" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P287" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>650</v>
+        <v>2400</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288">
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N288" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O288" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P288" t="n">
-        <v>4500</v>
+        <v>6250</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23475,25 +23475,25 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="N289" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O289" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P289" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T289" t="n">
         <v>10</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N290" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O290" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P290" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T290" t="n">
         <v>10</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N291" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O291" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P291" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23662,11 +23662,11 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O292" t="n">
         <v>8000</v>
       </c>
       <c r="P292" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T292" t="n">
         <v>10</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23795,29 +23795,29 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N293" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O293" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P293" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23884,20 +23884,20 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N294" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O294" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P294" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T294" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N295" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="O295" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>14250</v>
+        <v>7500</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N296" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T296" t="n">
         <v>15</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N297" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O297" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P297" t="n">
-        <v>9750</v>
+        <v>18000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T297" t="n">
         <v>15</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>200</v>
       </c>
       <c r="N298" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O298" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>10500</v>
+        <v>14250</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T298" t="n">
         <v>15</v>
@@ -24275,41 +24275,41 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N299" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O299" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P299" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T299" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300">
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>120</v>
       </c>
       <c r="N300" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O300" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P300" t="n">
-        <v>18000</v>
+        <v>9750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T300" t="n">
         <v>15</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O301" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P301" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T301" t="n">
         <v>15</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N302" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O302" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P302" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O303" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P303" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T303" t="n">
         <v>15</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24675,41 +24675,41 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T304" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24755,25 +24755,25 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O305" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P305" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1350</v>
+        <v>700</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24835,41 +24835,41 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="O306" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="P306" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T306" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307">
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T307" t="n">
         <v>10</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N309" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="O309" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="P309" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T309" t="n">
         <v>1</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N310" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O310" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N311" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O311" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P311" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25315,41 +25315,41 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N312" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="O312" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="P312" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T312" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N313" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O313" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P313" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T313" t="n">
         <v>10</v>
@@ -25475,41 +25475,41 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N314" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O314" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P314" t="n">
-        <v>21955</v>
+        <v>15500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1464</v>
+        <v>1550</v>
       </c>
       <c r="T314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25567,17 +25567,17 @@
         <v>120</v>
       </c>
       <c r="N315" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O315" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P315" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T315" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316">
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>1080</v>
+        <v>150</v>
       </c>
       <c r="N316" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T316" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317">
@@ -25720,24 +25720,24 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N317" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O317" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P317" t="n">
-        <v>10000</v>
+        <v>21955</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1000</v>
+        <v>1464</v>
       </c>
       <c r="T317" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318">
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N318" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P318" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T318" t="n">
         <v>15</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,20 +25884,20 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="N319" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O319" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P319" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T319" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25955,29 +25955,29 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N320" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T320" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26035,16 +26035,16 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N321" t="n">
         <v>15000</v>
@@ -26115,16 +26115,16 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N322" t="n">
         <v>12000</v>
@@ -26195,29 +26195,29 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N324" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26309,7 +26309,7 @@
         <v>1000</v>
       </c>
       <c r="T324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
@@ -26355,29 +26355,29 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
         <v>120</v>
       </c>
       <c r="N325" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P325" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326">
@@ -26435,29 +26435,29 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N326" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26469,7 +26469,7 @@
         <v>1200</v>
       </c>
       <c r="T326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -26515,41 +26515,41 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>150</v>
       </c>
       <c r="N327" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="O327" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="P327" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T327" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328">
@@ -26595,25 +26595,25 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O328" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P328" t="n">
-        <v>8700</v>
+        <v>5000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>870</v>
+        <v>500</v>
       </c>
       <c r="T328" t="n">
         <v>10</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N329" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O329" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P329" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T329" t="n">
         <v>15</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N330" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O330" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="P330" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T330" t="n">
         <v>1</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N331" t="n">
         <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P331" t="n">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="T331" t="n">
         <v>10</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N332" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>10875</v>
+        <v>15000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="T332" t="n">
         <v>15</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>250</v>
       </c>
       <c r="N333" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O333" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P333" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T333" t="n">
         <v>1</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O334" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P334" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27102,11 +27102,11 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27155,41 +27155,41 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N335" t="n">
-        <v>700</v>
+        <v>10500</v>
       </c>
       <c r="O335" t="n">
-        <v>900</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>800</v>
+        <v>10875</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="T335" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N336" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O336" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P336" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T336" t="n">
         <v>1</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O337" t="n">
         <v>10000</v>
       </c>
-      <c r="O337" t="n">
-        <v>12000</v>
-      </c>
       <c r="P337" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="T337" t="n">
         <v>10</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N338" t="n">
-        <v>14000</v>
+        <v>700</v>
       </c>
       <c r="O338" t="n">
-        <v>14000</v>
+        <v>900</v>
       </c>
       <c r="P338" t="n">
-        <v>14000</v>
+        <v>800</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27426,10 +27426,10 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T338" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -27475,25 +27475,25 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N339" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O339" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P339" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T339" t="n">
         <v>1</v>
@@ -27555,29 +27555,29 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N340" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="O340" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="P340" t="n">
-        <v>600</v>
+        <v>11000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T340" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,32 +27644,32 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N341" t="n">
-        <v>800</v>
+        <v>14000</v>
       </c>
       <c r="O341" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="P341" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S341" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T341" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342">
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N342" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="O342" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="P342" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="T342" t="n">
         <v>1</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27795,41 +27795,41 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
+        <v>300</v>
+      </c>
+      <c r="N343" t="n">
         <v>600</v>
       </c>
-      <c r="N343" t="n">
-        <v>10000</v>
-      </c>
       <c r="O343" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="P343" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,29 +27875,29 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T344" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27955,41 +27955,41 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N345" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="O345" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="P345" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28044,32 +28044,32 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P346" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,32 +28124,32 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="N347" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O347" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P347" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T347" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28200,24 +28200,24 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="O348" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="P348" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T348" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,20 +28284,20 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="N349" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="O349" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="P349" t="n">
-        <v>1300</v>
+        <v>12500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1300</v>
+        <v>833</v>
       </c>
       <c r="T349" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350">
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N350" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="O350" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="P350" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T350" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351">
@@ -28435,41 +28435,41 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N351" t="n">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="O351" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P351" t="n">
-        <v>11500</v>
+        <v>1500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>767</v>
+        <v>1500</v>
       </c>
       <c r="T351" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -28515,40 +28515,280 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M352" t="n">
+        <v>175</v>
+      </c>
+      <c r="N352" t="n">
+        <v>1300</v>
+      </c>
+      <c r="O352" t="n">
+        <v>1300</v>
+      </c>
+      <c r="P352" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R352" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S352" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>6</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E353" t="n">
+        <v>13</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M353" t="n">
+        <v>150</v>
+      </c>
+      <c r="N353" t="n">
+        <v>900</v>
+      </c>
+      <c r="O353" t="n">
+        <v>900</v>
+      </c>
+      <c r="P353" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R353" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S353" t="n">
+        <v>900</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>6</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E354" t="n">
+        <v>13</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L352" t="inlineStr">
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M354" t="n">
+        <v>190</v>
+      </c>
+      <c r="N354" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O354" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P354" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R354" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S354" t="n">
+        <v>767</v>
+      </c>
+      <c r="T354" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>6</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M352" t="n">
+      <c r="M355" t="n">
         <v>80</v>
       </c>
-      <c r="N352" t="n">
+      <c r="N355" t="n">
         <v>8000</v>
       </c>
-      <c r="O352" t="n">
+      <c r="O355" t="n">
         <v>8000</v>
       </c>
-      <c r="P352" t="n">
+      <c r="P355" t="n">
         <v>8000</v>
       </c>
-      <c r="Q352" t="inlineStr">
+      <c r="Q355" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R352" t="inlineStr">
+      <c r="R355" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S352" t="n">
+      <c r="S355" t="n">
         <v>533</v>
       </c>
-      <c r="T352" t="n">
+      <c r="T355" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T355"/>
+  <dimension ref="A1:T358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -14595,41 +14595,41 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="O178" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="T178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -14675,41 +14675,41 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>250</v>
       </c>
       <c r="N179" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="O179" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="P179" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="T179" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44169</v>
+        <v>44512</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -14755,41 +14755,41 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N180" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="O180" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="P180" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T180" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -14844,32 +14844,32 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N181" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="O181" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="P181" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T181" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -14915,41 +14915,41 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="N182" t="n">
-        <v>19500</v>
+        <v>900</v>
       </c>
       <c r="O182" t="n">
-        <v>19500</v>
+        <v>900</v>
       </c>
       <c r="P182" t="n">
-        <v>19500</v>
+        <v>900</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T182" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N183" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="O183" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="P183" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T183" t="n">
         <v>1</v>
@@ -15080,36 +15080,36 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N184" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="O184" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="P184" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="T184" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N185" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="O185" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="P185" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T185" t="n">
         <v>15</v>
@@ -15235,41 +15235,41 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="O186" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="P186" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T186" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -15315,41 +15315,41 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="O187" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="P187" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T187" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -15395,29 +15395,29 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="N188" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O188" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P188" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -15426,10 +15426,10 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -15475,29 +15475,29 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N189" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O189" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P189" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R189" t="inlineStr">
@@ -15506,10 +15506,10 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T189" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,32 +15564,32 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N190" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="O190" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="P190" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T190" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="N191" t="n">
         <v>10000</v>
@@ -15720,36 +15720,36 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>800</v>
+        <v>16500</v>
       </c>
       <c r="O192" t="n">
-        <v>800</v>
+        <v>16500</v>
       </c>
       <c r="P192" t="n">
-        <v>800</v>
+        <v>16500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T192" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -15800,36 +15800,36 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N193" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="O193" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="P193" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T193" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -15875,25 +15875,25 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N194" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O194" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P194" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T194" t="n">
         <v>10</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -15955,41 +15955,41 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N195" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="O195" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="P195" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S195" t="n">
         <v>800</v>
       </c>
       <c r="T195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44188</v>
+        <v>44169</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -16035,25 +16035,25 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N196" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O196" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="P196" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
         <v>15</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N197" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O197" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P197" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T197" t="n">
         <v>10</v>
@@ -16200,24 +16200,24 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="N198" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O198" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="P198" t="n">
-        <v>9750</v>
+        <v>4000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -16226,10 +16226,10 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T198" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
@@ -16280,36 +16280,36 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N199" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O199" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="P199" t="n">
-        <v>5000</v>
+        <v>12750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="T199" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
@@ -16360,36 +16360,36 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N200" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O200" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P200" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T200" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -16435,41 +16435,41 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T201" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -16515,41 +16515,41 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O202" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P202" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T202" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -16595,25 +16595,25 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N203" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O203" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P203" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T203" t="n">
         <v>15</v>
@@ -16675,7 +16675,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -16684,32 +16684,32 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="N204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P204" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="T204" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -16764,20 +16764,20 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N205" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O205" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P205" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -16786,10 +16786,10 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T205" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -16835,29 +16835,29 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N206" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
@@ -16866,10 +16866,10 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1900</v>
+        <v>600</v>
       </c>
       <c r="T206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44160</v>
+        <v>44188</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -16915,41 +16915,41 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O207" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P207" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>2000</v>
+        <v>467</v>
       </c>
       <c r="T207" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208">
@@ -16995,25 +16995,25 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N208" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O208" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P208" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T208" t="n">
         <v>10</v>
@@ -17075,41 +17075,41 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="O209" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="P209" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="T209" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N210" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="P210" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="T210" t="n">
         <v>10</v>
@@ -17235,25 +17235,25 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>1380</v>
+        <v>150</v>
       </c>
       <c r="N211" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O211" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P211" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T211" t="n">
         <v>10</v>
@@ -17315,29 +17315,29 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N212" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="O212" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="P212" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T212" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>890</v>
+        <v>240</v>
       </c>
       <c r="N213" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O213" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P213" t="n">
-        <v>11798</v>
+        <v>5000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1180</v>
+        <v>500</v>
       </c>
       <c r="T213" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>195</v>
+        <v>1380</v>
       </c>
       <c r="N214" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P214" t="n">
-        <v>5769</v>
+        <v>15000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>577</v>
+        <v>1500</v>
       </c>
       <c r="T214" t="n">
         <v>10</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44216</v>
+        <v>44160</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N215" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="O215" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="P215" t="n">
-        <v>15000</v>
+        <v>22500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T215" t="n">
         <v>15</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44216</v>
+        <v>44160</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -17644,32 +17644,32 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>150</v>
+        <v>890</v>
       </c>
       <c r="N216" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O216" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P216" t="n">
-        <v>10500</v>
+        <v>11798</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>700</v>
+        <v>1180</v>
       </c>
       <c r="T216" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44216</v>
+        <v>44160</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -17715,41 +17715,41 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="N217" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O217" t="n">
         <v>6000</v>
       </c>
       <c r="P217" t="n">
-        <v>6000</v>
+        <v>5769</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1200</v>
+        <v>577</v>
       </c>
       <c r="T217" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44222</v>
+        <v>44216</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -17800,11 +17800,11 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
         <v>15000</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N219" t="n">
         <v>10500</v>
       </c>
       <c r="O219" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P219" t="n">
-        <v>11250</v>
+        <v>10500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T219" t="n">
         <v>15</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44189</v>
+        <v>44216</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -17955,29 +17955,29 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N220" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O220" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P220" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R220" t="inlineStr">
@@ -17986,10 +17986,10 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T220" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221">
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44189</v>
+        <v>44222</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -18035,25 +18035,25 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N221" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O221" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P221" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T221" t="n">
         <v>15</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -18124,32 +18124,32 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O222" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="T222" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -18195,41 +18195,41 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>200</v>
       </c>
       <c r="N223" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O223" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P223" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44172</v>
+        <v>44189</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -18280,36 +18280,36 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N224" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O224" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P224" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="T224" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225">
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="N225" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O225" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P225" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T225" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O226" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P226" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T226" t="n">
         <v>10</v>
@@ -18520,36 +18520,36 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N227" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O227" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T227" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228">
@@ -18595,16 +18595,16 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N228" t="n">
         <v>12000</v>
@@ -18675,41 +18675,41 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N229" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P229" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S229" t="n">
         <v>1000</v>
       </c>
       <c r="T229" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230">
@@ -18755,29 +18755,29 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N230" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O230" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P230" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R230" t="inlineStr">
@@ -18786,10 +18786,10 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T230" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="N231" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O231" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P231" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T231" t="n">
         <v>10</v>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -18924,20 +18924,20 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N232" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O232" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P232" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -18946,10 +18946,10 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T232" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -18995,7 +18995,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O233" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P233" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T233" t="n">
         <v>10</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44196</v>
+        <v>44172</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -19075,25 +19075,25 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N234" t="n">
         <v>6000</v>
       </c>
       <c r="O234" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P234" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19102,11 +19102,11 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S234" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T234" t="n">
         <v>10</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44196</v>
+        <v>44172</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -19155,7 +19155,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="N235" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O235" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="T235" t="n">
         <v>10</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44196</v>
+        <v>44172</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -19235,41 +19235,41 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N236" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P236" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19315,25 +19315,25 @@
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N237" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O237" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P237" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T237" t="n">
         <v>10</v>
@@ -19400,24 +19400,24 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N238" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O238" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P238" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
@@ -19426,10 +19426,10 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T238" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -19475,41 +19475,41 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
         <v>250</v>
       </c>
       <c r="N239" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="O239" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="P239" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T239" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -19555,41 +19555,41 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="N240" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="O240" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="P240" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T240" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44208</v>
+        <v>44196</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,32 +19644,32 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N241" t="n">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="O241" t="n">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="P241" t="n">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S241" t="n">
         <v>500</v>
       </c>
       <c r="T241" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -19724,20 +19724,20 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N242" t="n">
-        <v>13000</v>
+        <v>900</v>
       </c>
       <c r="O242" t="n">
-        <v>13000</v>
+        <v>900</v>
       </c>
       <c r="P242" t="n">
-        <v>13000</v>
+        <v>900</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -19746,10 +19746,10 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="T242" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -19795,25 +19795,25 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="N243" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="O243" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="P243" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T243" t="n">
         <v>1</v>
@@ -19875,29 +19875,29 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N244" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="O244" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="P244" t="n">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,10 +19906,10 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T244" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -19960,24 +19960,24 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N245" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="O245" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="P245" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T245" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -20040,24 +20040,24 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="N246" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="P246" t="n">
-        <v>8000</v>
+        <v>1100</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -20066,10 +20066,10 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="T246" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -20120,24 +20120,24 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N247" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="O247" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="P247" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
@@ -20146,10 +20146,10 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T247" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20207,29 +20207,29 @@
         <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="P248" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="T248" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20275,41 +20275,41 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N249" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>45000</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="T249" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20355,29 +20355,29 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>39000</v>
+        <v>700</v>
       </c>
       <c r="O250" t="n">
-        <v>42000</v>
+        <v>700</v>
       </c>
       <c r="P250" t="n">
-        <v>40500</v>
+        <v>700</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="T250" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20444,32 +20444,32 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O251" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P251" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="T251" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N252" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="O252" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="P252" t="n">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="T252" t="n">
         <v>15</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44229</v>
+        <v>44510</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="N253" t="n">
-        <v>10000</v>
+        <v>39000</v>
       </c>
       <c r="O253" t="n">
-        <v>10000</v>
+        <v>42000</v>
       </c>
       <c r="P253" t="n">
-        <v>10000</v>
+        <v>40500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>667</v>
+        <v>2700</v>
       </c>
       <c r="T253" t="n">
         <v>15</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,20 +20684,20 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="N254" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O254" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P254" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,10 +20706,10 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255">
@@ -20755,25 +20755,25 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N255" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O255" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P255" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T255" t="n">
         <v>15</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N256" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O256" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P256" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T256" t="n">
         <v>15</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N257" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O257" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P257" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>600</v>
+        <v>867</v>
       </c>
       <c r="T257" t="n">
         <v>15</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -20995,25 +20995,25 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N258" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O258" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="P258" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T258" t="n">
         <v>15</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -21075,25 +21075,25 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N259" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P259" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>517</v>
+        <v>800</v>
       </c>
       <c r="T259" t="n">
         <v>15</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44201</v>
+        <v>44229</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -21155,41 +21155,41 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N260" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O260" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P260" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T260" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O261" t="n">
         <v>10500</v>
       </c>
       <c r="P261" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T261" t="n">
         <v>15</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,20 +21324,20 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O262" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P262" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -21346,10 +21346,10 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="T262" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,20 +21404,20 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O263" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P263" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T263" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21490,10 +21490,10 @@
         <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P264" t="n">
-        <v>9000</v>
+        <v>9750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T264" t="n">
         <v>15</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,20 +21564,20 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21635,29 +21635,29 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T266" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,20 +21724,20 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O267" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P267" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21749,7 +21749,7 @@
         <v>600</v>
       </c>
       <c r="T267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,20 +21804,20 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N268" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P269" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T269" t="n">
         <v>10</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,20 +21964,20 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N270" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O270" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P270" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21989,7 +21989,7 @@
         <v>600</v>
       </c>
       <c r="T270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22035,41 +22035,41 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="O271" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="P271" t="n">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="T271" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N272" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O272" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P272" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T272" t="n">
         <v>10</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44166</v>
+        <v>44204</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,32 +22204,32 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N273" t="n">
-        <v>1400</v>
+        <v>9000</v>
       </c>
       <c r="O273" t="n">
-        <v>1400</v>
+        <v>9000</v>
       </c>
       <c r="P273" t="n">
-        <v>1400</v>
+        <v>9000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T273" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
@@ -22280,24 +22280,24 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N274" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="O274" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="P274" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -22360,24 +22360,24 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N275" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="O275" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="P275" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T275" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -22435,29 +22435,29 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>250</v>
       </c>
       <c r="N276" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="O276" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="P276" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -22466,10 +22466,10 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="T276" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>300</v>
       </c>
       <c r="N277" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O277" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P277" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="N278" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="O278" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="P278" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="T278" t="n">
         <v>1</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
         <v>250</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O279" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T279" t="n">
         <v>10</v>
@@ -22760,24 +22760,24 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>300</v>
       </c>
       <c r="N280" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="O280" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="P280" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -22786,10 +22786,10 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T280" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="N281" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="O281" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="P281" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="T281" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -22915,29 +22915,29 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N282" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="P282" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T282" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -22995,29 +22995,29 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N283" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="P283" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T283" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -23080,24 +23080,24 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="N284" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T284" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -23160,24 +23160,24 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="O285" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="P285" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -23240,24 +23240,24 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>250</v>
       </c>
       <c r="N286" t="n">
-        <v>1200</v>
+        <v>15000</v>
       </c>
       <c r="O286" t="n">
-        <v>1200</v>
+        <v>15000</v>
       </c>
       <c r="P286" t="n">
-        <v>1200</v>
+        <v>15000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T286" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44511</v>
+        <v>44166</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,32 +23324,32 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>960</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="O287" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P287" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="T287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23395,25 +23395,25 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O288" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P288" t="n">
-        <v>6250</v>
+        <v>12000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>625</v>
+        <v>1200</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44211</v>
+        <v>44166</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,32 +23484,32 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>435</v>
+        <v>250</v>
       </c>
       <c r="N289" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="O289" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="P289" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T289" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,20 +23564,20 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>400</v>
+        <v>960</v>
       </c>
       <c r="N290" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P290" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>650</v>
+        <v>2400</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291">
@@ -23635,25 +23635,25 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N291" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O291" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="P291" t="n">
-        <v>4500</v>
+        <v>6250</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="N292" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O292" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P292" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T292" t="n">
         <v>10</v>
@@ -23795,25 +23795,25 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N293" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O293" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P293" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T293" t="n">
         <v>10</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="O294" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="P294" t="n">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="T294" t="n">
         <v>10</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N295" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
         <v>8000</v>
       </c>
       <c r="P295" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T295" t="n">
         <v>10</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24035,29 +24035,29 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O296" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P296" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T296" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24124,20 +24124,20 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N297" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O297" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P297" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24204,32 +24204,32 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N298" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P298" t="n">
-        <v>14250</v>
+        <v>7500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="T298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N299" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T299" t="n">
         <v>15</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N300" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O300" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P300" t="n">
-        <v>9750</v>
+        <v>18000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T300" t="n">
         <v>15</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
         <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O301" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P301" t="n">
-        <v>10500</v>
+        <v>14250</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T301" t="n">
         <v>15</v>
@@ -24515,41 +24515,41 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N302" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P302" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T302" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303">
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
         <v>120</v>
       </c>
       <c r="N303" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O303" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P303" t="n">
-        <v>18000</v>
+        <v>9750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24622,11 +24622,11 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T303" t="n">
         <v>15</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N304" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P304" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T304" t="n">
         <v>15</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N305" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O305" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P305" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>120</v>
       </c>
       <c r="N306" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O306" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P306" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24862,11 +24862,11 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T306" t="n">
         <v>15</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24915,41 +24915,41 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O307" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="N308" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O308" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P308" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1350</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44186</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25075,41 +25075,41 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N309" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="O309" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="P309" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T309" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310">
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N310" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O310" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P310" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N311" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O311" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P311" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N312" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="O312" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="P312" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="T312" t="n">
         <v>1</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N313" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P313" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T313" t="n">
         <v>10</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N314" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O314" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P314" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25555,41 +25555,41 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N315" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="O315" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="P315" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T315" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N316" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P316" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25715,41 +25715,41 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="N317" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O317" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="P317" t="n">
-        <v>21955</v>
+        <v>15500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1464</v>
+        <v>1550</v>
       </c>
       <c r="T317" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25807,17 +25807,17 @@
         <v>120</v>
       </c>
       <c r="N318" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O318" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="P318" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
@@ -25826,10 +25826,10 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T318" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
@@ -25875,29 +25875,29 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>1080</v>
+        <v>150</v>
       </c>
       <c r="N319" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O319" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P319" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -25906,10 +25906,10 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T319" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25960,24 +25960,24 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="N320" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="P320" t="n">
-        <v>10000</v>
+        <v>21955</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -25986,10 +25986,10 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1000</v>
+        <v>1464</v>
       </c>
       <c r="T320" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321">
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N321" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O321" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P321" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T321" t="n">
         <v>15</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,20 +26124,20 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="N322" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O322" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P322" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T322" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26195,29 +26195,29 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N323" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="O323" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="P323" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="T323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26275,16 +26275,16 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N324" t="n">
         <v>15000</v>
@@ -26355,16 +26355,16 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N325" t="n">
         <v>12000</v>
@@ -26435,29 +26435,29 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P326" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26515,29 +26515,29 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N327" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O327" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P327" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
@@ -26549,7 +26549,7 @@
         <v>1000</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
@@ -26595,29 +26595,29 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
         <v>120</v>
       </c>
       <c r="N328" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O328" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -26675,29 +26675,29 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="N329" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
@@ -26709,7 +26709,7 @@
         <v>1200</v>
       </c>
       <c r="T329" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330">
@@ -26755,41 +26755,41 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>150</v>
       </c>
       <c r="N330" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="O330" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="P330" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T330" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331">
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="N331" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P331" t="n">
-        <v>8700</v>
+        <v>5000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>870</v>
+        <v>500</v>
       </c>
       <c r="T331" t="n">
         <v>10</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P332" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T332" t="n">
         <v>15</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N333" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O333" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="P333" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T333" t="n">
         <v>1</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N334" t="n">
         <v>8000</v>
       </c>
       <c r="O334" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P334" t="n">
-        <v>8000</v>
+        <v>8700</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>800</v>
+        <v>870</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="N335" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>10875</v>
+        <v>15000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>725</v>
+        <v>1000</v>
       </c>
       <c r="T335" t="n">
         <v>15</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>250</v>
       </c>
       <c r="N336" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O336" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P336" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T336" t="n">
         <v>1</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27315,25 +27315,25 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N337" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O337" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P337" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27342,11 +27342,11 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="T337" t="n">
         <v>10</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27395,41 +27395,41 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="N338" t="n">
-        <v>700</v>
+        <v>10500</v>
       </c>
       <c r="O338" t="n">
-        <v>900</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>800</v>
+        <v>10875</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="T338" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44181</v>
+        <v>44175</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T339" t="n">
         <v>1</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O340" t="n">
         <v>10000</v>
       </c>
-      <c r="O340" t="n">
-        <v>12000</v>
-      </c>
       <c r="P340" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="T340" t="n">
         <v>10</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,20 +27644,20 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N341" t="n">
-        <v>14000</v>
+        <v>700</v>
       </c>
       <c r="O341" t="n">
-        <v>14000</v>
+        <v>900</v>
       </c>
       <c r="P341" t="n">
-        <v>14000</v>
+        <v>800</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T341" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -27715,25 +27715,25 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="O342" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P342" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="T342" t="n">
         <v>1</v>
@@ -27795,29 +27795,29 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N343" t="n">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="O343" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="P343" t="n">
-        <v>600</v>
+        <v>11000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T343" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,32 +27884,32 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>800</v>
+        <v>14000</v>
       </c>
       <c r="O344" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="P344" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T344" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345">
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N345" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="O345" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="P345" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="T345" t="n">
         <v>1</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28035,41 +28035,41 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
+        <v>300</v>
+      </c>
+      <c r="N346" t="n">
         <v>600</v>
       </c>
-      <c r="N346" t="n">
-        <v>10000</v>
-      </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T346" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28115,29 +28115,29 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
@@ -28146,10 +28146,10 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T347" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44217</v>
+        <v>44181</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,41 +28195,41 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N348" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="O348" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="P348" t="n">
-        <v>7500</v>
+        <v>650</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T348" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28284,32 +28284,32 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
       <c r="N349" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P349" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="T349" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28364,32 +28364,32 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>270</v>
+        <v>480</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,24 +28440,24 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="O351" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="P351" t="n">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T351" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,20 +28524,20 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>175</v>
+        <v>290</v>
       </c>
       <c r="N352" t="n">
-        <v>1300</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>1300</v>
+        <v>13000</v>
       </c>
       <c r="P352" t="n">
-        <v>1300</v>
+        <v>12500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1300</v>
+        <v>833</v>
       </c>
       <c r="T352" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,20 +28604,20 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N353" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T353" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354">
@@ -28675,41 +28675,41 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="N354" t="n">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="O354" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P354" t="n">
-        <v>11500</v>
+        <v>1500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>767</v>
+        <v>1500</v>
       </c>
       <c r="T354" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -28755,40 +28755,280 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M355" t="n">
+        <v>175</v>
+      </c>
+      <c r="N355" t="n">
+        <v>1300</v>
+      </c>
+      <c r="O355" t="n">
+        <v>1300</v>
+      </c>
+      <c r="P355" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R355" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S355" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>6</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E356" t="n">
+        <v>13</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M356" t="n">
+        <v>150</v>
+      </c>
+      <c r="N356" t="n">
+        <v>900</v>
+      </c>
+      <c r="O356" t="n">
+        <v>900</v>
+      </c>
+      <c r="P356" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R356" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S356" t="n">
+        <v>900</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>6</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E357" t="n">
+        <v>13</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L355" t="inlineStr">
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M357" t="n">
+        <v>190</v>
+      </c>
+      <c r="N357" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O357" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P357" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R357" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S357" t="n">
+        <v>767</v>
+      </c>
+      <c r="T357" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>6</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E358" t="n">
+        <v>13</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L358" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M355" t="n">
+      <c r="M358" t="n">
         <v>80</v>
       </c>
-      <c r="N355" t="n">
+      <c r="N358" t="n">
         <v>8000</v>
       </c>
-      <c r="O355" t="n">
+      <c r="O358" t="n">
         <v>8000</v>
       </c>
-      <c r="P355" t="n">
+      <c r="P358" t="n">
         <v>8000</v>
       </c>
-      <c r="Q355" t="inlineStr">
+      <c r="Q358" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R355" t="inlineStr">
+      <c r="R358" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S355" t="n">
+      <c r="S358" t="n">
         <v>533</v>
       </c>
-      <c r="T355" t="n">
+      <c r="T358" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T360"/>
+  <dimension ref="A1:T365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28435,29 +28435,29 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="N351" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O351" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P351" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="T351" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N352" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="O352" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="P352" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44217</v>
+        <v>44516</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,25 +28595,25 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N353" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="O353" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="P353" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28622,11 +28622,11 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="T353" t="n">
         <v>15</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44179</v>
+        <v>44516</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="N354" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="P354" t="n">
-        <v>12500</v>
+        <v>30000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>833</v>
+        <v>2000</v>
       </c>
       <c r="T354" t="n">
         <v>15</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28760,11 +28760,11 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="N355" t="n">
         <v>10000</v>
@@ -28777,19 +28777,19 @@
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T355" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,41 +28835,41 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>50</v>
+        <v>480</v>
       </c>
       <c r="N356" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="O356" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="P356" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T356" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28920,24 +28920,24 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N357" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="O357" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="P357" t="n">
-        <v>1300</v>
+        <v>7500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="T357" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44179</v>
+        <v>44509</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,41 +28995,41 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primor</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N358" t="n">
-        <v>900</v>
+        <v>30000</v>
       </c>
       <c r="O358" t="n">
-        <v>900</v>
+        <v>35000</v>
       </c>
       <c r="P358" t="n">
-        <v>900</v>
+        <v>32500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>900</v>
+        <v>3250</v>
       </c>
       <c r="T358" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359">
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="N359" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29102,11 +29102,11 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>767</v>
+        <v>833</v>
       </c>
       <c r="T359" t="n">
         <v>15</v>
@@ -29155,40 +29155,440 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M360" t="n">
+        <v>270</v>
+      </c>
+      <c r="N360" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O360" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P360" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q360" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R360" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S360" t="n">
+        <v>667</v>
+      </c>
+      <c r="T360" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>6</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E361" t="n">
+        <v>13</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I361" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>50</v>
+      </c>
+      <c r="N361" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O361" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P361" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S361" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>6</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E362" t="n">
+        <v>13</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M362" t="n">
+        <v>175</v>
+      </c>
+      <c r="N362" t="n">
+        <v>1300</v>
+      </c>
+      <c r="O362" t="n">
+        <v>1300</v>
+      </c>
+      <c r="P362" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S362" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>6</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E363" t="n">
+        <v>13</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M363" t="n">
+        <v>150</v>
+      </c>
+      <c r="N363" t="n">
+        <v>900</v>
+      </c>
+      <c r="O363" t="n">
+        <v>900</v>
+      </c>
+      <c r="P363" t="n">
+        <v>900</v>
+      </c>
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>$/kilo (en caja de 15 kilos)</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S363" t="n">
+        <v>900</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>6</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E364" t="n">
+        <v>13</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I364" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L360" t="inlineStr">
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M364" t="n">
+        <v>190</v>
+      </c>
+      <c r="N364" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O364" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P364" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q364" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R364" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S364" t="n">
+        <v>767</v>
+      </c>
+      <c r="T364" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>6</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E365" t="n">
+        <v>13</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I365" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L365" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M360" t="n">
+      <c r="M365" t="n">
         <v>80</v>
       </c>
-      <c r="N360" t="n">
+      <c r="N365" t="n">
         <v>8000</v>
       </c>
-      <c r="O360" t="n">
+      <c r="O365" t="n">
         <v>8000</v>
       </c>
-      <c r="P360" t="n">
+      <c r="P365" t="n">
         <v>8000</v>
       </c>
-      <c r="Q360" t="inlineStr">
+      <c r="Q365" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R360" t="inlineStr">
+      <c r="R365" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S360" t="n">
+      <c r="S365" t="n">
         <v>533</v>
       </c>
-      <c r="T360" t="n">
+      <c r="T365" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T369"/>
+  <dimension ref="A1:T377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>175</v>
+        <v>600</v>
       </c>
       <c r="N238" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="O238" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="P238" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="T238" t="n">
         <v>10</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -19475,7 +19475,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -19484,7 +19484,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N239" t="n">
         <v>12000</v>
@@ -19497,19 +19497,19 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T239" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -19555,29 +19555,29 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="N240" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="O240" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="P240" t="n">
-        <v>10000</v>
+        <v>26500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19586,10 +19586,10 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>667</v>
+        <v>2208</v>
       </c>
       <c r="T240" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -19635,7 +19635,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -19644,32 +19644,32 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N241" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P241" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>867</v>
+        <v>2500</v>
       </c>
       <c r="T241" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -19715,41 +19715,41 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>733</v>
+        <v>2400</v>
       </c>
       <c r="T242" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N243" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="O243" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="P243" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="T243" t="n">
         <v>15</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44229</v>
+        <v>44518</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -19875,25 +19875,25 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N244" t="n">
-        <v>9000</v>
+        <v>37500</v>
       </c>
       <c r="O244" t="n">
-        <v>9000</v>
+        <v>37500</v>
       </c>
       <c r="P244" t="n">
-        <v>9000</v>
+        <v>37500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="T244" t="n">
         <v>15</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44216</v>
+        <v>44518</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -19955,29 +19955,29 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O245" t="n">
         <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T245" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -20040,36 +20040,36 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="N246" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="O246" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="P246" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44216</v>
+        <v>44229</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -20115,41 +20115,41 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="N247" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P247" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T247" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248">
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44169</v>
+        <v>44229</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -20200,24 +20200,24 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N248" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="O248" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="P248" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20226,10 +20226,10 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T248" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44169</v>
+        <v>44229</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -20275,29 +20275,29 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N249" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="O249" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="P249" t="n">
-        <v>900</v>
+        <v>13000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R249" t="inlineStr">
@@ -20306,10 +20306,10 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="T249" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250">
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44169</v>
+        <v>44229</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -20360,24 +20360,24 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N250" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -20386,10 +20386,10 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1500</v>
+        <v>733</v>
       </c>
       <c r="T250" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44169</v>
+        <v>44229</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -20435,7 +20435,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -20444,32 +20444,32 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N251" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O251" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P251" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T251" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252">
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44169</v>
+        <v>44229</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -20515,25 +20515,25 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N252" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="O252" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="P252" t="n">
-        <v>19500</v>
+        <v>9000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T252" t="n">
         <v>15</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20607,29 +20607,29 @@
         <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="O253" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="P253" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T253" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254">
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,32 +20684,32 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N254" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="O254" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="P254" t="n">
-        <v>900</v>
+        <v>10500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T254" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255">
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -20760,24 +20760,24 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N255" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O255" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P255" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20786,10 +20786,10 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T255" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256">
@@ -20835,41 +20835,41 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N256" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="O256" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="P256" t="n">
-        <v>14000</v>
+        <v>1300</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="T256" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -20915,41 +20915,41 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>250</v>
       </c>
       <c r="N257" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="O257" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="P257" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T257" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -20995,41 +20995,41 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="N258" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="O258" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="P258" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T258" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,20 +21084,20 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N259" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O259" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P259" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -21106,10 +21106,10 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="T259" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,32 +21164,32 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N260" t="n">
-        <v>1300</v>
+        <v>19500</v>
       </c>
       <c r="O260" t="n">
-        <v>1300</v>
+        <v>19500</v>
       </c>
       <c r="P260" t="n">
-        <v>1300</v>
+        <v>19500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S260" t="n">
         <v>1300</v>
       </c>
       <c r="T260" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
@@ -21235,41 +21235,41 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="O261" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="P261" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T261" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O262" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P262" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T262" t="n">
         <v>1</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="N263" t="n">
         <v>7500</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21475,25 +21475,25 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>720</v>
+        <v>180</v>
       </c>
       <c r="N264" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P264" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="T264" t="n">
         <v>10</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N265" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O265" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P265" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21635,29 +21635,29 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="N266" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="O266" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P266" t="n">
-        <v>11625</v>
+        <v>10000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>775</v>
+        <v>1000</v>
       </c>
       <c r="T266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,20 +21724,20 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="P267" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21749,7 +21749,7 @@
         <v>1100</v>
       </c>
       <c r="T267" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21804,32 +21804,32 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N268" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="O268" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="P268" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T268" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N269" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O269" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P269" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T269" t="n">
         <v>10</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,32 +21964,32 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N270" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="O270" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="P270" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T270" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22035,41 +22035,41 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N271" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P271" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22115,25 +22115,25 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>40</v>
+        <v>720</v>
       </c>
       <c r="N272" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P272" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T272" t="n">
         <v>10</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E273" t="n">
         <v>13</v>
@@ -22195,41 +22195,41 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="O273" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="P273" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T273" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E274" t="n">
         <v>13</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,32 +22284,32 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N274" t="n">
-        <v>12000</v>
+        <v>11250</v>
       </c>
       <c r="O274" t="n">
         <v>12000</v>
       </c>
       <c r="P274" t="n">
-        <v>12000</v>
+        <v>11625</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1200</v>
+        <v>775</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E275" t="n">
         <v>13</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,32 +22364,32 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N275" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O275" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P275" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T275" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N276" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O276" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P276" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22515,25 +22515,25 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N277" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O277" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22595,25 +22595,25 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P278" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T278" t="n">
         <v>10</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="N279" t="n">
         <v>12000</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22755,41 +22755,41 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N280" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O280" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P280" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S280" t="n">
         <v>1000</v>
       </c>
       <c r="T280" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281">
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N281" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="O281" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="P281" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22915,29 +22915,29 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N282" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -22946,10 +22946,10 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="T282" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,20 +23004,20 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N283" t="n">
-        <v>700</v>
+        <v>15000</v>
       </c>
       <c r="O283" t="n">
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="P283" t="n">
-        <v>750</v>
+        <v>15000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T283" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,20 +23084,20 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N284" t="n">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="O284" t="n">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="P284" t="n">
-        <v>500</v>
+        <v>9000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -23106,10 +23106,10 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T284" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23155,41 +23155,41 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N285" t="n">
-        <v>700</v>
+        <v>6000</v>
       </c>
       <c r="O285" t="n">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="P285" t="n">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T285" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23235,41 +23235,41 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N286" t="n">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="O286" t="n">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="P286" t="n">
-        <v>600</v>
+        <v>14000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="T286" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44176</v>
+        <v>44172</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23315,25 +23315,25 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N287" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P287" t="n">
-        <v>9200</v>
+        <v>12000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="T287" t="n">
         <v>10</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44176</v>
+        <v>44222</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N288" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P288" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23422,11 +23422,11 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>767</v>
+        <v>1000</v>
       </c>
       <c r="T288" t="n">
         <v>15</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,29 +23475,29 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N289" t="n">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="O289" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="P289" t="n">
-        <v>7000</v>
+        <v>750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="T289" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,20 +23564,20 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="O290" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="P290" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T290" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23644,20 +23644,20 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N291" t="n">
-        <v>13000</v>
+        <v>700</v>
       </c>
       <c r="O291" t="n">
-        <v>13000</v>
+        <v>800</v>
       </c>
       <c r="P291" t="n">
-        <v>13000</v>
+        <v>750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T291" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,20 +23724,20 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N292" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="P292" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1083</v>
+        <v>500</v>
       </c>
       <c r="T292" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23800,36 +23800,36 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N293" t="n">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="O293" t="n">
-        <v>10000</v>
+        <v>900</v>
       </c>
       <c r="P293" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T293" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23875,41 +23875,41 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N294" t="n">
-        <v>16500</v>
+        <v>600</v>
       </c>
       <c r="O294" t="n">
-        <v>16500</v>
+        <v>600</v>
       </c>
       <c r="P294" t="n">
-        <v>16500</v>
+        <v>600</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T294" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -23955,29 +23955,29 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N295" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O295" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>18000</v>
+        <v>9200</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
@@ -23986,10 +23986,10 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="T295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,32 +24044,32 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N296" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O296" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>900</v>
+        <v>767</v>
       </c>
       <c r="T296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297">
@@ -24115,41 +24115,41 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O297" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P297" t="n">
-        <v>13286</v>
+        <v>7000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>886</v>
+        <v>700</v>
       </c>
       <c r="T297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24195,25 +24195,25 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N298" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P298" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T298" t="n">
         <v>15</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O299" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>13019</v>
+        <v>13000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="T299" t="n">
         <v>15</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,32 +24364,32 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>700</v>
+        <v>1083</v>
       </c>
       <c r="T300" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N301" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="O301" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="P301" t="n">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>720</v>
+        <v>667</v>
       </c>
       <c r="T301" t="n">
         <v>15</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N302" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O302" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="P302" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="T302" t="n">
         <v>15</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="N303" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P303" t="n">
-        <v>9021</v>
+        <v>18000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>601</v>
+        <v>1200</v>
       </c>
       <c r="T303" t="n">
         <v>15</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24675,41 +24675,41 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>150</v>
       </c>
       <c r="N304" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="O304" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="P304" t="n">
-        <v>1600</v>
+        <v>9000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="T304" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24767,29 +24767,29 @@
         <v>350</v>
       </c>
       <c r="N305" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P305" t="n">
-        <v>13000</v>
+        <v>13286</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1300</v>
+        <v>886</v>
       </c>
       <c r="T305" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,32 +24844,32 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N306" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="T306" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24915,29 +24915,29 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>13019</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1000</v>
+        <v>868</v>
       </c>
       <c r="T307" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,32 +25004,32 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N308" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="O308" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="P308" t="n">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25075,41 +25075,41 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
         <v>250</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>11250</v>
       </c>
       <c r="P309" t="n">
-        <v>16000</v>
+        <v>10800</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1600</v>
+        <v>720</v>
       </c>
       <c r="T309" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25155,41 +25155,41 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N310" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P310" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="T310" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25235,29 +25235,29 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>275</v>
+        <v>470</v>
       </c>
       <c r="N311" t="n">
-        <v>1400</v>
+        <v>8000</v>
       </c>
       <c r="O311" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>1400</v>
+        <v>9021</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1400</v>
+        <v>601</v>
       </c>
       <c r="T311" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312">
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N312" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="P312" t="n">
-        <v>10000</v>
+        <v>1600</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T312" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -25395,29 +25395,29 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N313" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="P313" t="n">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T313" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314">
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="N314" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="O314" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="P314" t="n">
-        <v>16000</v>
+        <v>1400</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="T314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -25555,29 +25555,29 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="O315" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="P315" t="n">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T315" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>250</v>
       </c>
       <c r="N316" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="P316" t="n">
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -25715,29 +25715,29 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N317" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="O317" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="P317" t="n">
-        <v>1500</v>
+        <v>16000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -25746,10 +25746,10 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T317" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318">
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N318" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P318" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="N319" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="O319" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="P319" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T319" t="n">
         <v>1</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25960,36 +25960,36 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N320" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O320" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P320" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T320" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26040,36 +26040,36 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N321" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="O321" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="P321" t="n">
-        <v>11000</v>
+        <v>1000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T321" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26115,29 +26115,29 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O322" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P322" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R322" t="inlineStr">
@@ -26146,10 +26146,10 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>733</v>
+        <v>1600</v>
       </c>
       <c r="T322" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323">
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26195,41 +26195,41 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="N323" t="n">
-        <v>8000</v>
+        <v>1700</v>
       </c>
       <c r="O323" t="n">
-        <v>8000</v>
+        <v>1700</v>
       </c>
       <c r="P323" t="n">
-        <v>8000</v>
+        <v>1700</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>533</v>
+        <v>1700</v>
       </c>
       <c r="T323" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="N324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>533</v>
+        <v>1500</v>
       </c>
       <c r="T324" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26364,20 +26364,20 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="O325" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="P325" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T325" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26444,20 +26444,20 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T326" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44510</v>
+        <v>44166</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26515,41 +26515,41 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N327" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="P327" t="n">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T327" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,20 +26604,20 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N328" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="O328" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="P328" t="n">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="N329" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="O329" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>40500</v>
+        <v>11000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2700</v>
+        <v>733</v>
       </c>
       <c r="T329" t="n">
         <v>15</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26755,25 +26755,25 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="N330" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O330" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>21750</v>
+        <v>11000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1450</v>
+        <v>733</v>
       </c>
       <c r="T330" t="n">
         <v>15</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,32 +26844,32 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O331" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P331" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1600</v>
+        <v>533</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26915,41 +26915,41 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="N332" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P332" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1450</v>
+        <v>533</v>
       </c>
       <c r="T332" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -26995,16 +26995,16 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N333" t="n">
         <v>12000</v>
@@ -27017,19 +27017,19 @@
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,41 +27075,41 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N334" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O334" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P334" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1650</v>
+        <v>667</v>
       </c>
       <c r="T334" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O335" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27182,11 +27182,11 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T335" t="n">
         <v>5</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,20 +27244,20 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N336" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="O336" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="P336" t="n">
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27266,10 +27266,10 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T336" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="N337" t="n">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="O337" t="n">
-        <v>13000</v>
+        <v>42000</v>
       </c>
       <c r="P337" t="n">
-        <v>13000</v>
+        <v>40500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="T337" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338">
@@ -27395,41 +27395,41 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>800</v>
+        <v>180</v>
       </c>
       <c r="N338" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O338" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="P338" t="n">
-        <v>7500</v>
+        <v>21750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="T338" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P339" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27502,11 +27502,11 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="T339" t="n">
         <v>10</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27560,36 +27560,36 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
         <v>700</v>
       </c>
       <c r="N340" t="n">
-        <v>36000</v>
+        <v>14000</v>
       </c>
       <c r="O340" t="n">
-        <v>36000</v>
+        <v>15000</v>
       </c>
       <c r="P340" t="n">
-        <v>36000</v>
+        <v>14500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S340" t="n">
-        <v>3000</v>
+        <v>1450</v>
       </c>
       <c r="T340" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27635,25 +27635,25 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N341" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2800</v>
+        <v>1200</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N342" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O342" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P342" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27742,11 +27742,11 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27800,36 +27800,36 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N343" t="n">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="O343" t="n">
-        <v>27000</v>
+        <v>7500</v>
       </c>
       <c r="P343" t="n">
-        <v>24750</v>
+        <v>7500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="T343" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,41 +27875,41 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Corazón de paloma</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="N344" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O344" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T344" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P345" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="T345" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44181</v>
+        <v>44161</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,32 +28044,32 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N346" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P346" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>950</v>
+        <v>1500</v>
       </c>
       <c r="T346" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44181</v>
+        <v>44161</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28115,41 +28115,41 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N347" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>900</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T347" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N348" t="n">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="O348" t="n">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="P348" t="n">
-        <v>600</v>
+        <v>36000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="T348" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N349" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O349" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P349" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,20 +28364,20 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N350" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O350" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P350" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>933</v>
+        <v>2000</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28440,36 +28440,36 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N351" t="n">
-        <v>800</v>
+        <v>22500</v>
       </c>
       <c r="O351" t="n">
-        <v>900</v>
+        <v>27000</v>
       </c>
       <c r="P351" t="n">
-        <v>850</v>
+        <v>24750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>850</v>
+        <v>1650</v>
       </c>
       <c r="T351" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,41 +28515,41 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Corazón de paloma</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="N352" t="n">
-        <v>600</v>
+        <v>24000</v>
       </c>
       <c r="O352" t="n">
-        <v>600</v>
+        <v>24000</v>
       </c>
       <c r="P352" t="n">
-        <v>600</v>
+        <v>24000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T352" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,32 +28604,32 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="N353" t="n">
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="O353" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="P353" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S353" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="T353" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354">
@@ -28675,41 +28675,41 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N354" t="n">
-        <v>650</v>
+        <v>9000</v>
       </c>
       <c r="O354" t="n">
-        <v>650</v>
+        <v>10000</v>
       </c>
       <c r="P354" t="n">
-        <v>650</v>
+        <v>9500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="T354" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,20 +28764,20 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N355" t="n">
-        <v>12000</v>
+        <v>700</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="P355" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
@@ -28789,7 +28789,7 @@
         <v>800</v>
       </c>
       <c r="T355" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,20 +28844,20 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>5500</v>
+        <v>600</v>
       </c>
       <c r="O356" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="P356" t="n">
-        <v>5750</v>
+        <v>600</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="T356" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,29 +28915,29 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N357" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O357" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P357" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T357" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,41 +28995,41 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N358" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O358" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P358" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,32 +29084,32 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N359" t="n">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="O359" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="P359" t="n">
-        <v>7500</v>
+        <v>850</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S359" t="n">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="T359" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,32 +29164,32 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N360" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="O360" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="P360" t="n">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
         <v>600</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,20 +29244,20 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N361" t="n">
-        <v>11000</v>
+        <v>800</v>
       </c>
       <c r="O361" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="P361" t="n">
-        <v>11500</v>
+        <v>900</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44201</v>
+        <v>44181</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29315,29 +29315,29 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N362" t="n">
-        <v>10500</v>
+        <v>650</v>
       </c>
       <c r="O362" t="n">
-        <v>10500</v>
+        <v>650</v>
       </c>
       <c r="P362" t="n">
-        <v>10500</v>
+        <v>650</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T362" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N363" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O363" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29422,11 +29422,11 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>517</v>
+        <v>800</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>5750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>575</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29555,25 +29555,25 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N365" t="n">
         <v>9000</v>
       </c>
       <c r="O365" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P365" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T365" t="n">
         <v>15</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N366" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O366" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P366" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,20 +29724,20 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N367" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P367" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T367" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N368" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29829,7 +29829,7 @@
         <v>600</v>
       </c>
       <c r="T368" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369">
@@ -29847,68 +29847,708 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E369" t="n">
+        <v>13</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I369" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M369" t="n">
+        <v>480</v>
+      </c>
+      <c r="N369" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O369" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P369" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S369" t="n">
+        <v>1150</v>
+      </c>
+      <c r="T369" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>6</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E369" t="n">
-        <v>13</v>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G369" t="n">
-        <v>100103</v>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>Frutos de hueso (carozo)</t>
-        </is>
-      </c>
-      <c r="I369" t="n">
-        <v>100103001</v>
-      </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>Cereza</t>
-        </is>
-      </c>
-      <c r="K369" t="inlineStr">
+      <c r="E370" t="n">
+        <v>13</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I370" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M370" t="n">
+        <v>200</v>
+      </c>
+      <c r="N370" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O370" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P370" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S370" t="n">
+        <v>700</v>
+      </c>
+      <c r="T370" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>6</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E371" t="n">
+        <v>13</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I371" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M371" t="n">
+        <v>300</v>
+      </c>
+      <c r="N371" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O371" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P371" t="n">
+        <v>7750</v>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S371" t="n">
+        <v>517</v>
+      </c>
+      <c r="T371" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>6</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E372" t="n">
+        <v>13</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I372" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M372" t="n">
+        <v>300</v>
+      </c>
+      <c r="N372" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O372" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P372" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S372" t="n">
+        <v>700</v>
+      </c>
+      <c r="T372" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>6</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D373" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E373" t="n">
+        <v>13</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M373" t="n">
+        <v>300</v>
+      </c>
+      <c r="N373" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O373" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P373" t="n">
+        <v>9750</v>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S373" t="n">
+        <v>650</v>
+      </c>
+      <c r="T373" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>6</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E374" t="n">
+        <v>13</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>200</v>
+      </c>
+      <c r="N374" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O374" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P374" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S374" t="n">
+        <v>500</v>
+      </c>
+      <c r="T374" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>6</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E375" t="n">
+        <v>13</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>200</v>
+      </c>
+      <c r="N375" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O375" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P375" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S375" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T375" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>6</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E376" t="n">
+        <v>13</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
         <is>
           <t>Sweet Heart</t>
         </is>
       </c>
-      <c r="L369" t="inlineStr">
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>300</v>
+      </c>
+      <c r="N376" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O376" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P376" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S376" t="n">
+        <v>600</v>
+      </c>
+      <c r="T376" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>6</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E377" t="n">
+        <v>13</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M369" t="n">
+      <c r="M377" t="n">
         <v>250</v>
       </c>
-      <c r="N369" t="n">
+      <c r="N377" t="n">
         <v>8000</v>
       </c>
-      <c r="O369" t="n">
+      <c r="O377" t="n">
         <v>8000</v>
       </c>
-      <c r="P369" t="n">
+      <c r="P377" t="n">
         <v>8000</v>
       </c>
-      <c r="Q369" t="inlineStr">
+      <c r="Q377" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R369" t="inlineStr">
+      <c r="R377" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S369" t="n">
+      <c r="S377" t="n">
         <v>533</v>
       </c>
-      <c r="T369" t="n">
+      <c r="T377" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T394"/>
+  <dimension ref="A1:T404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -21155,41 +21155,41 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N260" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O260" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P260" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1000</v>
+        <v>1833</v>
       </c>
       <c r="T260" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -21235,41 +21235,41 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="N261" t="n">
-        <v>10500</v>
+        <v>30000</v>
       </c>
       <c r="O261" t="n">
-        <v>10500</v>
+        <v>30000</v>
       </c>
       <c r="P261" t="n">
-        <v>10500</v>
+        <v>30000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="T261" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262">
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44216</v>
+        <v>44523</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -21324,32 +21324,32 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N262" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="O262" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P262" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="T262" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263">
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -21395,29 +21395,29 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>1300</v>
+        <v>17000</v>
       </c>
       <c r="O263" t="n">
-        <v>1300</v>
+        <v>17000</v>
       </c>
       <c r="P263" t="n">
-        <v>1300</v>
+        <v>17000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R263" t="inlineStr">
@@ -21426,10 +21426,10 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="T263" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E264" t="n">
         <v>13</v>
@@ -21475,29 +21475,29 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N264" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="O264" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="P264" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T264" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E265" t="n">
         <v>13</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="O265" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="P265" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T265" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E266" t="n">
         <v>13</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N266" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O266" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P266" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="T266" t="n">
         <v>10</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E267" t="n">
         <v>13</v>
@@ -21715,41 +21715,41 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="N267" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="O267" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="P267" t="n">
-        <v>19500</v>
+        <v>18000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="T267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -21807,29 +21807,29 @@
         <v>300</v>
       </c>
       <c r="N268" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="O268" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="P268" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T268" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44169</v>
+        <v>44523</v>
       </c>
       <c r="E269" t="n">
         <v>13</v>
@@ -21875,29 +21875,29 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N269" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="O269" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="P269" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T269" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E270" t="n">
         <v>13</v>
@@ -21955,25 +21955,25 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="N270" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O270" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P270" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T270" t="n">
         <v>15</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E271" t="n">
         <v>13</v>
@@ -22035,29 +22035,29 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N271" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O271" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="P271" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44169</v>
+        <v>44216</v>
       </c>
       <c r="E272" t="n">
         <v>13</v>
@@ -22115,29 +22115,29 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N272" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O272" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P272" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22149,7 +22149,7 @@
         <v>1200</v>
       </c>
       <c r="T272" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
@@ -22195,41 +22195,41 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -22275,41 +22275,41 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N274" t="n">
-        <v>16500</v>
+        <v>900</v>
       </c>
       <c r="O274" t="n">
-        <v>16500</v>
+        <v>900</v>
       </c>
       <c r="P274" t="n">
-        <v>16500</v>
+        <v>900</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="T274" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -22355,25 +22355,25 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N275" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="O275" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="P275" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T275" t="n">
         <v>1</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N276" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O276" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P276" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22515,41 +22515,41 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="N277" t="n">
-        <v>800</v>
+        <v>19500</v>
       </c>
       <c r="O277" t="n">
-        <v>800</v>
+        <v>19500</v>
       </c>
       <c r="P277" t="n">
-        <v>800</v>
+        <v>19500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T277" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278">
@@ -22595,41 +22595,41 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N278" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="O278" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="P278" t="n">
-        <v>7500</v>
+        <v>1300</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T278" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E279" t="n">
         <v>13</v>
@@ -22675,41 +22675,41 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="N279" t="n">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="O279" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="P279" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T279" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E280" t="n">
         <v>13</v>
@@ -22755,25 +22755,25 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="N280" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="O280" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="P280" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T280" t="n">
         <v>15</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N281" t="n">
-        <v>11250</v>
+        <v>14000</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P281" t="n">
-        <v>11625</v>
+        <v>14000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22866,10 +22866,10 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>775</v>
+        <v>1400</v>
       </c>
       <c r="T281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44195</v>
+        <v>44169</v>
       </c>
       <c r="E282" t="n">
         <v>13</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T282" t="n">
         <v>10</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E283" t="n">
         <v>13</v>
@@ -22995,25 +22995,25 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="N283" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P283" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23022,11 +23022,11 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T283" t="n">
         <v>10</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23087,29 +23087,29 @@
         <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="O284" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="P284" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="T284" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285">
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -23155,41 +23155,41 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N285" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="O285" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="P285" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T285" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E286" t="n">
         <v>13</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="N286" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O286" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P286" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23262,11 +23262,11 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T286" t="n">
         <v>10</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E287" t="n">
         <v>13</v>
@@ -23315,41 +23315,41 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="N287" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P287" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T287" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="E288" t="n">
         <v>13</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,32 +23404,32 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N288" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O288" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P288" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T288" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E289" t="n">
         <v>13</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="T289" t="n">
         <v>10</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E290" t="n">
         <v>13</v>
@@ -23555,25 +23555,25 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O290" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P290" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23582,11 +23582,11 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T290" t="n">
         <v>15</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E291" t="n">
         <v>13</v>
@@ -23635,41 +23635,41 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N291" t="n">
-        <v>9000</v>
+        <v>11250</v>
       </c>
       <c r="O291" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P291" t="n">
-        <v>9000</v>
+        <v>11625</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S291" t="n">
-        <v>900</v>
+        <v>775</v>
       </c>
       <c r="T291" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44172</v>
+        <v>44195</v>
       </c>
       <c r="E292" t="n">
         <v>13</v>
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N292" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O292" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P292" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23742,11 +23742,11 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T292" t="n">
         <v>10</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N293" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O293" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T293" t="n">
         <v>10</v>
@@ -23875,25 +23875,25 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P294" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T294" t="n">
         <v>10</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="N295" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P295" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T295" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24035,29 +24035,29 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="N296" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="O296" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="P296" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T296" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24115,41 +24115,41 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N297" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="O297" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="P297" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T297" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N298" t="n">
-        <v>700</v>
+        <v>5000</v>
       </c>
       <c r="O298" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="P298" t="n">
-        <v>750</v>
+        <v>5000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T298" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24275,29 +24275,29 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N299" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="O299" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="P299" t="n">
-        <v>500</v>
+        <v>12000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T299" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E300" t="n">
         <v>13</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,32 +24364,32 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N300" t="n">
-        <v>700</v>
+        <v>15000</v>
       </c>
       <c r="O300" t="n">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T300" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301">
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E301" t="n">
         <v>13</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,32 +24444,32 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N301" t="n">
-        <v>600</v>
+        <v>9000</v>
       </c>
       <c r="O301" t="n">
-        <v>600</v>
+        <v>9000</v>
       </c>
       <c r="P301" t="n">
-        <v>600</v>
+        <v>9000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T301" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302">
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44176</v>
+        <v>44172</v>
       </c>
       <c r="E302" t="n">
         <v>13</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N302" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O302" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P302" t="n">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44176</v>
+        <v>44172</v>
       </c>
       <c r="E303" t="n">
         <v>13</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,20 +24604,20 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N303" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P303" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R303" t="inlineStr">
@@ -24626,10 +24626,10 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>767</v>
+        <v>1400</v>
       </c>
       <c r="T303" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304">
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44172</v>
       </c>
       <c r="E304" t="n">
         <v>13</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24687,13 +24687,13 @@
         <v>100</v>
       </c>
       <c r="N304" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O304" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P304" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T304" t="n">
         <v>10</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44176</v>
+        <v>44222</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N305" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O305" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P305" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24782,11 +24782,11 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T305" t="n">
         <v>15</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24847,17 +24847,17 @@
         <v>350</v>
       </c>
       <c r="N306" t="n">
-        <v>13000</v>
+        <v>700</v>
       </c>
       <c r="O306" t="n">
-        <v>13000</v>
+        <v>800</v>
       </c>
       <c r="P306" t="n">
-        <v>13000</v>
+        <v>750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>867</v>
+        <v>750</v>
       </c>
       <c r="T306" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,20 +24924,20 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N307" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="O307" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="P307" t="n">
-        <v>13000</v>
+        <v>400</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1083</v>
+        <v>400</v>
       </c>
       <c r="T307" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>800</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T308" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25075,41 +25075,41 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N309" t="n">
-        <v>16500</v>
+        <v>500</v>
       </c>
       <c r="O309" t="n">
-        <v>16500</v>
+        <v>500</v>
       </c>
       <c r="P309" t="n">
-        <v>16500</v>
+        <v>500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T309" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25155,41 +25155,41 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N310" t="n">
-        <v>18000</v>
+        <v>700</v>
       </c>
       <c r="O310" t="n">
-        <v>18000</v>
+        <v>900</v>
       </c>
       <c r="P310" t="n">
-        <v>18000</v>
+        <v>800</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T310" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25235,41 +25235,41 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N311" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="O311" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="P311" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T311" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,32 +25324,32 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N312" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O312" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>13286</v>
+        <v>9200</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>886</v>
+        <v>920</v>
       </c>
       <c r="T312" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N313" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O313" t="n">
         <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="T313" t="n">
         <v>15</v>
@@ -25475,29 +25475,29 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O314" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P314" t="n">
-        <v>13019</v>
+        <v>7000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>868</v>
+        <v>700</v>
       </c>
       <c r="T314" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,32 +25564,32 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N315" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O315" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P315" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S315" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316">
@@ -25635,25 +25635,25 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N316" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>11250</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>10800</v>
+        <v>13000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25662,11 +25662,11 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S316" t="n">
-        <v>720</v>
+        <v>867</v>
       </c>
       <c r="T316" t="n">
         <v>15</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,32 +25724,32 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N317" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O317" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>700</v>
+        <v>1083</v>
       </c>
       <c r="T317" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318">
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>9021</v>
+        <v>10000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="T318" t="n">
         <v>15</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,32 +25884,32 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N319" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="O319" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="P319" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2300</v>
+        <v>1100</v>
       </c>
       <c r="T319" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E320" t="n">
         <v>13</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,32 +25964,32 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N320" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P320" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="T320" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321">
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E321" t="n">
         <v>13</v>
@@ -26035,41 +26035,41 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N321" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="O321" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="P321" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="T321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E322" t="n">
         <v>13</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N322" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O322" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>30000</v>
+        <v>13286</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26142,11 +26142,11 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2000</v>
+        <v>886</v>
       </c>
       <c r="T322" t="n">
         <v>15</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -26195,41 +26195,41 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="P323" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>3500</v>
+        <v>800</v>
       </c>
       <c r="T323" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E324" t="n">
         <v>13</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>120</v>
+        <v>530</v>
       </c>
       <c r="N324" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O324" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P324" t="n">
-        <v>25000</v>
+        <v>13019</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>2500</v>
+        <v>868</v>
       </c>
       <c r="T324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E325" t="n">
         <v>13</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N325" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O325" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P325" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26382,11 +26382,11 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E326" t="n">
         <v>13</v>
@@ -26440,36 +26440,36 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N326" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O326" t="n">
-        <v>20000</v>
+        <v>11250</v>
       </c>
       <c r="P326" t="n">
-        <v>20000</v>
+        <v>10800</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2000</v>
+        <v>720</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E327" t="n">
         <v>13</v>
@@ -26524,32 +26524,32 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O327" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P327" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="T327" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44166</v>
+        <v>44176</v>
       </c>
       <c r="E328" t="n">
         <v>13</v>
@@ -26595,29 +26595,29 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="N328" t="n">
-        <v>1600</v>
+        <v>8000</v>
       </c>
       <c r="O328" t="n">
-        <v>1600</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>1600</v>
+        <v>9021</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1600</v>
+        <v>601</v>
       </c>
       <c r="T328" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P329" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26702,11 +26702,11 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="T329" t="n">
         <v>10</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26760,36 +26760,36 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="N330" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="O330" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>1400</v>
+        <v>12000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="T330" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26835,41 +26835,41 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N331" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="O331" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="P331" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="T331" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26915,41 +26915,41 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N332" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="O332" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="P332" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T332" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="O333" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="P333" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="T333" t="n">
         <v>10</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N334" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O334" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P334" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27155,29 +27155,29 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>1400</v>
+        <v>19000</v>
       </c>
       <c r="O335" t="n">
-        <v>1400</v>
+        <v>19000</v>
       </c>
       <c r="P335" t="n">
-        <v>1400</v>
+        <v>19000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="T335" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336">
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E336" t="n">
         <v>13</v>
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O336" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P336" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T336" t="n">
         <v>10</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E337" t="n">
         <v>13</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,20 +27324,20 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N337" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="O337" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27346,10 +27346,10 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T337" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,20 +27404,20 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N338" t="n">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="O338" t="n">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="P338" t="n">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -27429,7 +27429,7 @@
         <v>1600</v>
       </c>
       <c r="T338" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -27475,29 +27475,29 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N339" t="n">
-        <v>1700</v>
+        <v>13000</v>
       </c>
       <c r="O339" t="n">
-        <v>1700</v>
+        <v>13000</v>
       </c>
       <c r="P339" t="n">
-        <v>1700</v>
+        <v>13000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="T339" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27567,17 +27567,17 @@
         <v>250</v>
       </c>
       <c r="N340" t="n">
-        <v>15000</v>
+        <v>1400</v>
       </c>
       <c r="O340" t="n">
-        <v>15000</v>
+        <v>1400</v>
       </c>
       <c r="P340" t="n">
-        <v>15000</v>
+        <v>1400</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T340" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -27635,29 +27635,29 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
         <v>300</v>
       </c>
       <c r="N341" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="O341" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="P341" t="n">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T341" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342">
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,20 +27724,20 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N342" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="O342" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="P342" t="n">
-        <v>12000</v>
+        <v>1000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T342" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -27795,29 +27795,29 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
         <v>250</v>
       </c>
       <c r="N343" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="O343" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="P343" t="n">
-        <v>1200</v>
+        <v>16000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="T343" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27884,32 +27884,32 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O344" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T344" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E345" t="n">
         <v>13</v>
@@ -27964,32 +27964,32 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="N345" t="n">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="O345" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="P345" t="n">
-        <v>11000</v>
+        <v>1400</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>733</v>
+        <v>1400</v>
       </c>
       <c r="T345" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E346" t="n">
         <v>13</v>
@@ -28040,24 +28040,24 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N346" t="n">
         <v>10000</v>
       </c>
       <c r="O346" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P346" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28066,10 +28066,10 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>733</v>
+        <v>1000</v>
       </c>
       <c r="T346" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -28124,32 +28124,32 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T347" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E348" t="n">
         <v>13</v>
@@ -28195,29 +28195,29 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="N348" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O348" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P348" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R348" t="inlineStr">
@@ -28226,10 +28226,10 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>533</v>
+        <v>1600</v>
       </c>
       <c r="T348" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349">
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E349" t="n">
         <v>13</v>
@@ -28280,24 +28280,24 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="N349" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="O349" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="P349" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R349" t="inlineStr">
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="T349" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E350" t="n">
         <v>13</v>
@@ -28360,24 +28360,24 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R350" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>667</v>
+        <v>1500</v>
       </c>
       <c r="T350" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351">
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44510</v>
+        <v>44166</v>
       </c>
       <c r="E351" t="n">
         <v>13</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28447,29 +28447,29 @@
         <v>300</v>
       </c>
       <c r="N351" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="O351" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="P351" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T351" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44510</v>
+        <v>44166</v>
       </c>
       <c r="E352" t="n">
         <v>13</v>
@@ -28515,41 +28515,41 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="N352" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="O352" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="P352" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T352" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44510</v>
+        <v>44166</v>
       </c>
       <c r="E353" t="n">
         <v>13</v>
@@ -28595,29 +28595,29 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="N353" t="n">
-        <v>39000</v>
+        <v>1200</v>
       </c>
       <c r="O353" t="n">
-        <v>42000</v>
+        <v>1200</v>
       </c>
       <c r="P353" t="n">
-        <v>40500</v>
+        <v>1200</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="T353" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28675,41 +28675,41 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N354" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="O354" t="n">
-        <v>22500</v>
+        <v>6000</v>
       </c>
       <c r="P354" t="n">
-        <v>21750</v>
+        <v>6000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1450</v>
+        <v>1200</v>
       </c>
       <c r="T354" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,41 +28755,41 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N355" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P355" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1600</v>
+        <v>733</v>
       </c>
       <c r="T355" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,32 +28844,32 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N356" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P356" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1450</v>
+        <v>733</v>
       </c>
       <c r="T356" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,20 +28924,20 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N357" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O357" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P357" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
@@ -28946,10 +28946,10 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1200</v>
+        <v>533</v>
       </c>
       <c r="T357" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,41 +28995,41 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="N358" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1650</v>
+        <v>533</v>
       </c>
       <c r="T358" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29075,29 +29075,29 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N359" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O359" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P359" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T359" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29155,41 +29155,41 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N360" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O360" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P360" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1500</v>
+        <v>667</v>
       </c>
       <c r="T360" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,32 +29244,32 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O361" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P361" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1300</v>
+        <v>3000</v>
       </c>
       <c r="T361" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,20 +29324,20 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>800</v>
+        <v>60</v>
       </c>
       <c r="N362" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="O362" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="P362" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T362" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29395,41 +29395,41 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="N363" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="O363" t="n">
-        <v>12000</v>
+        <v>42000</v>
       </c>
       <c r="P363" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="T363" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,20 +29484,20 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>700</v>
+        <v>180</v>
       </c>
       <c r="N364" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="O364" t="n">
-        <v>36000</v>
+        <v>22500</v>
       </c>
       <c r="P364" t="n">
-        <v>36000</v>
+        <v>21750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>3000</v>
+        <v>1450</v>
       </c>
       <c r="T364" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29555,25 +29555,25 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N365" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="O365" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="P365" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N366" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O366" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="P366" t="n">
-        <v>28000</v>
+        <v>14500</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2800</v>
+        <v>1450</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N367" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O367" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P367" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29800,24 +29800,24 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>120</v>
       </c>
       <c r="N368" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="O368" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="P368" t="n">
-        <v>24750</v>
+        <v>16500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29829,7 +29829,7 @@
         <v>1650</v>
       </c>
       <c r="T368" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29875,41 +29875,41 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Corazón de paloma</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="N369" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O369" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P369" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T369" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N370" t="n">
         <v>15000</v>
@@ -29977,19 +29977,19 @@
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="T370" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44181</v>
+        <v>44161</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N371" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O371" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P371" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44181</v>
+        <v>44161</v>
       </c>
       <c r="E372" t="n">
         <v>13</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,32 +30124,32 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N372" t="n">
-        <v>700</v>
+        <v>7500</v>
       </c>
       <c r="O372" t="n">
-        <v>900</v>
+        <v>7500</v>
       </c>
       <c r="P372" t="n">
-        <v>800</v>
+        <v>7500</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T372" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44181</v>
+        <v>44161</v>
       </c>
       <c r="E373" t="n">
         <v>13</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,32 +30204,32 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N373" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="O373" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T373" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30275,29 +30275,29 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N374" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="O374" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="P374" t="n">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
@@ -30306,10 +30306,10 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1100</v>
+        <v>3000</v>
       </c>
       <c r="T374" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30355,41 +30355,41 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N375" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="O375" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="P375" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S375" t="n">
-        <v>933</v>
+        <v>3500</v>
       </c>
       <c r="T375" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30444,32 +30444,32 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N376" t="n">
-        <v>800</v>
+        <v>25000</v>
       </c>
       <c r="O376" t="n">
-        <v>900</v>
+        <v>30000</v>
       </c>
       <c r="P376" t="n">
-        <v>850</v>
+        <v>28000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>850</v>
+        <v>2800</v>
       </c>
       <c r="T376" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30520,24 +30520,24 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N377" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="O377" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="P377" t="n">
-        <v>600</v>
+        <v>20000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T377" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30595,29 +30595,29 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="N378" t="n">
-        <v>800</v>
+        <v>22500</v>
       </c>
       <c r="O378" t="n">
-        <v>1000</v>
+        <v>27000</v>
       </c>
       <c r="P378" t="n">
-        <v>900</v>
+        <v>24750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>900</v>
+        <v>1650</v>
       </c>
       <c r="T378" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30675,41 +30675,41 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Corazón de paloma</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="N379" t="n">
-        <v>650</v>
+        <v>24000</v>
       </c>
       <c r="O379" t="n">
-        <v>650</v>
+        <v>24000</v>
       </c>
       <c r="P379" t="n">
-        <v>650</v>
+        <v>24000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="T379" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44194</v>
+        <v>44515</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,32 +30764,32 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="T380" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N381" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="O381" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>5750</v>
+        <v>9500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N382" t="n">
-        <v>9000</v>
+        <v>700</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>900</v>
       </c>
       <c r="P382" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T382" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -31000,36 +31000,36 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="O383" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="P383" t="n">
-        <v>9000</v>
+        <v>600</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N384" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P384" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31102,11 +31102,11 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S384" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="T384" t="n">
         <v>10</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31155,41 +31155,41 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N385" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O385" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P385" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,32 +31244,32 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N386" t="n">
-        <v>11000</v>
+        <v>800</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>900</v>
       </c>
       <c r="P386" t="n">
-        <v>11500</v>
+        <v>850</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1150</v>
+        <v>850</v>
       </c>
       <c r="T386" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44201</v>
+        <v>44181</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31315,41 +31315,41 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N387" t="n">
-        <v>10500</v>
+        <v>600</v>
       </c>
       <c r="O387" t="n">
-        <v>10500</v>
+        <v>600</v>
       </c>
       <c r="P387" t="n">
-        <v>10500</v>
+        <v>600</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T387" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44201</v>
+        <v>44181</v>
       </c>
       <c r="E388" t="n">
         <v>13</v>
@@ -31395,29 +31395,29 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N388" t="n">
-        <v>7500</v>
+        <v>800</v>
       </c>
       <c r="O388" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="P388" t="n">
-        <v>7750</v>
+        <v>900</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>517</v>
+        <v>900</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44201</v>
+        <v>44181</v>
       </c>
       <c r="E389" t="n">
         <v>13</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>650</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>650</v>
       </c>
       <c r="P389" t="n">
-        <v>7000</v>
+        <v>650</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N390" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O390" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P390" t="n">
-        <v>9750</v>
+        <v>12000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31582,11 +31582,11 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S390" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T390" t="n">
         <v>15</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>5750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31662,11 +31662,11 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="T391" t="n">
         <v>10</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31715,41 +31715,41 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N392" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O392" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P392" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T392" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,16 +31795,16 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N393" t="n">
         <v>9000</v>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,40 +31875,840 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N394" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O394" t="n">
         <v>8000</v>
       </c>
       <c r="P394" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S394" t="n">
+        <v>750</v>
+      </c>
+      <c r="T394" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>6</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D395" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E395" t="n">
+        <v>13</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I395" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M395" t="n">
+        <v>250</v>
+      </c>
+      <c r="N395" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O395" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P395" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S395" t="n">
+        <v>600</v>
+      </c>
+      <c r="T395" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>6</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D396" s="2" t="n">
+        <v>44194</v>
+      </c>
+      <c r="E396" t="n">
+        <v>13</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>480</v>
+      </c>
+      <c r="N396" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O396" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P396" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S396" t="n">
+        <v>1150</v>
+      </c>
+      <c r="T396" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>6</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E397" t="n">
+        <v>13</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>200</v>
+      </c>
+      <c r="N397" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O397" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P397" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S397" t="n">
+        <v>700</v>
+      </c>
+      <c r="T397" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>6</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E398" t="n">
+        <v>13</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>300</v>
+      </c>
+      <c r="N398" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O398" t="n">
         <v>8000</v>
       </c>
-      <c r="Q394" t="inlineStr">
+      <c r="P398" t="n">
+        <v>7750</v>
+      </c>
+      <c r="Q398" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R394" t="inlineStr">
+      <c r="R398" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S394" t="n">
+      <c r="S398" t="n">
+        <v>517</v>
+      </c>
+      <c r="T398" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>6</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E399" t="n">
+        <v>13</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M399" t="n">
+        <v>300</v>
+      </c>
+      <c r="N399" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O399" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P399" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S399" t="n">
+        <v>700</v>
+      </c>
+      <c r="T399" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>6</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E400" t="n">
+        <v>13</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M400" t="n">
+        <v>300</v>
+      </c>
+      <c r="N400" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O400" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P400" t="n">
+        <v>9750</v>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S400" t="n">
+        <v>650</v>
+      </c>
+      <c r="T400" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>6</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D401" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E401" t="n">
+        <v>13</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M401" t="n">
+        <v>200</v>
+      </c>
+      <c r="N401" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O401" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P401" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S401" t="n">
+        <v>500</v>
+      </c>
+      <c r="T401" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>6</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D402" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E402" t="n">
+        <v>13</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M402" t="n">
+        <v>200</v>
+      </c>
+      <c r="N402" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O402" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P402" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S402" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T402" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>6</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E403" t="n">
+        <v>13</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M403" t="n">
+        <v>300</v>
+      </c>
+      <c r="N403" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O403" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P403" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S403" t="n">
+        <v>600</v>
+      </c>
+      <c r="T403" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>6</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E404" t="n">
+        <v>13</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>250</v>
+      </c>
+      <c r="N404" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O404" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P404" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S404" t="n">
         <v>533</v>
       </c>
-      <c r="T394" t="n">
+      <c r="T404" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,32 +23804,32 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P293" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1500</v>
+        <v>1667</v>
       </c>
       <c r="T293" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E294" t="n">
         <v>13</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,20 +23884,20 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N294" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P294" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E295" t="n">
         <v>13</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,32 +23964,32 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O295" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P295" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S295" t="n">
         <v>1200</v>
       </c>
       <c r="T295" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E296" t="n">
         <v>13</v>
@@ -24035,25 +24035,25 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="N296" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O296" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P296" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="T296" t="n">
         <v>10</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E297" t="n">
         <v>13</v>
@@ -24115,25 +24115,25 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="N297" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O297" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P297" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T297" t="n">
         <v>10</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E298" t="n">
         <v>13</v>
@@ -24195,29 +24195,29 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O298" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P298" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
@@ -24226,10 +24226,10 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T298" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E299" t="n">
         <v>13</v>
@@ -24280,24 +24280,24 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N299" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O299" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P299" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -24306,10 +24306,10 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1200</v>
+        <v>1333</v>
       </c>
       <c r="T299" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24377,19 +24377,19 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T300" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301">
@@ -24435,25 +24435,25 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O301" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P301" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T301" t="n">
         <v>10</v>
@@ -24515,25 +24515,25 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="N302" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O302" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P302" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24595,25 +24595,25 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="T303" t="n">
         <v>10</v>
@@ -24675,25 +24675,25 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M304" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P304" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24702,11 +24702,11 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T304" t="n">
         <v>10</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44222</v>
+        <v>44172</v>
       </c>
       <c r="E305" t="n">
         <v>13</v>
@@ -24755,41 +24755,41 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N305" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O305" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P305" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S305" t="n">
         <v>1000</v>
       </c>
       <c r="T305" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306">
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E306" t="n">
         <v>13</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N306" t="n">
-        <v>700</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>800</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>750</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="T306" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -24915,29 +24915,29 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N307" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="O307" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>400</v>
+        <v>15000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R307" t="inlineStr">
@@ -24946,10 +24946,10 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T307" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308">
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E308" t="n">
         <v>13</v>
@@ -24995,29 +24995,29 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N308" t="n">
-        <v>700</v>
+        <v>9000</v>
       </c>
       <c r="O308" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="P308" t="n">
-        <v>750</v>
+        <v>9000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T308" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N309" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="O309" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="P309" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T309" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E310" t="n">
         <v>13</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,32 +25164,32 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N310" t="n">
-        <v>700</v>
+        <v>14000</v>
       </c>
       <c r="O310" t="n">
-        <v>900</v>
+        <v>14000</v>
       </c>
       <c r="P310" t="n">
-        <v>800</v>
+        <v>14000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T310" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311">
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44210</v>
+        <v>44172</v>
       </c>
       <c r="E311" t="n">
         <v>13</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,32 +25244,32 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N311" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="O311" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="P311" t="n">
-        <v>600</v>
+        <v>12000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T311" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44176</v>
+        <v>44222</v>
       </c>
       <c r="E312" t="n">
         <v>13</v>
@@ -25320,36 +25320,36 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>250</v>
       </c>
       <c r="N312" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O312" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P312" t="n">
-        <v>9200</v>
+        <v>15000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="T312" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E313" t="n">
         <v>13</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,20 +25404,20 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N313" t="n">
-        <v>11000</v>
+        <v>700</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="P313" t="n">
-        <v>11500</v>
+        <v>750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -25426,10 +25426,10 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="T313" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E314" t="n">
         <v>13</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,20 +25484,20 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="O314" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="P314" t="n">
-        <v>7000</v>
+        <v>400</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T314" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -25560,24 +25560,24 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N315" t="n">
-        <v>9000</v>
+        <v>700</v>
       </c>
       <c r="O315" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="P315" t="n">
-        <v>9000</v>
+        <v>750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T315" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N316" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="O316" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="P316" t="n">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>867</v>
+        <v>500</v>
       </c>
       <c r="T316" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E317" t="n">
         <v>13</v>
@@ -25720,36 +25720,36 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N317" t="n">
-        <v>13000</v>
+        <v>700</v>
       </c>
       <c r="O317" t="n">
-        <v>13000</v>
+        <v>900</v>
       </c>
       <c r="P317" t="n">
-        <v>13000</v>
+        <v>800</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1083</v>
+        <v>800</v>
       </c>
       <c r="T317" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -25804,32 +25804,32 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N318" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="O318" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="P318" t="n">
-        <v>10000</v>
+        <v>600</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S318" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T318" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -25875,41 +25875,41 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N319" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O319" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>16500</v>
+        <v>9200</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="T319" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320">
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N320" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O320" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P320" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1200</v>
+        <v>767</v>
       </c>
       <c r="T320" t="n">
         <v>15</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26062,11 +26062,11 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S321" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T321" t="n">
         <v>10</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="N322" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O322" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P322" t="n">
-        <v>13286</v>
+        <v>9000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26142,11 +26142,11 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S322" t="n">
-        <v>886</v>
+        <v>600</v>
       </c>
       <c r="T322" t="n">
         <v>15</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O323" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26222,11 +26222,11 @@
       </c>
       <c r="R323" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S323" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T323" t="n">
         <v>15</v>
@@ -26275,29 +26275,29 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="N324" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O324" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P324" t="n">
-        <v>13019</v>
+        <v>13000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>868</v>
+        <v>1083</v>
       </c>
       <c r="T324" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,32 +26364,32 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O325" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P325" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S325" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T325" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326">
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N326" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O326" t="n">
-        <v>11250</v>
+        <v>16500</v>
       </c>
       <c r="P326" t="n">
-        <v>10800</v>
+        <v>16500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>720</v>
+        <v>1100</v>
       </c>
       <c r="T326" t="n">
         <v>15</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N327" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O327" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P327" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26542,11 +26542,11 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S327" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T327" t="n">
         <v>15</v>
@@ -26600,36 +26600,36 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="N328" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P328" t="n">
-        <v>9021</v>
+        <v>9000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S328" t="n">
-        <v>601</v>
+        <v>900</v>
       </c>
       <c r="T328" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329">
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E329" t="n">
         <v>13</v>
@@ -26675,41 +26675,41 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N329" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P329" t="n">
-        <v>23000</v>
+        <v>13286</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2300</v>
+        <v>886</v>
       </c>
       <c r="T329" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -26755,16 +26755,16 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="N330" t="n">
         <v>12000</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26786,10 +26786,10 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="T330" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E331" t="n">
         <v>13</v>
@@ -26835,25 +26835,25 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="N331" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
       <c r="O331" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>33000</v>
+        <v>13019</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26862,11 +26862,11 @@
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2200</v>
+        <v>868</v>
       </c>
       <c r="T331" t="n">
         <v>15</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E332" t="n">
         <v>13</v>
@@ -26915,41 +26915,41 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N332" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="O332" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="P332" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S332" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="T332" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E333" t="n">
         <v>13</v>
@@ -26995,41 +26995,41 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N333" t="n">
-        <v>35000</v>
+        <v>10500</v>
       </c>
       <c r="O333" t="n">
-        <v>35000</v>
+        <v>11250</v>
       </c>
       <c r="P333" t="n">
-        <v>35000</v>
+        <v>10800</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S333" t="n">
-        <v>3500</v>
+        <v>720</v>
       </c>
       <c r="T333" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E334" t="n">
         <v>13</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,32 +27084,32 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="O334" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="P334" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="T334" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335">
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44522</v>
+        <v>44176</v>
       </c>
       <c r="E335" t="n">
         <v>13</v>
@@ -27160,24 +27160,24 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="N335" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O335" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>19000</v>
+        <v>9021</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -27186,10 +27186,10 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1900</v>
+        <v>601</v>
       </c>
       <c r="T335" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
@@ -27235,25 +27235,25 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O336" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P336" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27262,11 +27262,11 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="T336" t="n">
         <v>10</v>
@@ -27315,41 +27315,41 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="N337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P337" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="T337" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,32 +27404,32 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N338" t="n">
-        <v>1600</v>
+        <v>33000</v>
       </c>
       <c r="O338" t="n">
-        <v>1600</v>
+        <v>33000</v>
       </c>
       <c r="P338" t="n">
-        <v>1600</v>
+        <v>33000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="T338" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339">
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E339" t="n">
         <v>13</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,32 +27484,32 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N339" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="O339" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="P339" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="T339" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E340" t="n">
         <v>13</v>
@@ -27555,29 +27555,29 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>1400</v>
+        <v>35000</v>
       </c>
       <c r="O340" t="n">
-        <v>1400</v>
+        <v>35000</v>
       </c>
       <c r="P340" t="n">
-        <v>1400</v>
+        <v>35000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1400</v>
+        <v>3500</v>
       </c>
       <c r="T340" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E341" t="n">
         <v>13</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N341" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="O341" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P341" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E342" t="n">
         <v>13</v>
@@ -27715,29 +27715,29 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>1000</v>
+        <v>19000</v>
       </c>
       <c r="O342" t="n">
-        <v>1000</v>
+        <v>19000</v>
       </c>
       <c r="P342" t="n">
-        <v>1000</v>
+        <v>19000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="T342" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E343" t="n">
         <v>13</v>
@@ -27795,25 +27795,25 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O343" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P343" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44166</v>
+        <v>44522</v>
       </c>
       <c r="E344" t="n">
         <v>13</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N344" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P344" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="N345" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="O345" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="P345" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T345" t="n">
         <v>1</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N347" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="O347" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="P347" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T347" t="n">
         <v>1</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="N348" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O348" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P348" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N349" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="O349" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="P349" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="T349" t="n">
         <v>1</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>250</v>
       </c>
       <c r="N350" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O350" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P350" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28447,17 +28447,17 @@
         <v>300</v>
       </c>
       <c r="N351" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="O351" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R351" t="inlineStr">
@@ -28466,10 +28466,10 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T351" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352">
@@ -28515,29 +28515,29 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="N352" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="O352" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="P352" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
@@ -28546,10 +28546,10 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="T352" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28607,17 +28607,17 @@
         <v>250</v>
       </c>
       <c r="N353" t="n">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>1200</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
@@ -28626,10 +28626,10 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E354" t="n">
         <v>13</v>
@@ -28680,36 +28680,36 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="O354" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="P354" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="T354" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E355" t="n">
         <v>13</v>
@@ -28755,41 +28755,41 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O355" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P355" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>733</v>
+        <v>1600</v>
       </c>
       <c r="T355" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356">
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E356" t="n">
         <v>13</v>
@@ -28835,29 +28835,29 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="N356" t="n">
-        <v>10000</v>
+        <v>1700</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>1700</v>
       </c>
       <c r="P356" t="n">
-        <v>11000</v>
+        <v>1700</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R356" t="inlineStr">
@@ -28866,10 +28866,10 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>733</v>
+        <v>1700</v>
       </c>
       <c r="T356" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
@@ -28915,41 +28915,41 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
         <v>250</v>
       </c>
       <c r="N357" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O357" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P357" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S357" t="n">
-        <v>533</v>
+        <v>1500</v>
       </c>
       <c r="T357" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E358" t="n">
         <v>13</v>
@@ -28995,29 +28995,29 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="N358" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="O358" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="P358" t="n">
-        <v>8000</v>
+        <v>1500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R358" t="inlineStr">
@@ -29026,10 +29026,10 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>533</v>
+        <v>1500</v>
       </c>
       <c r="T358" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -29080,11 +29080,11 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
         <v>12000</v>
@@ -29097,7 +29097,7 @@
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T359" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44232</v>
+        <v>44166</v>
       </c>
       <c r="E360" t="n">
         <v>13</v>
@@ -29164,20 +29164,20 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N360" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="O360" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="P360" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R360" t="inlineStr">
@@ -29186,10 +29186,10 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T360" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E361" t="n">
         <v>13</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N361" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O361" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P361" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T361" t="n">
         <v>5</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="N362" t="n">
-        <v>45000</v>
+        <v>10000</v>
       </c>
       <c r="O362" t="n">
-        <v>45000</v>
+        <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>45000</v>
+        <v>11000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>3000</v>
+        <v>733</v>
       </c>
       <c r="T362" t="n">
         <v>15</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44510</v>
+        <v>44232</v>
       </c>
       <c r="E363" t="n">
         <v>13</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="N363" t="n">
-        <v>39000</v>
+        <v>10000</v>
       </c>
       <c r="O363" t="n">
-        <v>42000</v>
+        <v>12000</v>
       </c>
       <c r="P363" t="n">
-        <v>40500</v>
+        <v>11000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2700</v>
+        <v>733</v>
       </c>
       <c r="T363" t="n">
         <v>15</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E364" t="n">
         <v>13</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N364" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="P364" t="n">
-        <v>21750</v>
+        <v>8000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1450</v>
+        <v>533</v>
       </c>
       <c r="T364" t="n">
         <v>15</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E365" t="n">
         <v>13</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,20 +29564,20 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="N365" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O365" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P365" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R365" t="inlineStr">
@@ -29586,10 +29586,10 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1600</v>
+        <v>533</v>
       </c>
       <c r="T365" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E366" t="n">
         <v>13</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,32 +29644,32 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N366" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P366" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44161</v>
+        <v>44232</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,32 +29724,32 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N367" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O367" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P367" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T367" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -29795,29 +29795,29 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N368" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O368" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P368" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R368" t="inlineStr">
@@ -29826,10 +29826,10 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="T368" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E369" t="n">
         <v>13</v>
@@ -29875,41 +29875,41 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="N369" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="O369" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="P369" t="n">
-        <v>7500</v>
+        <v>45000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T369" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,32 +29964,32 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>350</v>
+        <v>96</v>
       </c>
       <c r="N370" t="n">
-        <v>15000</v>
+        <v>39000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="P370" t="n">
-        <v>15000</v>
+        <v>40500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="T370" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371">
@@ -30035,29 +30035,29 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N371" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>22500</v>
       </c>
       <c r="P371" t="n">
-        <v>13000</v>
+        <v>21750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R371" t="inlineStr">
@@ -30066,10 +30066,10 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="T371" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372">
@@ -30115,41 +30115,41 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>800</v>
+        <v>120</v>
       </c>
       <c r="N372" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="O372" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="P372" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T372" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373">
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N373" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O373" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1200</v>
+        <v>1450</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E374" t="n">
         <v>13</v>
@@ -30280,36 +30280,36 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N374" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="O374" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="P374" t="n">
-        <v>36000</v>
+        <v>12000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T374" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375">
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E375" t="n">
         <v>13</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N375" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="O375" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="P375" t="n">
-        <v>35000</v>
+        <v>16500</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>3500</v>
+        <v>1650</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -30440,36 +30440,36 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="O376" t="n">
-        <v>30000</v>
+        <v>7500</v>
       </c>
       <c r="P376" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="T376" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377">
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E377" t="n">
         <v>13</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="N377" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O377" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P377" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30542,11 +30542,11 @@
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44517</v>
+        <v>44161</v>
       </c>
       <c r="E378" t="n">
         <v>13</v>
@@ -30600,36 +30600,36 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N378" t="n">
-        <v>22500</v>
+        <v>13000</v>
       </c>
       <c r="O378" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>24750</v>
+        <v>13000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1650</v>
+        <v>1300</v>
       </c>
       <c r="T378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E379" t="n">
         <v>13</v>
@@ -30675,41 +30675,41 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Corazón de paloma</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="N379" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O379" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P379" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T379" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44515</v>
+        <v>44161</v>
       </c>
       <c r="E380" t="n">
         <v>13</v>
@@ -30755,41 +30755,41 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="N380" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O380" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S380" t="n">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="T380" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E381" t="n">
         <v>13</v>
@@ -30835,29 +30835,29 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>36000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>36000</v>
       </c>
       <c r="P381" t="n">
-        <v>9500</v>
+        <v>36000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>950</v>
+        <v>3000</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E382" t="n">
         <v>13</v>
@@ -30915,41 +30915,41 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="N382" t="n">
-        <v>700</v>
+        <v>35000</v>
       </c>
       <c r="O382" t="n">
-        <v>900</v>
+        <v>35000</v>
       </c>
       <c r="P382" t="n">
-        <v>800</v>
+        <v>35000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S382" t="n">
-        <v>800</v>
+        <v>3500</v>
       </c>
       <c r="T382" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E383" t="n">
         <v>13</v>
@@ -30995,41 +30995,41 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N383" t="n">
-        <v>600</v>
+        <v>25000</v>
       </c>
       <c r="O383" t="n">
-        <v>600</v>
+        <v>30000</v>
       </c>
       <c r="P383" t="n">
-        <v>600</v>
+        <v>28000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="T383" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E384" t="n">
         <v>13</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="N384" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O384" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P384" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="T384" t="n">
         <v>10</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44181</v>
+        <v>44517</v>
       </c>
       <c r="E385" t="n">
         <v>13</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N385" t="n">
-        <v>14000</v>
+        <v>22500</v>
       </c>
       <c r="O385" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="P385" t="n">
-        <v>14000</v>
+        <v>24750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31182,11 +31182,11 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S385" t="n">
-        <v>933</v>
+        <v>1650</v>
       </c>
       <c r="T385" t="n">
         <v>15</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E386" t="n">
         <v>13</v>
@@ -31235,41 +31235,41 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Corazón de paloma</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="N386" t="n">
-        <v>800</v>
+        <v>24000</v>
       </c>
       <c r="O386" t="n">
-        <v>900</v>
+        <v>24000</v>
       </c>
       <c r="P386" t="n">
-        <v>850</v>
+        <v>24000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S386" t="n">
-        <v>850</v>
+        <v>2000</v>
       </c>
       <c r="T386" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44181</v>
+        <v>44515</v>
       </c>
       <c r="E387" t="n">
         <v>13</v>
@@ -31315,41 +31315,41 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N387" t="n">
-        <v>600</v>
+        <v>15000</v>
       </c>
       <c r="O387" t="n">
-        <v>600</v>
+        <v>15000</v>
       </c>
       <c r="P387" t="n">
-        <v>600</v>
+        <v>15000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S387" t="n">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="T387" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388">
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,32 +31404,32 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>900</v>
+        <v>9500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S388" t="n">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="T388" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N389" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="O389" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="P389" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31502,11 +31502,11 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S389" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T389" t="n">
         <v>1</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E390" t="n">
         <v>13</v>
@@ -31555,29 +31555,29 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="O390" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="P390" t="n">
-        <v>12000</v>
+        <v>600</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E391" t="n">
         <v>13</v>
@@ -31635,25 +31635,25 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N391" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P391" t="n">
-        <v>5750</v>
+        <v>11000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>575</v>
+        <v>1100</v>
       </c>
       <c r="T391" t="n">
         <v>10</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E392" t="n">
         <v>13</v>
@@ -31715,25 +31715,25 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N392" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O392" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P392" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>600</v>
+        <v>933</v>
       </c>
       <c r="T392" t="n">
         <v>15</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E393" t="n">
         <v>13</v>
@@ -31795,41 +31795,41 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>800</v>
       </c>
       <c r="O393" t="n">
-        <v>9000</v>
+        <v>900</v>
       </c>
       <c r="P393" t="n">
-        <v>9000</v>
+        <v>850</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E394" t="n">
         <v>13</v>
@@ -31875,41 +31875,41 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>600</v>
       </c>
       <c r="O394" t="n">
-        <v>8000</v>
+        <v>600</v>
       </c>
       <c r="P394" t="n">
-        <v>7500</v>
+        <v>600</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T394" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E395" t="n">
         <v>13</v>
@@ -31955,29 +31955,29 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N395" t="n">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="O395" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="P395" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T395" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E396" t="n">
         <v>13</v>
@@ -32035,29 +32035,29 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N396" t="n">
-        <v>11000</v>
+        <v>650</v>
       </c>
       <c r="O396" t="n">
-        <v>12000</v>
+        <v>650</v>
       </c>
       <c r="P396" t="n">
-        <v>11500</v>
+        <v>650</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1150</v>
+        <v>650</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E397" t="n">
         <v>13</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N397" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O397" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P397" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T397" t="n">
         <v>15</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E398" t="n">
         <v>13</v>
@@ -32204,32 +32204,32 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N398" t="n">
-        <v>7500</v>
+        <v>5500</v>
       </c>
       <c r="O398" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P398" t="n">
-        <v>7750</v>
+        <v>5750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S398" t="n">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E399" t="n">
         <v>13</v>
@@ -32275,41 +32275,41 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N399" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T399" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N400" t="n">
         <v>9000</v>
       </c>
       <c r="O400" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="P400" t="n">
-        <v>9750</v>
+        <v>9000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="T400" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E401" t="n">
         <v>13</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P401" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E402" t="n">
         <v>13</v>
@@ -32515,29 +32515,29 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T402" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44201</v>
+        <v>44194</v>
       </c>
       <c r="E403" t="n">
         <v>13</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,20 +32604,20 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O403" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="T403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32675,40 +32675,600 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>200</v>
+      </c>
+      <c r="N404" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O404" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P404" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S404" t="n">
+        <v>700</v>
+      </c>
+      <c r="T404" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>6</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E405" t="n">
+        <v>13</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M405" t="n">
+        <v>300</v>
+      </c>
+      <c r="N405" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O405" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P405" t="n">
+        <v>7750</v>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S405" t="n">
+        <v>517</v>
+      </c>
+      <c r="T405" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>6</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E406" t="n">
+        <v>13</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>300</v>
+      </c>
+      <c r="N406" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O406" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P406" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S406" t="n">
+        <v>700</v>
+      </c>
+      <c r="T406" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>6</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E407" t="n">
+        <v>13</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>300</v>
+      </c>
+      <c r="N407" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O407" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P407" t="n">
+        <v>9750</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
+        <v>650</v>
+      </c>
+      <c r="T407" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>6</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E408" t="n">
+        <v>13</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M408" t="n">
+        <v>200</v>
+      </c>
+      <c r="N408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P408" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S408" t="n">
+        <v>500</v>
+      </c>
+      <c r="T408" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>6</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E409" t="n">
+        <v>13</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M409" t="n">
+        <v>200</v>
+      </c>
+      <c r="N409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P409" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S409" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T409" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>6</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E410" t="n">
+        <v>13</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I410" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
           <t>Sweet Heart</t>
         </is>
       </c>
-      <c r="L404" t="inlineStr">
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M410" t="n">
+        <v>300</v>
+      </c>
+      <c r="N410" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O410" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P410" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S410" t="n">
+        <v>600</v>
+      </c>
+      <c r="T410" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>6</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E411" t="n">
+        <v>13</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M404" t="n">
+      <c r="M411" t="n">
         <v>250</v>
       </c>
-      <c r="N404" t="n">
+      <c r="N411" t="n">
         <v>8000</v>
       </c>
-      <c r="O404" t="n">
+      <c r="O411" t="n">
         <v>8000</v>
       </c>
-      <c r="P404" t="n">
+      <c r="P411" t="n">
         <v>8000</v>
       </c>
-      <c r="Q404" t="inlineStr">
+      <c r="Q411" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R404" t="inlineStr">
+      <c r="R411" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S404" t="n">
+      <c r="S411" t="n">
         <v>533</v>
       </c>
-      <c r="T404" t="n">
+      <c r="T411" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T535"/>
+  <dimension ref="A1:T544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E439" t="n">
         <v>13</v>
@@ -35480,20 +35480,20 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>240</v>
+        <v>6000</v>
       </c>
       <c r="N439" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O439" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P439" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35502,11 +35502,11 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S439" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T439" t="n">
         <v>10</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E440" t="n">
         <v>13</v>
@@ -35564,32 +35564,32 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N440" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P440" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S440" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T440" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E441" t="n">
         <v>13</v>
@@ -35640,36 +35640,36 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="N441" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O441" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P441" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S441" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T441" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E442" t="n">
         <v>13</v>
@@ -35715,25 +35715,25 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O442" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P442" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="T442" t="n">
         <v>10</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E443" t="n">
         <v>13</v>
@@ -35795,41 +35795,41 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N443" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O443" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P443" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T443" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E444" t="n">
         <v>13</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="N444" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O444" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P444" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E445" t="n">
         <v>13</v>
@@ -35955,41 +35955,41 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N445" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O445" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P445" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E446" t="n">
         <v>13</v>
@@ -36035,29 +36035,29 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N446" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O446" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P446" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T446" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E447" t="n">
         <v>13</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,32 +36124,32 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E448" t="n">
         <v>13</v>
@@ -36195,29 +36195,29 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N448" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="O448" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="P448" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T448" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449">
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -36284,20 +36284,20 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N449" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O449" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="T449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E450" t="n">
         <v>13</v>
@@ -36360,11 +36360,11 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N450" t="n">
         <v>12000</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E451" t="n">
         <v>13</v>
@@ -36435,25 +36435,25 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N451" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O451" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P451" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="T451" t="n">
         <v>10</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E452" t="n">
         <v>13</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,20 +36524,20 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N452" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O452" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P452" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36607,13 +36607,13 @@
         <v>120</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P453" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T453" t="n">
         <v>10</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E454" t="n">
         <v>13</v>
@@ -36675,29 +36675,29 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P454" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36709,7 +36709,7 @@
         <v>1200</v>
       </c>
       <c r="T454" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E455" t="n">
         <v>13</v>
@@ -36755,41 +36755,41 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N455" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="O455" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="P455" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T455" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,20 +36844,20 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36915,25 +36915,25 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="N457" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O457" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P457" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T457" t="n">
         <v>15</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,32 +37004,32 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N458" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="O458" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="P458" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S458" t="n">
         <v>1000</v>
       </c>
       <c r="T458" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459">
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,20 +37084,20 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P459" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37109,7 +37109,7 @@
         <v>800</v>
       </c>
       <c r="T459" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460">
@@ -37155,29 +37155,29 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="N460" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O460" t="n">
         <v>12000</v>
       </c>
       <c r="P460" t="n">
-        <v>10875</v>
+        <v>12000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>725</v>
+        <v>1200</v>
       </c>
       <c r="T460" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,32 +37244,32 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N461" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="P461" t="n">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T461" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E462" t="n">
         <v>13</v>
@@ -37315,25 +37315,25 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N462" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O462" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P462" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E463" t="n">
         <v>13</v>
@@ -37395,29 +37395,29 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N463" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P463" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T463" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E464" t="n">
         <v>13</v>
@@ -37475,41 +37475,41 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N464" t="n">
-        <v>10500</v>
+        <v>1300</v>
       </c>
       <c r="O464" t="n">
-        <v>10500</v>
+        <v>1300</v>
       </c>
       <c r="P464" t="n">
-        <v>10500</v>
+        <v>1300</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="T464" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E465" t="n">
         <v>13</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="N465" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P465" t="n">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>500</v>
+        <v>870</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E466" t="n">
         <v>13</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N466" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O466" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P466" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T466" t="n">
         <v>15</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E467" t="n">
         <v>13</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37727,29 +37727,29 @@
         <v>250</v>
       </c>
       <c r="N467" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="O467" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="P467" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E468" t="n">
         <v>13</v>
@@ -37795,29 +37795,29 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N468" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O468" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P468" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T468" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E469" t="n">
         <v>13</v>
@@ -37875,41 +37875,41 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="N469" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P469" t="n">
-        <v>7500</v>
+        <v>10875</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S469" t="n">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="T469" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E470" t="n">
         <v>13</v>
@@ -37955,41 +37955,41 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N470" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="O470" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="P470" t="n">
-        <v>12000</v>
+        <v>800</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S470" t="n">
         <v>800</v>
       </c>
       <c r="T470" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E471" t="n">
         <v>13</v>
@@ -38035,25 +38035,25 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N471" t="n">
         <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38062,11 +38062,11 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S471" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T471" t="n">
         <v>10</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -38120,24 +38120,24 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N472" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O472" t="n">
-        <v>11250</v>
+        <v>7000</v>
       </c>
       <c r="P472" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,10 +38146,10 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="T472" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E473" t="n">
         <v>13</v>
@@ -38204,32 +38204,32 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N473" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S473" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T473" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474">
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E474" t="n">
         <v>13</v>
@@ -38280,24 +38280,24 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P474" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T474" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E475" t="n">
         <v>13</v>
@@ -38360,20 +38360,20 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
         <v>200</v>
       </c>
       <c r="N475" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O475" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="P475" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="T475" t="n">
         <v>15</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -38435,41 +38435,41 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N476" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O476" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P476" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S476" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E477" t="n">
         <v>13</v>
@@ -38520,24 +38520,24 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N477" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O477" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="P477" t="n">
-        <v>9750</v>
+        <v>5000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -38546,10 +38546,10 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T477" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="478">
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E478" t="n">
         <v>13</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E479" t="n">
         <v>13</v>
@@ -38680,20 +38680,20 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N479" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O479" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P479" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T479" t="n">
         <v>15</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E480" t="n">
         <v>13</v>
@@ -38755,25 +38755,25 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N480" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O480" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P480" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E481" t="n">
         <v>13</v>
@@ -38835,25 +38835,25 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="N481" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>12000</v>
+        <v>11250</v>
       </c>
       <c r="P481" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T481" t="n">
         <v>15</v>
@@ -38915,41 +38915,41 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N482" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O482" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P482" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -38995,29 +38995,29 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P483" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39026,10 +39026,10 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="T483" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E484" t="n">
         <v>13</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N484" t="n">
         <v>12000</v>
       </c>
       <c r="O484" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P484" t="n">
-        <v>13500</v>
+        <v>12750</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="T484" t="n">
         <v>15</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E485" t="n">
         <v>13</v>
@@ -39155,25 +39155,25 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="N485" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P485" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E486" t="n">
         <v>13</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N486" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O486" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="P486" t="n">
-        <v>13500</v>
+        <v>9750</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="T486" t="n">
         <v>15</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E487" t="n">
         <v>13</v>
@@ -39320,36 +39320,36 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N487" t="n">
-        <v>11250</v>
+        <v>5000</v>
       </c>
       <c r="O487" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>11625</v>
+        <v>5000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S487" t="n">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="T487" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E488" t="n">
         <v>13</v>
@@ -39395,29 +39395,29 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="N488" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="O488" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="P488" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,10 +39426,10 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="T488" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E489" t="n">
         <v>13</v>
@@ -39475,25 +39475,25 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N489" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O489" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P489" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T489" t="n">
         <v>10</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E490" t="n">
         <v>13</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,32 +39564,32 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N490" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O490" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P490" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S490" t="n">
         <v>800</v>
       </c>
       <c r="T490" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="491">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E491" t="n">
         <v>13</v>
@@ -39635,41 +39635,41 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="N491" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O491" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P491" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T491" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E492" t="n">
         <v>13</v>
@@ -39715,29 +39715,29 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="N492" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O492" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P492" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>1500</v>
+        <v>467</v>
       </c>
       <c r="T492" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44536</v>
+        <v>44224</v>
       </c>
       <c r="E493" t="n">
         <v>13</v>
@@ -39795,41 +39795,41 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N493" t="n">
         <v>12000</v>
       </c>
       <c r="O493" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P493" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S493" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E494" t="n">
         <v>13</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>180</v>
+        <v>720</v>
       </c>
       <c r="N494" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O494" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="T494" t="n">
         <v>10</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -39955,41 +39955,41 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E496" t="n">
         <v>13</v>
@@ -40035,41 +40035,41 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N496" t="n">
-        <v>6000</v>
+        <v>11250</v>
       </c>
       <c r="O496" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P496" t="n">
-        <v>6000</v>
+        <v>11625</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S496" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E497" t="n">
         <v>13</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N497" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="O497" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="P497" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40142,11 +40142,11 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S497" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="T497" t="n">
         <v>10</v>
@@ -40195,25 +40195,25 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O498" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P498" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T498" t="n">
         <v>10</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40287,17 +40287,17 @@
         <v>250</v>
       </c>
       <c r="N499" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O499" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P499" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
@@ -40309,7 +40309,7 @@
         <v>800</v>
       </c>
       <c r="T499" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="N500" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O500" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P500" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="T500" t="n">
         <v>10</v>
@@ -40435,41 +40435,41 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="N501" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P501" t="n">
-        <v>8143</v>
+        <v>15000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>543</v>
+        <v>1500</v>
       </c>
       <c r="T501" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,7 +40524,7 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="N502" t="n">
         <v>12000</v>
@@ -40537,19 +40537,19 @@
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="T502" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P503" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T503" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,25 +40675,25 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M504" t="n">
         <v>360</v>
       </c>
       <c r="N504" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>5750</v>
+        <v>8000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>575</v>
+        <v>800</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,20 +40764,20 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N505" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P505" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
@@ -40789,7 +40789,7 @@
         <v>600</v>
       </c>
       <c r="T505" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40835,25 +40835,25 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M506" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N506" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O506" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P506" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
         <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,41 +40995,41 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M508" t="n">
         <v>250</v>
       </c>
       <c r="N508" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O508" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P508" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T508" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N509" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O509" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P509" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>1150</v>
+        <v>600</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,29 +41155,29 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N510" t="n">
-        <v>28000</v>
+        <v>7500</v>
       </c>
       <c r="O510" t="n">
-        <v>28000</v>
+        <v>9000</v>
       </c>
       <c r="P510" t="n">
-        <v>28000</v>
+        <v>8143</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
@@ -41186,10 +41186,10 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>2800</v>
+        <v>543</v>
       </c>
       <c r="T510" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44518</v>
+        <v>44511</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,7 +41244,7 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="N511" t="n">
         <v>12000</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,20 +41324,20 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="N512" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O512" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P512" t="n">
-        <v>26500</v>
+        <v>12000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R512" t="inlineStr">
@@ -41346,10 +41346,10 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>2208</v>
+        <v>800</v>
       </c>
       <c r="T512" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="513">
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41395,25 +41395,25 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N513" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="O513" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P513" t="n">
-        <v>25000</v>
+        <v>5750</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41422,11 +41422,11 @@
       </c>
       <c r="R513" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S513" t="n">
-        <v>2500</v>
+        <v>575</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,41 +41475,41 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M514" t="n">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="N514" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O514" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P514" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R514" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S514" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="T514" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="515">
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,29 +41555,29 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N515" t="n">
-        <v>40500</v>
+        <v>9000</v>
       </c>
       <c r="O515" t="n">
-        <v>40500</v>
+        <v>9000</v>
       </c>
       <c r="P515" t="n">
-        <v>40500</v>
+        <v>9000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R515" t="inlineStr">
@@ -41586,10 +41586,10 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>2700</v>
+        <v>900</v>
       </c>
       <c r="T515" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516">
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,32 +41644,32 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N516" t="n">
-        <v>37500</v>
+        <v>7000</v>
       </c>
       <c r="O516" t="n">
-        <v>37500</v>
+        <v>8000</v>
       </c>
       <c r="P516" t="n">
-        <v>37500</v>
+        <v>7500</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="T516" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="517">
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,25 +41715,25 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N517" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O517" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P517" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T517" t="n">
         <v>10</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,29 +41795,29 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N518" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O518" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P518" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="T518" t="n">
         <v>10</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,38 +41875,38 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N519" t="n">
-        <v>5000</v>
+        <v>28000</v>
       </c>
       <c r="O519" t="n">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="P519" t="n">
-        <v>5500</v>
+        <v>28000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>550</v>
+        <v>2800</v>
       </c>
       <c r="T519" t="n">
         <v>10</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41955,29 +41955,29 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
@@ -41986,10 +41986,10 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T520" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42035,41 +42035,41 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>180</v>
+        <v>2000</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="P521" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>800</v>
+        <v>2208</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,41 +42115,41 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="T522" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="523">
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42195,41 +42195,41 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>200</v>
+        <v>394</v>
       </c>
       <c r="N523" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S523" t="n">
-        <v>633</v>
+        <v>2400</v>
       </c>
       <c r="T523" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,20 +42284,20 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N524" t="n">
-        <v>6000</v>
+        <v>40500</v>
       </c>
       <c r="O524" t="n">
-        <v>6000</v>
+        <v>40500</v>
       </c>
       <c r="P524" t="n">
-        <v>6000</v>
+        <v>40500</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
@@ -42306,10 +42306,10 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>600</v>
+        <v>2700</v>
       </c>
       <c r="T524" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,32 +42364,32 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N525" t="n">
-        <v>5000</v>
+        <v>37500</v>
       </c>
       <c r="O525" t="n">
-        <v>6000</v>
+        <v>37500</v>
       </c>
       <c r="P525" t="n">
-        <v>5500</v>
+        <v>37500</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="T525" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,41 +42435,41 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N526" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O526" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P526" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="T526" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="527">
@@ -42515,41 +42515,41 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N527" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P527" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42595,41 +42595,41 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M528" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="N528" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="O528" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="P528" t="n">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="T528" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="529">
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N529" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42767,17 +42767,17 @@
         <v>180</v>
       </c>
       <c r="N530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R530" t="inlineStr">
@@ -42789,7 +42789,7 @@
         <v>800</v>
       </c>
       <c r="T530" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N531" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O531" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42862,11 +42862,11 @@
       </c>
       <c r="R531" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S531" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="T531" t="n">
         <v>15</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
         <v>200</v>
       </c>
       <c r="N532" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="O532" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="P532" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="T532" t="n">
         <v>15</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,32 +43004,32 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O533" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="P533" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="T533" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="534">
@@ -43075,29 +43075,29 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N534" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O534" t="n">
         <v>6000</v>
       </c>
       <c r="P534" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
@@ -43106,10 +43106,10 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="T534" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -43155,40 +43155,760 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M535" t="n">
+        <v>250</v>
+      </c>
+      <c r="N535" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O535" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P535" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q535" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R535" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S535" t="n">
+        <v>600</v>
+      </c>
+      <c r="T535" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>6</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D536" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E536" t="n">
+        <v>13</v>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G536" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I536" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M536" t="n">
+        <v>260</v>
+      </c>
+      <c r="N536" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O536" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P536" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q536" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R536" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S536" t="n">
+        <v>567</v>
+      </c>
+      <c r="T536" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>6</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E537" t="n">
+        <v>13</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M537" t="n">
+        <v>310</v>
+      </c>
+      <c r="N537" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O537" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P537" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S537" t="n">
+        <v>433</v>
+      </c>
+      <c r="T537" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>6</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D538" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E538" t="n">
+        <v>13</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M538" t="n">
+        <v>250</v>
+      </c>
+      <c r="N538" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O538" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P538" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S538" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T538" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>6</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E539" t="n">
+        <v>13</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L535" t="inlineStr">
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M539" t="n">
+        <v>180</v>
+      </c>
+      <c r="N539" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O539" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P539" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S539" t="n">
+        <v>800</v>
+      </c>
+      <c r="T539" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>6</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E540" t="n">
+        <v>13</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M540" t="n">
+        <v>120</v>
+      </c>
+      <c r="N540" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O540" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P540" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q540" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S540" t="n">
+        <v>633</v>
+      </c>
+      <c r="T540" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>6</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E541" t="n">
+        <v>13</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M541" t="n">
+        <v>200</v>
+      </c>
+      <c r="N541" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O541" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P541" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S541" t="n">
+        <v>600</v>
+      </c>
+      <c r="T541" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>6</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D542" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E542" t="n">
+        <v>13</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G542" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M542" t="n">
+        <v>260</v>
+      </c>
+      <c r="N542" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O542" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P542" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S542" t="n">
+        <v>567</v>
+      </c>
+      <c r="T542" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>6</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E543" t="n">
+        <v>13</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I543" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M535" t="n">
+      <c r="M543" t="n">
+        <v>150</v>
+      </c>
+      <c r="N543" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O543" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P543" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S543" t="n">
+        <v>400</v>
+      </c>
+      <c r="T543" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>6</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D544" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E544" t="n">
+        <v>13</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M544" t="n">
         <v>340</v>
       </c>
-      <c r="N535" t="n">
+      <c r="N544" t="n">
         <v>6500</v>
       </c>
-      <c r="O535" t="n">
+      <c r="O544" t="n">
         <v>6500</v>
       </c>
-      <c r="P535" t="n">
+      <c r="P544" t="n">
         <v>6500</v>
       </c>
-      <c r="Q535" t="inlineStr">
+      <c r="Q544" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R535" t="inlineStr">
+      <c r="R544" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S535" t="n">
+      <c r="S544" t="n">
         <v>433</v>
       </c>
-      <c r="T535" t="n">
+      <c r="T544" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T612"/>
+  <dimension ref="A1:T625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E501" t="n">
         <v>13</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N501" t="n">
-        <v>23000</v>
+        <v>3500</v>
       </c>
       <c r="O501" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="P501" t="n">
-        <v>23000</v>
+        <v>3750</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>2300</v>
+        <v>375</v>
       </c>
       <c r="T501" t="n">
         <v>10</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E502" t="n">
         <v>13</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N502" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O502" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="P502" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E503" t="n">
         <v>13</v>
@@ -40595,29 +40595,29 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="N503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R503" t="inlineStr">
@@ -40626,10 +40626,10 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="T503" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="504">
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E504" t="n">
         <v>13</v>
@@ -40675,41 +40675,41 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N504" t="n">
-        <v>23000</v>
+        <v>4500</v>
       </c>
       <c r="O504" t="n">
-        <v>24000</v>
+        <v>4500</v>
       </c>
       <c r="P504" t="n">
-        <v>23444</v>
+        <v>4500</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>2344</v>
+        <v>300</v>
       </c>
       <c r="T504" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="505">
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E505" t="n">
         <v>13</v>
@@ -40755,41 +40755,41 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M505" t="n">
-        <v>390</v>
+        <v>1200</v>
       </c>
       <c r="N505" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="O505" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="P505" t="n">
-        <v>12000</v>
+        <v>3750</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="T505" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="506">
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E506" t="n">
         <v>13</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N506" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="O506" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P506" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E507" t="n">
         <v>13</v>
@@ -40915,25 +40915,25 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M507" t="n">
-        <v>6000</v>
+        <v>480</v>
       </c>
       <c r="N507" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P507" t="n">
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E508" t="n">
         <v>13</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,32 +41004,32 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>300</v>
+        <v>990</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T508" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="509">
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E509" t="n">
         <v>13</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="N509" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O509" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P509" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E510" t="n">
         <v>13</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,32 +41164,32 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>430</v>
+        <v>850</v>
       </c>
       <c r="N510" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O510" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P510" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R510" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S510" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="T510" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="511">
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E511" t="n">
         <v>13</v>
@@ -41235,38 +41235,38 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M511" t="n">
+        <v>360</v>
+      </c>
+      <c r="N511" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O511" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P511" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S511" t="n">
         <v>300</v>
-      </c>
-      <c r="N511" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O511" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P511" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q511" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R511" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S511" t="n">
-        <v>1200</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E512" t="n">
         <v>13</v>
@@ -41315,25 +41315,25 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M512" t="n">
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="N512" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="O512" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="P512" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41342,11 +41342,11 @@
       </c>
       <c r="R512" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S512" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="T512" t="n">
         <v>10</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="E513" t="n">
         <v>13</v>
@@ -41400,24 +41400,24 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M513" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N513" t="n">
         <v>4000</v>
       </c>
       <c r="O513" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P513" t="n">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R513" t="inlineStr">
@@ -41426,10 +41426,10 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>800</v>
+        <v>283</v>
       </c>
       <c r="T513" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="514">
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E514" t="n">
         <v>13</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N514" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="O514" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="P514" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>600</v>
+        <v>2300</v>
       </c>
       <c r="T514" t="n">
         <v>10</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E515" t="n">
         <v>13</v>
@@ -41555,25 +41555,25 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M515" t="n">
-        <v>480</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O515" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P515" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T515" t="n">
         <v>10</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E516" t="n">
         <v>13</v>
@@ -41635,25 +41635,25 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41662,11 +41662,11 @@
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S516" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T516" t="n">
         <v>10</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E517" t="n">
         <v>13</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="N517" t="n">
-        <v>7500</v>
+        <v>23000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P517" t="n">
-        <v>7750</v>
+        <v>23444</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>775</v>
+        <v>2344</v>
       </c>
       <c r="T517" t="n">
         <v>10</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E518" t="n">
         <v>13</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,7 +41804,7 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>140</v>
+        <v>390</v>
       </c>
       <c r="N518" t="n">
         <v>12000</v>
@@ -41817,7 +41817,7 @@
       </c>
       <c r="Q518" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R518" t="inlineStr">
@@ -41826,10 +41826,10 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T518" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519">
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44187</v>
+        <v>44519</v>
       </c>
       <c r="E519" t="n">
         <v>13</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N519" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O519" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P519" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="T519" t="n">
         <v>10</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E520" t="n">
         <v>13</v>
@@ -41960,36 +41960,36 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="N520" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O520" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P520" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R520" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S520" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T520" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="521">
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E521" t="n">
         <v>13</v>
@@ -42040,36 +42040,36 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N521" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="O521" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P521" t="n">
-        <v>3750</v>
+        <v>9000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="T521" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522">
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E522" t="n">
         <v>13</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N522" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O522" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P522" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T522" t="n">
         <v>10</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E523" t="n">
         <v>13</v>
@@ -42200,24 +42200,24 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>100</v>
+        <v>430</v>
       </c>
       <c r="N523" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O523" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P523" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R523" t="inlineStr">
@@ -42226,10 +42226,10 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T523" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="524">
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E524" t="n">
         <v>13</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,7 +42284,7 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N524" t="n">
         <v>12000</v>
@@ -42297,19 +42297,19 @@
       </c>
       <c r="Q524" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T524" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="525">
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E525" t="n">
         <v>13</v>
@@ -42355,41 +42355,41 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>50</v>
+        <v>1200</v>
       </c>
       <c r="N525" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O525" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P525" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T525" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="526">
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E526" t="n">
         <v>13</v>
@@ -42435,41 +42435,41 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="N526" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O526" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P526" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R526" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S526" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T526" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527">
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E527" t="n">
         <v>13</v>
@@ -42515,29 +42515,29 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M527" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="N527" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O527" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P527" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R527" t="inlineStr">
@@ -42546,10 +42546,10 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T527" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="528">
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44175</v>
+        <v>44543</v>
       </c>
       <c r="E528" t="n">
         <v>13</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N528" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O528" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P528" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T528" t="n">
         <v>10</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E529" t="n">
         <v>13</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N529" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O529" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P529" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E530" t="n">
         <v>13</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N530" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O530" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P530" t="n">
-        <v>5000</v>
+        <v>7750</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="T530" t="n">
         <v>10</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E531" t="n">
         <v>13</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N531" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O531" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P531" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T531" t="n">
         <v>15</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E532" t="n">
         <v>13</v>
@@ -42915,41 +42915,41 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N532" t="n">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="O532" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="P532" t="n">
-        <v>1300</v>
+        <v>5500</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="T532" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="533">
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E533" t="n">
         <v>13</v>
@@ -42995,29 +42995,29 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N533" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O533" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P533" t="n">
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R533" t="inlineStr">
@@ -43026,10 +43026,10 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>870</v>
+        <v>500</v>
       </c>
       <c r="T533" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="534">
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E534" t="n">
         <v>13</v>
@@ -43075,29 +43075,29 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N534" t="n">
-        <v>15000</v>
+        <v>3500</v>
       </c>
       <c r="O534" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="P534" t="n">
-        <v>15000</v>
+        <v>3750</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R534" t="inlineStr">
@@ -43106,10 +43106,10 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T534" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,32 +43164,32 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N535" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="O535" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="P535" t="n">
-        <v>1000</v>
+        <v>12000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T535" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43244,20 +43244,20 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N536" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O536" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P536" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T536" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="537">
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N537" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O537" t="n">
         <v>12000</v>
       </c>
       <c r="P537" t="n">
-        <v>10875</v>
+        <v>12000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>725</v>
+        <v>800</v>
       </c>
       <c r="T537" t="n">
         <v>15</v>
@@ -43395,41 +43395,41 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M538" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N538" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="O538" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="P538" t="n">
-        <v>800</v>
+        <v>4500</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T538" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="539">
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,7 +43475,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -43484,20 +43484,20 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="N539" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O539" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P539" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T539" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43560,24 +43560,24 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="N540" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O540" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P540" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R540" t="inlineStr">
@@ -43586,10 +43586,10 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T540" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="541">
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E541" t="n">
         <v>13</v>
@@ -43635,7 +43635,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -43644,20 +43644,20 @@
         </is>
       </c>
       <c r="M541" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N541" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O541" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P541" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="Q541" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R541" t="inlineStr">
@@ -43666,10 +43666,10 @@
         </is>
       </c>
       <c r="S541" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T541" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="542">
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E542" t="n">
         <v>13</v>
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -43727,13 +43727,13 @@
         <v>150</v>
       </c>
       <c r="N542" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O542" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P542" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T542" t="n">
         <v>10</v>
@@ -43767,7 +43767,7 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E543" t="n">
         <v>13</v>
@@ -43795,29 +43795,29 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M543" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N543" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O543" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P543" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R543" t="inlineStr">
@@ -43829,7 +43829,7 @@
         <v>500</v>
       </c>
       <c r="T543" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,25 +43875,25 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N544" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O544" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P544" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
@@ -43906,7 +43906,7 @@
         </is>
       </c>
       <c r="S544" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="T544" t="n">
         <v>15</v>
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -43964,32 +43964,32 @@
         </is>
       </c>
       <c r="M545" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N545" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="O545" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="P545" t="n">
-        <v>5000</v>
+        <v>1300</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="T545" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,16 +44044,16 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>480</v>
+        <v>1500</v>
       </c>
       <c r="N546" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O546" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P546" t="n">
-        <v>7500</v>
+        <v>8700</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
@@ -44062,11 +44062,11 @@
       </c>
       <c r="R546" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S546" t="n">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="T546" t="n">
         <v>10</v>
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,16 +44124,16 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="N547" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O547" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P547" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
@@ -44146,7 +44146,7 @@
         </is>
       </c>
       <c r="S547" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T547" t="n">
         <v>15</v>
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,29 +44195,29 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N548" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="O548" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="P548" t="n">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
@@ -44226,10 +44226,10 @@
         </is>
       </c>
       <c r="S548" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T548" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,7 +44275,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -44284,20 +44284,20 @@
         </is>
       </c>
       <c r="M549" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N549" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O549" t="n">
-        <v>11250</v>
+        <v>8000</v>
       </c>
       <c r="P549" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
@@ -44306,10 +44306,10 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T549" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,41 +44355,41 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>360</v>
+        <v>160</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P550" t="n">
-        <v>8000</v>
+        <v>10875</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S550" t="n">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="T550" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44188</v>
+        <v>44175</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,41 +44435,41 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N551" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="O551" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="P551" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S551" t="n">
         <v>800</v>
       </c>
       <c r="T551" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,20 +44524,20 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N552" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O552" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P552" t="n">
-        <v>12750</v>
+        <v>6500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R552" t="inlineStr">
@@ -44546,10 +44546,10 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="T552" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="553">
@@ -44567,7 +44567,7 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
@@ -44600,20 +44600,20 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N553" t="n">
         <v>6000</v>
       </c>
       <c r="O553" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P553" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
@@ -44622,11 +44622,11 @@
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="T553" t="n">
         <v>10</v>
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44680,20 +44680,20 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N554" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O554" t="n">
         <v>10500</v>
       </c>
       <c r="P554" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
@@ -44706,7 +44706,7 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="T554" t="n">
         <v>15</v>
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44760,11 +44760,11 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N555" t="n">
         <v>5000</v>
@@ -44782,7 +44782,7 @@
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S555" t="n">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44188</v>
+        <v>44196</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,11 +44840,11 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N556" t="n">
         <v>7500</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44915,41 +44915,41 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M557" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N557" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O557" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P557" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R557" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S557" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T557" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="558">
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,29 +44995,29 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="N558" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O558" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P558" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R558" t="inlineStr">
@@ -45026,10 +45026,10 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T558" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559">
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45075,41 +45075,41 @@
       </c>
       <c r="K559" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N559" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O559" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P559" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S559" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T559" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="560">
@@ -45127,7 +45127,7 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E560" t="n">
         <v>13</v>
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="N560" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O560" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P560" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="T560" t="n">
         <v>15</v>
@@ -45207,7 +45207,7 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44224</v>
+        <v>44200</v>
       </c>
       <c r="E561" t="n">
         <v>13</v>
@@ -45244,32 +45244,32 @@
         </is>
       </c>
       <c r="M561" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N561" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O561" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P561" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R561" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S561" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T561" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="562">
@@ -45287,7 +45287,7 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44195</v>
+        <v>44200</v>
       </c>
       <c r="E562" t="n">
         <v>13</v>
@@ -45315,29 +45315,29 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>720</v>
+        <v>270</v>
       </c>
       <c r="N562" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O562" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="P562" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
@@ -45346,10 +45346,10 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="T562" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
@@ -45367,7 +45367,7 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E563" t="n">
         <v>13</v>
@@ -45400,36 +45400,36 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N563" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O563" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P563" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R563" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S563" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T563" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="564">
@@ -45447,7 +45447,7 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E564" t="n">
         <v>13</v>
@@ -45484,20 +45484,20 @@
         </is>
       </c>
       <c r="M564" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N564" t="n">
-        <v>11250</v>
+        <v>4000</v>
       </c>
       <c r="O564" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P564" t="n">
-        <v>11625</v>
+        <v>4000</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
@@ -45506,10 +45506,10 @@
         </is>
       </c>
       <c r="S564" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="T564" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E565" t="n">
         <v>13</v>
@@ -45555,7 +45555,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -45564,20 +45564,20 @@
         </is>
       </c>
       <c r="M565" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N565" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O565" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="P565" t="n">
-        <v>11000</v>
+        <v>12750</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R565" t="inlineStr">
@@ -45586,10 +45586,10 @@
         </is>
       </c>
       <c r="S565" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="T565" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="566">
@@ -45607,7 +45607,7 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E566" t="n">
         <v>13</v>
@@ -45635,25 +45635,25 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M566" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N566" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O566" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P566" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q566" t="inlineStr">
         <is>
@@ -45666,7 +45666,7 @@
         </is>
       </c>
       <c r="S566" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T566" t="n">
         <v>10</v>
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,41 +45715,41 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M567" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N567" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O567" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P567" t="n">
-        <v>8000</v>
+        <v>9750</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R567" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S567" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T567" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="568">
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="N568" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="O568" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="P568" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="T568" t="n">
         <v>10</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,29 +45875,29 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="N569" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O569" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P569" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T569" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45960,20 +45960,20 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N570" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O570" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P570" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T570" t="n">
         <v>10</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,41 +46035,41 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P571" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S571" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T571" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46115,41 +46115,41 @@
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N572" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O572" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P572" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S572" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T572" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="573">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,41 +46195,41 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M573" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N573" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O573" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P573" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T573" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="574">
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44536</v>
+        <v>44224</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,41 +46275,41 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N574" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O574" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P574" t="n">
-        <v>4000</v>
+        <v>13500</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S574" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="T574" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,7 +46355,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -46364,16 +46364,16 @@
         </is>
       </c>
       <c r="M575" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="N575" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O575" t="n">
         <v>8000</v>
       </c>
       <c r="P575" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T575" t="n">
         <v>10</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,25 +46435,25 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M576" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N576" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P576" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46462,11 +46462,11 @@
       </c>
       <c r="R576" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S576" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T576" t="n">
         <v>15</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,29 +46515,29 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M577" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N577" t="n">
-        <v>6000</v>
+        <v>11250</v>
       </c>
       <c r="O577" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P577" t="n">
-        <v>6000</v>
+        <v>11625</v>
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
@@ -46546,10 +46546,10 @@
         </is>
       </c>
       <c r="S577" t="n">
-        <v>600</v>
+        <v>775</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,41 +46595,41 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N578" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="O578" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P578" t="n">
-        <v>8143</v>
+        <v>11000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R578" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S578" t="n">
-        <v>543</v>
+        <v>1100</v>
       </c>
       <c r="T578" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="579">
@@ -46647,7 +46647,7 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E579" t="n">
         <v>13</v>
@@ -46675,41 +46675,41 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>960</v>
+        <v>180</v>
       </c>
       <c r="N579" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O579" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P579" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S579" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="T579" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -46727,7 +46727,7 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E580" t="n">
         <v>13</v>
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,20 +46764,20 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N580" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O580" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P580" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
@@ -46789,7 +46789,7 @@
         <v>800</v>
       </c>
       <c r="T580" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="581">
@@ -46807,7 +46807,7 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E581" t="n">
         <v>13</v>
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="N581" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="O581" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P581" t="n">
-        <v>5750</v>
+        <v>14000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>575</v>
+        <v>1400</v>
       </c>
       <c r="T581" t="n">
         <v>10</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,41 +46915,41 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="N582" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O582" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P582" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R582" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S582" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T582" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583">
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,25 +46995,25 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M583" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T583" t="n">
         <v>10</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,25 +47075,25 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M584" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="N584" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O584" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P584" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
@@ -47102,11 +47102,11 @@
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="T584" t="n">
         <v>10</v>
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,25 +47155,25 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N585" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O585" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P585" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
@@ -47182,11 +47182,11 @@
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T585" t="n">
         <v>10</v>
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,25 +47235,25 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N586" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O586" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P586" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
@@ -47262,11 +47262,11 @@
       </c>
       <c r="R586" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S586" t="n">
-        <v>1150</v>
+        <v>600</v>
       </c>
       <c r="T586" t="n">
         <v>10</v>
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47320,20 +47320,20 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N587" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="O587" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="P587" t="n">
-        <v>28000</v>
+        <v>4000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47346,7 +47346,7 @@
         </is>
       </c>
       <c r="S587" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="T587" t="n">
         <v>10</v>
@@ -47367,7 +47367,7 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E588" t="n">
         <v>13</v>
@@ -47395,7 +47395,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -47404,20 +47404,20 @@
         </is>
       </c>
       <c r="M588" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N588" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P588" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R588" t="inlineStr">
@@ -47426,10 +47426,10 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="T588" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="589">
@@ -47447,7 +47447,7 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E589" t="n">
         <v>13</v>
@@ -47475,7 +47475,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -47484,20 +47484,20 @@
         </is>
       </c>
       <c r="M589" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="N589" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O589" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P589" t="n">
-        <v>26500</v>
+        <v>12000</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
@@ -47506,10 +47506,10 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>2208</v>
+        <v>800</v>
       </c>
       <c r="T589" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47560,20 +47560,20 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M590" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N590" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="O590" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="P590" t="n">
-        <v>25000</v>
+        <v>6000</v>
       </c>
       <c r="Q590" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         </is>
       </c>
       <c r="S590" t="n">
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="T590" t="n">
         <v>10</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47640,36 +47640,36 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="N591" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O591" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P591" t="n">
-        <v>12000</v>
+        <v>8143</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S591" t="n">
-        <v>2400</v>
+        <v>543</v>
       </c>
       <c r="T591" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44518</v>
+        <v>44511</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47715,7 +47715,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -47724,20 +47724,20 @@
         </is>
       </c>
       <c r="M592" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="N592" t="n">
-        <v>40500</v>
+        <v>12000</v>
       </c>
       <c r="O592" t="n">
-        <v>40500</v>
+        <v>12000</v>
       </c>
       <c r="P592" t="n">
-        <v>40500</v>
+        <v>12000</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R592" t="inlineStr">
@@ -47746,10 +47746,10 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="T592" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="593">
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -47804,16 +47804,16 @@
         </is>
       </c>
       <c r="M593" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N593" t="n">
-        <v>37500</v>
+        <v>12000</v>
       </c>
       <c r="O593" t="n">
-        <v>37500</v>
+        <v>12000</v>
       </c>
       <c r="P593" t="n">
-        <v>37500</v>
+        <v>12000</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
@@ -47826,7 +47826,7 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="T593" t="n">
         <v>15</v>
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47875,25 +47875,25 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M594" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="N594" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="O594" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P594" t="n">
-        <v>14000</v>
+        <v>5750</v>
       </c>
       <c r="Q594" t="inlineStr">
         <is>
@@ -47902,11 +47902,11 @@
       </c>
       <c r="R594" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S594" t="n">
-        <v>1400</v>
+        <v>575</v>
       </c>
       <c r="T594" t="n">
         <v>10</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47955,41 +47955,41 @@
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M595" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N595" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O595" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P595" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S595" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T595" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="596">
@@ -48007,7 +48007,7 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E596" t="n">
         <v>13</v>
@@ -48035,29 +48035,29 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N596" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O596" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P596" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
@@ -48066,7 +48066,7 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="T596" t="n">
         <v>10</v>
@@ -48087,7 +48087,7 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E597" t="n">
         <v>13</v>
@@ -48120,20 +48120,20 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N597" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O597" t="n">
         <v>8000</v>
       </c>
       <c r="P597" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T597" t="n">
         <v>10</v>
@@ -48167,7 +48167,7 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E598" t="n">
         <v>13</v>
@@ -48200,24 +48200,24 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N598" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O598" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P598" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
@@ -48226,7 +48226,7 @@
         </is>
       </c>
       <c r="S598" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T598" t="n">
         <v>10</v>
@@ -48247,7 +48247,7 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44540</v>
+        <v>44194</v>
       </c>
       <c r="E599" t="n">
         <v>13</v>
@@ -48275,41 +48275,41 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N599" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O599" t="n">
         <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S599" t="n">
-        <v>800</v>
+        <v>1150</v>
       </c>
       <c r="T599" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="600">
@@ -48327,7 +48327,7 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E600" t="n">
         <v>13</v>
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,20 +48364,20 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N600" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="O600" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="P600" t="n">
-        <v>9500</v>
+        <v>28000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>633</v>
+        <v>2800</v>
       </c>
       <c r="T600" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601">
@@ -48407,7 +48407,7 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E601" t="n">
         <v>13</v>
@@ -48435,7 +48435,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -48444,20 +48444,20 @@
         </is>
       </c>
       <c r="M601" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N601" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O601" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P601" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
@@ -48466,10 +48466,10 @@
         </is>
       </c>
       <c r="S601" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="T601" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="602">
@@ -48487,7 +48487,7 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E602" t="n">
         <v>13</v>
@@ -48515,7 +48515,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -48524,32 +48524,32 @@
         </is>
       </c>
       <c r="M602" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="N602" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="O602" t="n">
-        <v>6000</v>
+        <v>27000</v>
       </c>
       <c r="P602" t="n">
-        <v>5500</v>
+        <v>26500</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R602" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S602" t="n">
-        <v>550</v>
+        <v>2208</v>
       </c>
       <c r="T602" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="603">
@@ -48567,7 +48567,7 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E603" t="n">
         <v>13</v>
@@ -48595,7 +48595,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -48604,32 +48604,32 @@
         </is>
       </c>
       <c r="M603" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N603" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O603" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P603" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R603" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S603" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="T603" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604">
@@ -48647,7 +48647,7 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E604" t="n">
         <v>13</v>
@@ -48675,7 +48675,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -48684,32 +48684,32 @@
         </is>
       </c>
       <c r="M604" t="n">
-        <v>260</v>
+        <v>394</v>
       </c>
       <c r="N604" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O604" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P604" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R604" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S604" t="n">
-        <v>567</v>
+        <v>2400</v>
       </c>
       <c r="T604" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605">
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,25 +48755,25 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M605" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="N605" t="n">
-        <v>6500</v>
+        <v>40500</v>
       </c>
       <c r="O605" t="n">
-        <v>6500</v>
+        <v>40500</v>
       </c>
       <c r="P605" t="n">
-        <v>6500</v>
+        <v>40500</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48782,11 +48782,11 @@
       </c>
       <c r="R605" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S605" t="n">
-        <v>433</v>
+        <v>2700</v>
       </c>
       <c r="T605" t="n">
         <v>15</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,32 +48844,32 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N606" t="n">
-        <v>10000</v>
+        <v>37500</v>
       </c>
       <c r="O606" t="n">
-        <v>10000</v>
+        <v>37500</v>
       </c>
       <c r="P606" t="n">
-        <v>10000</v>
+        <v>37500</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S606" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="T606" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48920,24 +48920,24 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M607" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N607" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O607" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P607" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
@@ -48946,10 +48946,10 @@
         </is>
       </c>
       <c r="S607" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T607" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="608">
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,32 +49004,32 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N608" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="O608" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="P608" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R608" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S608" t="n">
-        <v>633</v>
+        <v>800</v>
       </c>
       <c r="T608" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="609">
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,20 +49084,20 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N609" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O609" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P609" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R609" t="inlineStr">
@@ -49106,10 +49106,10 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T609" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="610">
@@ -49155,41 +49155,41 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M610" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="N610" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O610" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P610" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T610" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="611">
@@ -49235,29 +49235,29 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N611" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O611" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P611" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
@@ -49266,10 +49266,10 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T611" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49315,40 +49315,1080 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M612" t="n">
+        <v>200</v>
+      </c>
+      <c r="N612" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O612" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P612" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q612" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R612" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S612" t="n">
+        <v>800</v>
+      </c>
+      <c r="T612" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>6</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E613" t="n">
+        <v>13</v>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G613" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I613" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J613" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M613" t="n">
+        <v>200</v>
+      </c>
+      <c r="N613" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O613" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P613" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q613" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R613" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S613" t="n">
+        <v>633</v>
+      </c>
+      <c r="T613" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>6</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D614" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E614" t="n">
+        <v>13</v>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I614" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J614" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M614" t="n">
+        <v>200</v>
+      </c>
+      <c r="N614" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O614" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P614" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q614" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R614" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S614" t="n">
+        <v>600</v>
+      </c>
+      <c r="T614" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>6</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D615" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E615" t="n">
+        <v>13</v>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I615" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J615" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M615" t="n">
+        <v>250</v>
+      </c>
+      <c r="N615" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O615" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P615" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q615" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R615" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S615" t="n">
+        <v>550</v>
+      </c>
+      <c r="T615" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>6</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E616" t="n">
+        <v>13</v>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I616" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J616" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M616" t="n">
+        <v>250</v>
+      </c>
+      <c r="N616" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O616" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P616" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q616" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R616" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S616" t="n">
+        <v>600</v>
+      </c>
+      <c r="T616" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>6</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E617" t="n">
+        <v>13</v>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G617" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I617" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M617" t="n">
+        <v>260</v>
+      </c>
+      <c r="N617" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O617" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P617" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q617" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R617" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S617" t="n">
+        <v>567</v>
+      </c>
+      <c r="T617" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>6</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E618" t="n">
+        <v>13</v>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G618" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I618" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J618" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M618" t="n">
+        <v>310</v>
+      </c>
+      <c r="N618" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O618" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P618" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q618" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R618" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S618" t="n">
+        <v>433</v>
+      </c>
+      <c r="T618" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>6</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E619" t="n">
+        <v>13</v>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G619" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I619" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J619" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M619" t="n">
+        <v>250</v>
+      </c>
+      <c r="N619" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O619" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P619" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q619" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R619" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S619" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T619" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>6</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D620" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E620" t="n">
+        <v>13</v>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G620" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I620" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J620" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L612" t="inlineStr">
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M620" t="n">
+        <v>180</v>
+      </c>
+      <c r="N620" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O620" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P620" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q620" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R620" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S620" t="n">
+        <v>800</v>
+      </c>
+      <c r="T620" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>6</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E621" t="n">
+        <v>13</v>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G621" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I621" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J621" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M621" t="n">
+        <v>120</v>
+      </c>
+      <c r="N621" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O621" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P621" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q621" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R621" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S621" t="n">
+        <v>633</v>
+      </c>
+      <c r="T621" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>6</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E622" t="n">
+        <v>13</v>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G622" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I622" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M622" t="n">
+        <v>200</v>
+      </c>
+      <c r="N622" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O622" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P622" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q622" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R622" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S622" t="n">
+        <v>600</v>
+      </c>
+      <c r="T622" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>6</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E623" t="n">
+        <v>13</v>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G623" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I623" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J623" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M623" t="n">
+        <v>260</v>
+      </c>
+      <c r="N623" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O623" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P623" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q623" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R623" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S623" t="n">
+        <v>567</v>
+      </c>
+      <c r="T623" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>6</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E624" t="n">
+        <v>13</v>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G624" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I624" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J624" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L624" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M612" t="n">
+      <c r="M624" t="n">
+        <v>150</v>
+      </c>
+      <c r="N624" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O624" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P624" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q624" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R624" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S624" t="n">
+        <v>400</v>
+      </c>
+      <c r="T624" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>6</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E625" t="n">
+        <v>13</v>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G625" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I625" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M625" t="n">
         <v>340</v>
       </c>
-      <c r="N612" t="n">
+      <c r="N625" t="n">
         <v>6500</v>
       </c>
-      <c r="O612" t="n">
+      <c r="O625" t="n">
         <v>6500</v>
       </c>
-      <c r="P612" t="n">
+      <c r="P625" t="n">
         <v>6500</v>
       </c>
-      <c r="Q612" t="inlineStr">
+      <c r="Q625" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R612" t="inlineStr">
+      <c r="R625" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S612" t="n">
+      <c r="S625" t="n">
         <v>433</v>
       </c>
-      <c r="T612" t="n">
+      <c r="T625" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T678"/>
+  <dimension ref="A1:T684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E535" t="n">
         <v>13</v>
@@ -43155,7 +43155,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -43164,20 +43164,20 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N535" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="O535" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="P535" t="n">
-        <v>900</v>
+        <v>3500</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R535" t="inlineStr">
@@ -43186,10 +43186,10 @@
         </is>
       </c>
       <c r="S535" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="T535" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E536" t="n">
         <v>13</v>
@@ -43235,7 +43235,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -43247,17 +43247,17 @@
         <v>450</v>
       </c>
       <c r="N536" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="O536" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="P536" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R536" t="inlineStr">
@@ -43266,10 +43266,10 @@
         </is>
       </c>
       <c r="S536" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="T536" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E537" t="n">
         <v>13</v>
@@ -43315,7 +43315,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -43327,17 +43327,17 @@
         <v>400</v>
       </c>
       <c r="N537" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="O537" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="P537" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R537" t="inlineStr">
@@ -43346,10 +43346,10 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="T537" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="538">
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E538" t="n">
         <v>13</v>
@@ -43395,7 +43395,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="N538" t="n">
-        <v>13000</v>
+        <v>3700</v>
       </c>
       <c r="O538" t="n">
-        <v>13000</v>
+        <v>3700</v>
       </c>
       <c r="P538" t="n">
-        <v>13000</v>
+        <v>3700</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         </is>
       </c>
       <c r="S538" t="n">
-        <v>1300</v>
+        <v>370</v>
       </c>
       <c r="T538" t="n">
         <v>10</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E539" t="n">
         <v>13</v>
@@ -43475,29 +43475,29 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M539" t="n">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="N539" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="O539" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="P539" t="n">
-        <v>1100</v>
+        <v>3200</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R539" t="inlineStr">
@@ -43506,10 +43506,10 @@
         </is>
       </c>
       <c r="S539" t="n">
-        <v>1100</v>
+        <v>320</v>
       </c>
       <c r="T539" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="540">
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E540" t="n">
         <v>13</v>
@@ -43555,25 +43555,25 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M540" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N540" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="O540" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="P540" t="n">
-        <v>11000</v>
+        <v>2500</v>
       </c>
       <c r="Q540" t="inlineStr">
         <is>
@@ -43586,7 +43586,7 @@
         </is>
       </c>
       <c r="S540" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="T540" t="n">
         <v>10</v>
@@ -43635,16 +43635,16 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M541" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N541" t="n">
         <v>900</v>
@@ -43715,29 +43715,29 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M542" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="N542" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="O542" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="P542" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="Q542" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R542" t="inlineStr">
@@ -43746,10 +43746,10 @@
         </is>
       </c>
       <c r="S542" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T542" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -43795,7 +43795,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -43804,16 +43804,16 @@
         </is>
       </c>
       <c r="M543" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N543" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="O543" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="P543" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q543" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         </is>
       </c>
       <c r="S543" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T543" t="n">
         <v>1</v>
@@ -43847,7 +43847,7 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E544" t="n">
         <v>13</v>
@@ -43875,41 +43875,41 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M544" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N544" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O544" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P544" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q544" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R544" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S544" t="n">
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="T544" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545">
@@ -43927,7 +43927,7 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E545" t="n">
         <v>13</v>
@@ -43955,41 +43955,41 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M545" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="N545" t="n">
-        <v>45000</v>
+        <v>1100</v>
       </c>
       <c r="O545" t="n">
-        <v>45000</v>
+        <v>1100</v>
       </c>
       <c r="P545" t="n">
-        <v>45000</v>
+        <v>1100</v>
       </c>
       <c r="Q545" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R545" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S545" t="n">
-        <v>3000</v>
+        <v>1100</v>
       </c>
       <c r="T545" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -44007,7 +44007,7 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44510</v>
+        <v>44208</v>
       </c>
       <c r="E546" t="n">
         <v>13</v>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -44044,20 +44044,20 @@
         </is>
       </c>
       <c r="M546" t="n">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="N546" t="n">
-        <v>39000</v>
+        <v>11000</v>
       </c>
       <c r="O546" t="n">
-        <v>42000</v>
+        <v>11000</v>
       </c>
       <c r="P546" t="n">
-        <v>40500</v>
+        <v>11000</v>
       </c>
       <c r="Q546" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R546" t="inlineStr">
@@ -44066,10 +44066,10 @@
         </is>
       </c>
       <c r="S546" t="n">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="T546" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="547">
@@ -44087,7 +44087,7 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E547" t="n">
         <v>13</v>
@@ -44115,7 +44115,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -44124,32 +44124,32 @@
         </is>
       </c>
       <c r="M547" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N547" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="O547" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="P547" t="n">
-        <v>6000</v>
+        <v>900</v>
       </c>
       <c r="Q547" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R547" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S547" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T547" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
@@ -44167,7 +44167,7 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E548" t="n">
         <v>13</v>
@@ -44195,41 +44195,41 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M548" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N548" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O548" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P548" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q548" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R548" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S548" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T548" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
@@ -44247,7 +44247,7 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44232</v>
+        <v>44208</v>
       </c>
       <c r="E549" t="n">
         <v>13</v>
@@ -44275,29 +44275,29 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M549" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N549" t="n">
-        <v>10000</v>
+        <v>700</v>
       </c>
       <c r="O549" t="n">
-        <v>12000</v>
+        <v>700</v>
       </c>
       <c r="P549" t="n">
-        <v>11000</v>
+        <v>700</v>
       </c>
       <c r="Q549" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R549" t="inlineStr">
@@ -44306,10 +44306,10 @@
         </is>
       </c>
       <c r="S549" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T549" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -44327,7 +44327,7 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44232</v>
+        <v>44510</v>
       </c>
       <c r="E550" t="n">
         <v>13</v>
@@ -44355,29 +44355,29 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M550" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N550" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O550" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P550" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q550" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R550" t="inlineStr">
@@ -44386,10 +44386,10 @@
         </is>
       </c>
       <c r="S550" t="n">
-        <v>533</v>
+        <v>3000</v>
       </c>
       <c r="T550" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="551">
@@ -44407,7 +44407,7 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44232</v>
+        <v>44510</v>
       </c>
       <c r="E551" t="n">
         <v>13</v>
@@ -44435,25 +44435,25 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M551" t="n">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="N551" t="n">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="O551" t="n">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="P551" t="n">
-        <v>8000</v>
+        <v>45000</v>
       </c>
       <c r="Q551" t="inlineStr">
         <is>
@@ -44462,11 +44462,11 @@
       </c>
       <c r="R551" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S551" t="n">
-        <v>533</v>
+        <v>3000</v>
       </c>
       <c r="T551" t="n">
         <v>15</v>
@@ -44487,7 +44487,7 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44232</v>
+        <v>44510</v>
       </c>
       <c r="E552" t="n">
         <v>13</v>
@@ -44515,7 +44515,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -44524,16 +44524,16 @@
         </is>
       </c>
       <c r="M552" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="N552" t="n">
-        <v>12000</v>
+        <v>39000</v>
       </c>
       <c r="O552" t="n">
-        <v>12000</v>
+        <v>42000</v>
       </c>
       <c r="P552" t="n">
-        <v>12000</v>
+        <v>40500</v>
       </c>
       <c r="Q552" t="inlineStr">
         <is>
@@ -44546,7 +44546,7 @@
         </is>
       </c>
       <c r="S552" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="T552" t="n">
         <v>15</v>
@@ -44595,41 +44595,41 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M553" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N553" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O553" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P553" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q553" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R553" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S553" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="T553" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="554">
@@ -44647,7 +44647,7 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E554" t="n">
         <v>13</v>
@@ -44675,7 +44675,7 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L554" t="inlineStr">
@@ -44684,20 +44684,20 @@
         </is>
       </c>
       <c r="M554" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N554" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="O554" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P554" t="n">
-        <v>3750</v>
+        <v>11000</v>
       </c>
       <c r="Q554" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R554" t="inlineStr">
@@ -44706,10 +44706,10 @@
         </is>
       </c>
       <c r="S554" t="n">
-        <v>375</v>
+        <v>733</v>
       </c>
       <c r="T554" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="555">
@@ -44727,7 +44727,7 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E555" t="n">
         <v>13</v>
@@ -44755,41 +44755,41 @@
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M555" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N555" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O555" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="P555" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="Q555" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R555" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S555" t="n">
-        <v>300</v>
+        <v>733</v>
       </c>
       <c r="T555" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556">
@@ -44807,7 +44807,7 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E556" t="n">
         <v>13</v>
@@ -44840,20 +44840,20 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M556" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N556" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O556" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P556" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q556" t="inlineStr">
         <is>
@@ -44862,11 +44862,11 @@
       </c>
       <c r="R556" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S556" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T556" t="n">
         <v>15</v>
@@ -44887,7 +44887,7 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E557" t="n">
         <v>13</v>
@@ -44924,16 +44924,16 @@
         </is>
       </c>
       <c r="M557" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="N557" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O557" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P557" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q557" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         </is>
       </c>
       <c r="S557" t="n">
-        <v>300</v>
+        <v>533</v>
       </c>
       <c r="T557" t="n">
         <v>15</v>
@@ -44967,7 +44967,7 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E558" t="n">
         <v>13</v>
@@ -44995,25 +44995,25 @@
       </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M558" t="n">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="N558" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O558" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="P558" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q558" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="S558" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="T558" t="n">
         <v>15</v>
@@ -45047,7 +45047,7 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E559" t="n">
         <v>13</v>
@@ -45080,11 +45080,11 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M559" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N559" t="n">
         <v>10000</v>
@@ -45097,7 +45097,7 @@
       </c>
       <c r="Q559" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R559" t="inlineStr">
@@ -45106,10 +45106,10 @@
         </is>
       </c>
       <c r="S559" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T559" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="560">
@@ -45155,25 +45155,25 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M560" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N560" t="n">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="O560" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P560" t="n">
-        <v>5000</v>
+        <v>3750</v>
       </c>
       <c r="Q560" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         </is>
       </c>
       <c r="S560" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="T560" t="n">
         <v>10</v>
@@ -45235,25 +45235,25 @@
       </c>
       <c r="K561" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M561" t="n">
-        <v>990</v>
+        <v>250</v>
       </c>
       <c r="N561" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O561" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P561" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="Q561" t="inlineStr">
         <is>
@@ -45266,7 +45266,7 @@
         </is>
       </c>
       <c r="S561" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T561" t="n">
         <v>10</v>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -45324,20 +45324,20 @@
         </is>
       </c>
       <c r="M562" t="n">
-        <v>2400</v>
+        <v>450</v>
       </c>
       <c r="N562" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O562" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P562" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q562" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R562" t="inlineStr">
@@ -45346,10 +45346,10 @@
         </is>
       </c>
       <c r="S562" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T562" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="563">
@@ -45395,25 +45395,25 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M563" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="N563" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="O563" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="P563" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="Q563" t="inlineStr">
         <is>
@@ -45426,7 +45426,7 @@
         </is>
       </c>
       <c r="S563" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T563" t="n">
         <v>15</v>
@@ -45475,41 +45475,41 @@
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M564" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="N564" t="n">
         <v>3000</v>
       </c>
       <c r="O564" t="n">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="P564" t="n">
-        <v>3000</v>
+        <v>3750</v>
       </c>
       <c r="Q564" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R564" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S564" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="T564" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="565">
@@ -45555,25 +45555,25 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M565" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N565" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O565" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P565" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q565" t="inlineStr">
         <is>
@@ -45582,11 +45582,11 @@
       </c>
       <c r="R565" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S565" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T565" t="n">
         <v>10</v>
@@ -45640,36 +45640,36 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M566" t="n">
+        <v>480</v>
+      </c>
+      <c r="N566" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O566" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P566" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q566" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R566" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S566" t="n">
         <v>500</v>
       </c>
-      <c r="N566" t="n">
-        <v>4000</v>
-      </c>
-      <c r="O566" t="n">
-        <v>4500</v>
-      </c>
-      <c r="P566" t="n">
-        <v>4250</v>
-      </c>
-      <c r="Q566" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R566" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S566" t="n">
-        <v>283</v>
-      </c>
       <c r="T566" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="567">
@@ -45687,7 +45687,7 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E567" t="n">
         <v>13</v>
@@ -45715,7 +45715,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -45724,16 +45724,16 @@
         </is>
       </c>
       <c r="M567" t="n">
-        <v>250</v>
+        <v>990</v>
       </c>
       <c r="N567" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="O567" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="P567" t="n">
-        <v>23000</v>
+        <v>4000</v>
       </c>
       <c r="Q567" t="inlineStr">
         <is>
@@ -45746,7 +45746,7 @@
         </is>
       </c>
       <c r="S567" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="T567" t="n">
         <v>10</v>
@@ -45767,7 +45767,7 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E568" t="n">
         <v>13</v>
@@ -45795,25 +45795,25 @@
       </c>
       <c r="K568" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M568" t="n">
-        <v>70</v>
+        <v>2400</v>
       </c>
       <c r="N568" t="n">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="O568" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P568" t="n">
-        <v>20000</v>
+        <v>3750</v>
       </c>
       <c r="Q568" t="inlineStr">
         <is>
@@ -45826,7 +45826,7 @@
         </is>
       </c>
       <c r="S568" t="n">
-        <v>2000</v>
+        <v>375</v>
       </c>
       <c r="T568" t="n">
         <v>10</v>
@@ -45847,7 +45847,7 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E569" t="n">
         <v>13</v>
@@ -45875,29 +45875,29 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M569" t="n">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="N569" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O569" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P569" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q569" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R569" t="inlineStr">
@@ -45906,10 +45906,10 @@
         </is>
       </c>
       <c r="S569" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="T569" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="570">
@@ -45927,7 +45927,7 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E570" t="n">
         <v>13</v>
@@ -45955,25 +45955,25 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M570" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="N570" t="n">
-        <v>23000</v>
+        <v>3000</v>
       </c>
       <c r="O570" t="n">
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="P570" t="n">
-        <v>23444</v>
+        <v>3000</v>
       </c>
       <c r="Q570" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         </is>
       </c>
       <c r="S570" t="n">
-        <v>2344</v>
+        <v>300</v>
       </c>
       <c r="T570" t="n">
         <v>10</v>
@@ -46007,7 +46007,7 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
@@ -46035,29 +46035,29 @@
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M571" t="n">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="N571" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O571" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P571" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="Q571" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R571" t="inlineStr">
@@ -46066,10 +46066,10 @@
         </is>
       </c>
       <c r="S571" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="T571" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="572">
@@ -46087,7 +46087,7 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44519</v>
+        <v>44551</v>
       </c>
       <c r="E572" t="n">
         <v>13</v>
@@ -46120,24 +46120,24 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M572" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N572" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="O572" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="P572" t="n">
-        <v>25000</v>
+        <v>4250</v>
       </c>
       <c r="Q572" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R572" t="inlineStr">
@@ -46146,10 +46146,10 @@
         </is>
       </c>
       <c r="S572" t="n">
-        <v>2500</v>
+        <v>283</v>
       </c>
       <c r="T572" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="573">
@@ -46167,7 +46167,7 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E573" t="n">
         <v>13</v>
@@ -46195,7 +46195,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -46204,16 +46204,16 @@
         </is>
       </c>
       <c r="M573" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="N573" t="n">
-        <v>6000</v>
+        <v>23000</v>
       </c>
       <c r="O573" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="P573" t="n">
-        <v>6500</v>
+        <v>23000</v>
       </c>
       <c r="Q573" t="inlineStr">
         <is>
@@ -46222,11 +46222,11 @@
       </c>
       <c r="R573" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S573" t="n">
-        <v>650</v>
+        <v>2300</v>
       </c>
       <c r="T573" t="n">
         <v>10</v>
@@ -46247,7 +46247,7 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E574" t="n">
         <v>13</v>
@@ -46275,29 +46275,29 @@
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M574" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N574" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O574" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P574" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q574" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R574" t="inlineStr">
@@ -46306,10 +46306,10 @@
         </is>
       </c>
       <c r="S574" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="T574" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="575">
@@ -46327,7 +46327,7 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E575" t="n">
         <v>13</v>
@@ -46355,25 +46355,25 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M575" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N575" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O575" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P575" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="Q575" t="inlineStr">
         <is>
@@ -46386,7 +46386,7 @@
         </is>
       </c>
       <c r="S575" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T575" t="n">
         <v>10</v>
@@ -46407,7 +46407,7 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E576" t="n">
         <v>13</v>
@@ -46435,7 +46435,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -46444,16 +46444,16 @@
         </is>
       </c>
       <c r="M576" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="N576" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O576" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P576" t="n">
-        <v>12000</v>
+        <v>23444</v>
       </c>
       <c r="Q576" t="inlineStr">
         <is>
@@ -46466,7 +46466,7 @@
         </is>
       </c>
       <c r="S576" t="n">
-        <v>1200</v>
+        <v>2344</v>
       </c>
       <c r="T576" t="n">
         <v>10</v>
@@ -46487,7 +46487,7 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E577" t="n">
         <v>13</v>
@@ -46515,7 +46515,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -46524,7 +46524,7 @@
         </is>
       </c>
       <c r="M577" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="N577" t="n">
         <v>12000</v>
@@ -46537,19 +46537,19 @@
       </c>
       <c r="Q577" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R577" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S577" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="T577" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="578">
@@ -46567,7 +46567,7 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44543</v>
+        <v>44519</v>
       </c>
       <c r="E578" t="n">
         <v>13</v>
@@ -46595,7 +46595,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -46604,16 +46604,16 @@
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N578" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="O578" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P578" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="Q578" t="inlineStr">
         <is>
@@ -46626,7 +46626,7 @@
         </is>
       </c>
       <c r="S578" t="n">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="T578" t="n">
         <v>10</v>
@@ -46675,29 +46675,29 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M579" t="n">
-        <v>360</v>
+        <v>6000</v>
       </c>
       <c r="N579" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O579" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P579" t="n">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="Q579" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R579" t="inlineStr">
@@ -46706,10 +46706,10 @@
         </is>
       </c>
       <c r="S579" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="T579" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="580">
@@ -46755,7 +46755,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -46764,32 +46764,32 @@
         </is>
       </c>
       <c r="M580" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N580" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O580" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P580" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q580" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R580" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S580" t="n">
         <v>600</v>
       </c>
       <c r="T580" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="581">
@@ -46835,25 +46835,25 @@
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="N581" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O581" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P581" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q581" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         </is>
       </c>
       <c r="S581" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T581" t="n">
         <v>10</v>
@@ -46887,7 +46887,7 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E582" t="n">
         <v>13</v>
@@ -46915,25 +46915,25 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M582" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="N582" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O582" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P582" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q582" t="inlineStr">
         <is>
@@ -46946,7 +46946,7 @@
         </is>
       </c>
       <c r="S582" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T582" t="n">
         <v>10</v>
@@ -46967,7 +46967,7 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E583" t="n">
         <v>13</v>
@@ -46995,7 +46995,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -47004,16 +47004,16 @@
         </is>
       </c>
       <c r="M583" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N583" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O583" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P583" t="n">
-        <v>7750</v>
+        <v>12000</v>
       </c>
       <c r="Q583" t="inlineStr">
         <is>
@@ -47022,11 +47022,11 @@
       </c>
       <c r="R583" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S583" t="n">
-        <v>775</v>
+        <v>1200</v>
       </c>
       <c r="T583" t="n">
         <v>10</v>
@@ -47047,7 +47047,7 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -47075,7 +47075,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -47084,32 +47084,32 @@
         </is>
       </c>
       <c r="M584" t="n">
-        <v>140</v>
+        <v>1200</v>
       </c>
       <c r="N584" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O584" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P584" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q584" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R584" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S584" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T584" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="585">
@@ -47127,7 +47127,7 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E585" t="n">
         <v>13</v>
@@ -47155,41 +47155,41 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M585" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N585" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O585" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P585" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="Q585" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R585" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S585" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T585" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="586">
@@ -47207,7 +47207,7 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E586" t="n">
         <v>13</v>
@@ -47235,29 +47235,29 @@
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M586" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N586" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O586" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P586" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q586" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R586" t="inlineStr">
@@ -47266,10 +47266,10 @@
         </is>
       </c>
       <c r="S586" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T586" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="587">
@@ -47287,7 +47287,7 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44187</v>
+        <v>44543</v>
       </c>
       <c r="E587" t="n">
         <v>13</v>
@@ -47315,25 +47315,25 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M587" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N587" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O587" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P587" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q587" t="inlineStr">
         <is>
@@ -47342,11 +47342,11 @@
       </c>
       <c r="R587" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S587" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="T587" t="n">
         <v>10</v>
@@ -47395,25 +47395,25 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M588" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N588" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O588" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P588" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q588" t="inlineStr">
         <is>
@@ -47426,7 +47426,7 @@
         </is>
       </c>
       <c r="S588" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="T588" t="n">
         <v>10</v>
@@ -47475,29 +47475,29 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M589" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N589" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O589" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P589" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q589" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R589" t="inlineStr">
@@ -47506,10 +47506,10 @@
         </is>
       </c>
       <c r="S589" t="n">
-        <v>1000</v>
+        <v>775</v>
       </c>
       <c r="T589" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="590">
@@ -47527,7 +47527,7 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E590" t="n">
         <v>13</v>
@@ -47555,7 +47555,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -47564,7 +47564,7 @@
         </is>
       </c>
       <c r="M590" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N590" t="n">
         <v>12000</v>
@@ -47607,7 +47607,7 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E591" t="n">
         <v>13</v>
@@ -47635,29 +47635,29 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>Black Tartarian</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M591" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="N591" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="O591" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P591" t="n">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="Q591" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R591" t="inlineStr">
@@ -47666,10 +47666,10 @@
         </is>
       </c>
       <c r="S591" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="T591" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592">
@@ -47687,7 +47687,7 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E592" t="n">
         <v>13</v>
@@ -47720,20 +47720,20 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M592" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N592" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O592" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P592" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q592" t="inlineStr">
         <is>
@@ -47746,7 +47746,7 @@
         </is>
       </c>
       <c r="S592" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T592" t="n">
         <v>15</v>
@@ -47767,7 +47767,7 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E593" t="n">
         <v>13</v>
@@ -47800,24 +47800,24 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M593" t="n">
         <v>120</v>
       </c>
       <c r="N593" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="O593" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="P593" t="n">
-        <v>12000</v>
+        <v>3750</v>
       </c>
       <c r="Q593" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R593" t="inlineStr">
@@ -47826,10 +47826,10 @@
         </is>
       </c>
       <c r="S593" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T593" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="594">
@@ -47847,7 +47847,7 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E594" t="n">
         <v>13</v>
@@ -47884,7 +47884,7 @@
         </is>
       </c>
       <c r="M594" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N594" t="n">
         <v>12000</v>
@@ -47927,7 +47927,7 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44175</v>
+        <v>44187</v>
       </c>
       <c r="E595" t="n">
         <v>13</v>
@@ -47964,20 +47964,20 @@
         </is>
       </c>
       <c r="M595" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N595" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O595" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P595" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q595" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R595" t="inlineStr">
@@ -47989,7 +47989,7 @@
         <v>1000</v>
       </c>
       <c r="T595" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="596">
@@ -48035,29 +48035,29 @@
       </c>
       <c r="K596" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M596" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N596" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O596" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P596" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q596" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R596" t="inlineStr">
@@ -48066,10 +48066,10 @@
         </is>
       </c>
       <c r="S596" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T596" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597">
@@ -48115,25 +48115,25 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Black Tartarian</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M597" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N597" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="O597" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="P597" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="Q597" t="inlineStr">
         <is>
@@ -48146,7 +48146,7 @@
         </is>
       </c>
       <c r="S597" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="T597" t="n">
         <v>15</v>
@@ -48195,41 +48195,41 @@
       </c>
       <c r="K598" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M598" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N598" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="O598" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="P598" t="n">
-        <v>1300</v>
+        <v>15000</v>
       </c>
       <c r="Q598" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R598" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S598" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T598" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="599">
@@ -48275,29 +48275,29 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M599" t="n">
-        <v>1500</v>
+        <v>120</v>
       </c>
       <c r="N599" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O599" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P599" t="n">
-        <v>8700</v>
+        <v>12000</v>
       </c>
       <c r="Q599" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R599" t="inlineStr">
@@ -48306,10 +48306,10 @@
         </is>
       </c>
       <c r="S599" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="T599" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="600">
@@ -48355,7 +48355,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -48364,20 +48364,20 @@
         </is>
       </c>
       <c r="M600" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="N600" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O600" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P600" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q600" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R600" t="inlineStr">
@@ -48386,10 +48386,10 @@
         </is>
       </c>
       <c r="S600" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T600" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601">
@@ -48435,41 +48435,41 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M601" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N601" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="O601" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="P601" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="Q601" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R601" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S601" t="n">
         <v>1000</v>
       </c>
       <c r="T601" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602">
@@ -48515,25 +48515,25 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M602" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N602" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O602" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P602" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q602" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         </is>
       </c>
       <c r="S602" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T602" t="n">
         <v>10</v>
@@ -48600,20 +48600,20 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M603" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N603" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="O603" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P603" t="n">
-        <v>10875</v>
+        <v>18000</v>
       </c>
       <c r="Q603" t="inlineStr">
         <is>
@@ -48626,7 +48626,7 @@
         </is>
       </c>
       <c r="S603" t="n">
-        <v>725</v>
+        <v>1200</v>
       </c>
       <c r="T603" t="n">
         <v>15</v>
@@ -48680,20 +48680,20 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M604" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N604" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="O604" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="P604" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="Q604" t="inlineStr">
         <is>
@@ -48706,7 +48706,7 @@
         </is>
       </c>
       <c r="S604" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="T604" t="n">
         <v>1</v>
@@ -48727,7 +48727,7 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E605" t="n">
         <v>13</v>
@@ -48755,7 +48755,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -48764,16 +48764,16 @@
         </is>
       </c>
       <c r="M605" t="n">
-        <v>480</v>
+        <v>1500</v>
       </c>
       <c r="N605" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O605" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P605" t="n">
-        <v>6500</v>
+        <v>8700</v>
       </c>
       <c r="Q605" t="inlineStr">
         <is>
@@ -48786,7 +48786,7 @@
         </is>
       </c>
       <c r="S605" t="n">
-        <v>650</v>
+        <v>870</v>
       </c>
       <c r="T605" t="n">
         <v>10</v>
@@ -48807,7 +48807,7 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E606" t="n">
         <v>13</v>
@@ -48835,7 +48835,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -48844,20 +48844,20 @@
         </is>
       </c>
       <c r="M606" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N606" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O606" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P606" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="Q606" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R606" t="inlineStr">
@@ -48866,10 +48866,10 @@
         </is>
       </c>
       <c r="S606" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="T606" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="607">
@@ -48887,7 +48887,7 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E607" t="n">
         <v>13</v>
@@ -48915,7 +48915,7 @@
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
@@ -48927,29 +48927,29 @@
         <v>250</v>
       </c>
       <c r="N607" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="O607" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="P607" t="n">
-        <v>10500</v>
+        <v>1000</v>
       </c>
       <c r="Q607" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R607" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S607" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T607" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
@@ -48967,7 +48967,7 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E608" t="n">
         <v>13</v>
@@ -48995,7 +48995,7 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
@@ -49004,16 +49004,16 @@
         </is>
       </c>
       <c r="M608" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N608" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O608" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P608" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q608" t="inlineStr">
         <is>
@@ -49026,7 +49026,7 @@
         </is>
       </c>
       <c r="S608" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T608" t="n">
         <v>10</v>
@@ -49047,7 +49047,7 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E609" t="n">
         <v>13</v>
@@ -49075,7 +49075,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -49084,16 +49084,16 @@
         </is>
       </c>
       <c r="M609" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N609" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="O609" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P609" t="n">
-        <v>7500</v>
+        <v>10875</v>
       </c>
       <c r="Q609" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         </is>
       </c>
       <c r="S609" t="n">
-        <v>500</v>
+        <v>725</v>
       </c>
       <c r="T609" t="n">
         <v>15</v>
@@ -49127,7 +49127,7 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44200</v>
+        <v>44175</v>
       </c>
       <c r="E610" t="n">
         <v>13</v>
@@ -49155,41 +49155,41 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M610" t="n">
         <v>250</v>
       </c>
       <c r="N610" t="n">
-        <v>10500</v>
+        <v>800</v>
       </c>
       <c r="O610" t="n">
-        <v>10500</v>
+        <v>800</v>
       </c>
       <c r="P610" t="n">
-        <v>10500</v>
+        <v>800</v>
       </c>
       <c r="Q610" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R610" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S610" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T610" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
@@ -49207,7 +49207,7 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E611" t="n">
         <v>13</v>
@@ -49235,29 +49235,29 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M611" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N611" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O611" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P611" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q611" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R611" t="inlineStr">
@@ -49266,10 +49266,10 @@
         </is>
       </c>
       <c r="S611" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T611" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="612">
@@ -49287,7 +49287,7 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E612" t="n">
         <v>13</v>
@@ -49324,16 +49324,16 @@
         </is>
       </c>
       <c r="M612" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N612" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O612" t="n">
         <v>7000</v>
       </c>
-      <c r="O612" t="n">
-        <v>8000</v>
-      </c>
       <c r="P612" t="n">
-        <v>7500</v>
+        <v>6500</v>
       </c>
       <c r="Q612" t="inlineStr">
         <is>
@@ -49342,11 +49342,11 @@
       </c>
       <c r="R612" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S612" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="T612" t="n">
         <v>10</v>
@@ -49367,7 +49367,7 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E613" t="n">
         <v>13</v>
@@ -49404,16 +49404,16 @@
         </is>
       </c>
       <c r="M613" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N613" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O613" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P613" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q613" t="inlineStr">
         <is>
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="S613" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T613" t="n">
         <v>15</v>
@@ -49447,7 +49447,7 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E614" t="n">
         <v>13</v>
@@ -49484,16 +49484,16 @@
         </is>
       </c>
       <c r="M614" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N614" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O614" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P614" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q614" t="inlineStr">
         <is>
@@ -49502,11 +49502,11 @@
       </c>
       <c r="R614" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S614" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T614" t="n">
         <v>10</v>
@@ -49527,7 +49527,7 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E615" t="n">
         <v>13</v>
@@ -49564,16 +49564,16 @@
         </is>
       </c>
       <c r="M615" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N615" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O615" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="P615" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q615" t="inlineStr">
         <is>
@@ -49586,7 +49586,7 @@
         </is>
       </c>
       <c r="S615" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T615" t="n">
         <v>15</v>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,32 +49644,32 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N616" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O616" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P616" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S616" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T616" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="617">
@@ -49687,7 +49687,7 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E617" t="n">
         <v>13</v>
@@ -49720,20 +49720,20 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M617" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N617" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O617" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P617" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         </is>
       </c>
       <c r="S617" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T617" t="n">
         <v>5</v>
@@ -49767,7 +49767,7 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E618" t="n">
         <v>13</v>
@@ -49804,32 +49804,32 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N618" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O618" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P618" t="n">
-        <v>12750</v>
+        <v>7500</v>
       </c>
       <c r="Q618" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R618" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S618" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="T618" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="619">
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49880,36 +49880,36 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N619" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O619" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P619" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T619" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="620">
@@ -49927,7 +49927,7 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E620" t="n">
         <v>13</v>
@@ -49964,32 +49964,32 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N620" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O620" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="P620" t="n">
-        <v>9750</v>
+        <v>6000</v>
       </c>
       <c r="Q620" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R620" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S620" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="T620" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621">
@@ -50007,7 +50007,7 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E621" t="n">
         <v>13</v>
@@ -50040,36 +50040,36 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M621" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N621" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O621" t="n">
-        <v>5000</v>
+        <v>11250</v>
       </c>
       <c r="P621" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q621" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R621" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S621" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T621" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="622">
@@ -50120,36 +50120,36 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N622" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O622" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P622" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S622" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T622" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623">
@@ -50195,41 +50195,41 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M623" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N623" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O623" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P623" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R623" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S623" t="n">
         <v>800</v>
       </c>
       <c r="T623" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="624">
@@ -50275,7 +50275,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N624" t="n">
         <v>12000</v>
       </c>
       <c r="O624" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P624" t="n">
-        <v>12000</v>
+        <v>12750</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50306,7 +50306,7 @@
         </is>
       </c>
       <c r="S624" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="T624" t="n">
         <v>15</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N625" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O625" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P625" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
         <v>600</v>
       </c>
       <c r="T625" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="626">
@@ -50435,25 +50435,25 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M626" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="N626" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O626" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="P626" t="n">
-        <v>7000</v>
+        <v>9750</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
@@ -50466,7 +50466,7 @@
         </is>
       </c>
       <c r="S626" t="n">
-        <v>467</v>
+        <v>650</v>
       </c>
       <c r="T626" t="n">
         <v>15</v>
@@ -50487,7 +50487,7 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44224</v>
+        <v>44188</v>
       </c>
       <c r="E627" t="n">
         <v>13</v>
@@ -50520,36 +50520,36 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M627" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N627" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O627" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P627" t="n">
-        <v>13500</v>
+        <v>5000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R627" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S627" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T627" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="628">
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,29 +50595,29 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M628" t="n">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="N628" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O628" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P628" t="n">
         <v>7500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R628" t="inlineStr">
@@ -50626,10 +50626,10 @@
         </is>
       </c>
       <c r="S628" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T628" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="629">
@@ -50647,7 +50647,7 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E629" t="n">
         <v>13</v>
@@ -50675,41 +50675,41 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N629" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O629" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T629" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="630">
@@ -50727,7 +50727,7 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E630" t="n">
         <v>13</v>
@@ -50755,7 +50755,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -50764,16 +50764,16 @@
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N630" t="n">
-        <v>11250</v>
+        <v>12000</v>
       </c>
       <c r="O630" t="n">
         <v>12000</v>
       </c>
       <c r="P630" t="n">
-        <v>11625</v>
+        <v>12000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="T630" t="n">
         <v>15</v>
@@ -50807,7 +50807,7 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44195</v>
+        <v>44188</v>
       </c>
       <c r="E631" t="n">
         <v>13</v>
@@ -50835,29 +50835,29 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="N631" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O631" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P631" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R631" t="inlineStr">
@@ -50866,10 +50866,10 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="T631" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="632">
@@ -50887,7 +50887,7 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44536</v>
+        <v>44188</v>
       </c>
       <c r="E632" t="n">
         <v>13</v>
@@ -50915,41 +50915,41 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O632" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P632" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R632" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S632" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T632" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="633">
@@ -50967,7 +50967,7 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44536</v>
+        <v>44224</v>
       </c>
       <c r="E633" t="n">
         <v>13</v>
@@ -50995,41 +50995,41 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N633" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O633" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P633" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R633" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S633" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T633" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="634">
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E634" t="n">
         <v>13</v>
@@ -51075,25 +51075,25 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M634" t="n">
-        <v>175</v>
+        <v>720</v>
       </c>
       <c r="N634" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O634" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P634" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51102,11 +51102,11 @@
       </c>
       <c r="R634" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S634" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T634" t="n">
         <v>10</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,29 +51155,29 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M635" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N635" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O635" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P635" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R635" t="inlineStr">
@@ -51186,10 +51186,10 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T635" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="636">
@@ -51207,7 +51207,7 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,32 +51244,32 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N636" t="n">
-        <v>12000</v>
+        <v>11250</v>
       </c>
       <c r="O636" t="n">
         <v>12000</v>
       </c>
       <c r="P636" t="n">
-        <v>12000</v>
+        <v>11625</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S636" t="n">
-        <v>1200</v>
+        <v>775</v>
       </c>
       <c r="T636" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="637">
@@ -51287,7 +51287,7 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -51320,20 +51320,20 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M637" t="n">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="N637" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O637" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P637" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
@@ -51342,11 +51342,11 @@
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T637" t="n">
         <v>10</v>
@@ -51395,25 +51395,25 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M638" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N638" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O638" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P638" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         </is>
       </c>
       <c r="S638" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T638" t="n">
         <v>10</v>
@@ -51475,25 +51475,25 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N639" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O639" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P639" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T639" t="n">
         <v>10</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="N640" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="O640" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="P640" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="T640" t="n">
         <v>10</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="N641" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O641" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P641" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51666,7 +51666,7 @@
         </is>
       </c>
       <c r="S641" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T641" t="n">
         <v>10</v>
@@ -51715,7 +51715,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N642" t="n">
         <v>12000</v>
@@ -51737,7 +51737,7 @@
       </c>
       <c r="Q642" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R642" t="inlineStr">
@@ -51746,10 +51746,10 @@
         </is>
       </c>
       <c r="S642" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T642" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="643">
@@ -51795,7 +51795,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -51804,16 +51804,16 @@
         </is>
       </c>
       <c r="M643" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="N643" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O643" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P643" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51822,11 +51822,11 @@
       </c>
       <c r="R643" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S643" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T643" t="n">
         <v>10</v>
@@ -51875,29 +51875,29 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N644" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O644" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P644" t="n">
-        <v>8143</v>
+        <v>8000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R644" t="inlineStr">
@@ -51906,10 +51906,10 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>543</v>
+        <v>800</v>
       </c>
       <c r="T644" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="645">
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44511</v>
+        <v>44536</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,41 +51955,41 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M645" t="n">
-        <v>960</v>
+        <v>240</v>
       </c>
       <c r="N645" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O645" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P645" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="T645" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,41 +52035,41 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M646" t="n">
+        <v>240</v>
+      </c>
+      <c r="N646" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O646" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P646" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q646" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R646" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S646" t="n">
         <v>400</v>
       </c>
-      <c r="N646" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O646" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P646" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q646" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R646" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S646" t="n">
-        <v>800</v>
-      </c>
       <c r="T646" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647">
@@ -52087,7 +52087,7 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E647" t="n">
         <v>13</v>
@@ -52115,25 +52115,25 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M647" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="N647" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="O647" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P647" t="n">
-        <v>5750</v>
+        <v>8000</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>575</v>
+        <v>800</v>
       </c>
       <c r="T647" t="n">
         <v>10</v>
@@ -52167,7 +52167,7 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E648" t="n">
         <v>13</v>
@@ -52195,25 +52195,25 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M648" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N648" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O648" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P648" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         </is>
       </c>
       <c r="S648" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T648" t="n">
         <v>15</v>
@@ -52247,7 +52247,7 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E649" t="n">
         <v>13</v>
@@ -52275,25 +52275,25 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M649" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N649" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O649" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P649" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52306,7 +52306,7 @@
         </is>
       </c>
       <c r="S649" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T649" t="n">
         <v>10</v>
@@ -52327,7 +52327,7 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44194</v>
+        <v>44536</v>
       </c>
       <c r="E650" t="n">
         <v>13</v>
@@ -52355,41 +52355,41 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M650" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="N650" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O650" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P650" t="n">
-        <v>7500</v>
+        <v>8143</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>750</v>
+        <v>543</v>
       </c>
       <c r="T650" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651">
@@ -52407,7 +52407,7 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44194</v>
+        <v>44511</v>
       </c>
       <c r="E651" t="n">
         <v>13</v>
@@ -52435,29 +52435,29 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M651" t="n">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="N651" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O651" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P651" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R651" t="inlineStr">
@@ -52466,10 +52466,10 @@
         </is>
       </c>
       <c r="S651" t="n">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="T651" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="652">
@@ -52515,7 +52515,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -52524,32 +52524,32 @@
         </is>
       </c>
       <c r="M652" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N652" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O652" t="n">
         <v>12000</v>
       </c>
       <c r="P652" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1150</v>
+        <v>800</v>
       </c>
       <c r="T652" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,25 +52595,25 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M653" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N653" t="n">
-        <v>28000</v>
+        <v>5500</v>
       </c>
       <c r="O653" t="n">
-        <v>28000</v>
+        <v>6000</v>
       </c>
       <c r="P653" t="n">
-        <v>28000</v>
+        <v>5750</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="S653" t="n">
-        <v>2800</v>
+        <v>575</v>
       </c>
       <c r="T653" t="n">
         <v>10</v>
@@ -52647,7 +52647,7 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E654" t="n">
         <v>13</v>
@@ -52675,41 +52675,41 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M654" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P654" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q654" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R654" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S654" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="T654" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="655">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="N655" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="P655" t="n">
-        <v>26500</v>
+        <v>9000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>2208</v>
+        <v>900</v>
       </c>
       <c r="T655" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="656">
@@ -52807,7 +52807,7 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E656" t="n">
         <v>13</v>
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,16 +52844,16 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N656" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O656" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P656" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
@@ -52866,7 +52866,7 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>2500</v>
+        <v>750</v>
       </c>
       <c r="T656" t="n">
         <v>10</v>
@@ -52887,7 +52887,7 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E657" t="n">
         <v>13</v>
@@ -52915,29 +52915,29 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M657" t="n">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="N657" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O657" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P657" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>2400</v>
+        <v>600</v>
       </c>
       <c r="T657" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658">
@@ -52967,7 +52967,7 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44518</v>
+        <v>44194</v>
       </c>
       <c r="E658" t="n">
         <v>13</v>
@@ -52995,7 +52995,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -53004,20 +53004,20 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N658" t="n">
-        <v>40500</v>
+        <v>11000</v>
       </c>
       <c r="O658" t="n">
-        <v>40500</v>
+        <v>12000</v>
       </c>
       <c r="P658" t="n">
-        <v>40500</v>
+        <v>11500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
@@ -53026,10 +53026,10 @@
         </is>
       </c>
       <c r="S658" t="n">
-        <v>2700</v>
+        <v>1150</v>
       </c>
       <c r="T658" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659">
@@ -53075,29 +53075,29 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M659" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N659" t="n">
-        <v>37500</v>
+        <v>28000</v>
       </c>
       <c r="O659" t="n">
-        <v>37500</v>
+        <v>28000</v>
       </c>
       <c r="P659" t="n">
-        <v>37500</v>
+        <v>28000</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R659" t="inlineStr">
@@ -53106,10 +53106,10 @@
         </is>
       </c>
       <c r="S659" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="T659" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660">
@@ -53155,29 +53155,29 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M660" t="n">
         <v>100</v>
       </c>
       <c r="N660" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O660" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P660" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q660" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R660" t="inlineStr">
@@ -53186,10 +53186,10 @@
         </is>
       </c>
       <c r="S660" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="T660" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661">
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,41 +53235,41 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="N661" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="O661" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="P661" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>800</v>
+        <v>2208</v>
       </c>
       <c r="T661" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="662">
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,20 +53324,20 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N662" t="n">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="O662" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="P662" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R662" t="inlineStr">
@@ -53346,7 +53346,7 @@
         </is>
       </c>
       <c r="S662" t="n">
-        <v>550</v>
+        <v>2500</v>
       </c>
       <c r="T662" t="n">
         <v>10</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,29 +53395,29 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="N663" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O663" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P663" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
@@ -53426,10 +53426,10 @@
         </is>
       </c>
       <c r="S663" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="664">
@@ -53447,7 +53447,7 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E664" t="n">
         <v>13</v>
@@ -53475,29 +53475,29 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="N664" t="n">
-        <v>8000</v>
+        <v>40500</v>
       </c>
       <c r="O664" t="n">
-        <v>8000</v>
+        <v>40500</v>
       </c>
       <c r="P664" t="n">
-        <v>8000</v>
+        <v>40500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R664" t="inlineStr">
@@ -53506,10 +53506,10 @@
         </is>
       </c>
       <c r="S664" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="T664" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="665">
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,25 +53555,25 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M665" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N665" t="n">
-        <v>12000</v>
+        <v>37500</v>
       </c>
       <c r="O665" t="n">
-        <v>12000</v>
+        <v>37500</v>
       </c>
       <c r="P665" t="n">
-        <v>12000</v>
+        <v>37500</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53582,11 +53582,11 @@
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="T665" t="n">
         <v>15</v>
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44540</v>
+        <v>44518</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,41 +53635,41 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N666" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="O666" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="P666" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>633</v>
+        <v>1400</v>
       </c>
       <c r="T666" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667">
@@ -53715,29 +53715,29 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M667" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N667" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O667" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P667" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
@@ -53746,7 +53746,7 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T667" t="n">
         <v>10</v>
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,7 +53804,7 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N668" t="n">
         <v>5000</v>
@@ -53880,36 +53880,36 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N669" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O669" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P669" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S669" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T669" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670">
@@ -53960,36 +53960,36 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M670" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N670" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O670" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P670" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S670" t="n">
-        <v>567</v>
+        <v>800</v>
       </c>
       <c r="T670" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671">
@@ -54040,20 +54040,20 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="N671" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="O671" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="P671" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
@@ -54062,11 +54062,11 @@
       </c>
       <c r="R671" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S671" t="n">
-        <v>433</v>
+        <v>800</v>
       </c>
       <c r="T671" t="n">
         <v>15</v>
@@ -54115,41 +54115,41 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N672" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O672" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="P672" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>1000</v>
+        <v>633</v>
       </c>
       <c r="T672" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="673">
@@ -54195,29 +54195,29 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N673" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O673" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P673" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54226,10 +54226,10 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T673" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674">
@@ -54275,41 +54275,41 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N674" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="O674" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="P674" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>633</v>
+        <v>550</v>
       </c>
       <c r="T674" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="675">
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,7 +54364,7 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N675" t="n">
         <v>9000</v>
@@ -54382,7 +54382,7 @@
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S675" t="n">
@@ -54435,7 +54435,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N677" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="O677" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="P677" t="n">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54542,11 +54542,11 @@
       </c>
       <c r="R677" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S677" t="n">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="T677" t="n">
         <v>15</v>
@@ -54595,40 +54595,520 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M678" t="n">
+        <v>250</v>
+      </c>
+      <c r="N678" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O678" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P678" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q678" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R678" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S678" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T678" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>6</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D679" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E679" t="n">
+        <v>13</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G679" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
           <t>Santina</t>
         </is>
       </c>
-      <c r="L678" t="inlineStr">
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M679" t="n">
+        <v>180</v>
+      </c>
+      <c r="N679" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O679" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P679" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q679" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R679" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S679" t="n">
+        <v>800</v>
+      </c>
+      <c r="T679" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>6</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D680" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E680" t="n">
+        <v>13</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G680" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M680" t="n">
+        <v>120</v>
+      </c>
+      <c r="N680" t="n">
+        <v>9500</v>
+      </c>
+      <c r="O680" t="n">
+        <v>9500</v>
+      </c>
+      <c r="P680" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q680" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R680" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S680" t="n">
+        <v>633</v>
+      </c>
+      <c r="T680" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>6</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D681" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E681" t="n">
+        <v>13</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G681" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M681" t="n">
+        <v>200</v>
+      </c>
+      <c r="N681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P681" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q681" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R681" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S681" t="n">
+        <v>600</v>
+      </c>
+      <c r="T681" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>6</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D682" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E682" t="n">
+        <v>13</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G682" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M682" t="n">
+        <v>260</v>
+      </c>
+      <c r="N682" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O682" t="n">
+        <v>8500</v>
+      </c>
+      <c r="P682" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q682" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R682" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S682" t="n">
+        <v>567</v>
+      </c>
+      <c r="T682" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>6</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D683" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E683" t="n">
+        <v>13</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G683" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M678" t="n">
+      <c r="M683" t="n">
+        <v>150</v>
+      </c>
+      <c r="N683" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O683" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P683" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q683" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R683" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S683" t="n">
+        <v>400</v>
+      </c>
+      <c r="T683" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>6</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D684" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E684" t="n">
+        <v>13</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G684" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M684" t="n">
         <v>340</v>
       </c>
-      <c r="N678" t="n">
+      <c r="N684" t="n">
         <v>6500</v>
       </c>
-      <c r="O678" t="n">
+      <c r="O684" t="n">
         <v>6500</v>
       </c>
-      <c r="P678" t="n">
+      <c r="P684" t="n">
         <v>6500</v>
       </c>
-      <c r="Q678" t="inlineStr">
+      <c r="Q684" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R678" t="inlineStr">
+      <c r="R684" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S678" t="n">
+      <c r="S684" t="n">
         <v>433</v>
       </c>
-      <c r="T678" t="n">
+      <c r="T684" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T776"/>
+  <dimension ref="A1:T780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59607,7 +59607,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -59635,25 +59635,25 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N741" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O741" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="P741" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T741" t="n">
         <v>15</v>
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,7 +59715,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -59724,20 +59724,20 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N742" t="n">
-        <v>10500</v>
+        <v>3000</v>
       </c>
       <c r="O742" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="P742" t="n">
-        <v>10500</v>
+        <v>3500</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R742" t="inlineStr">
@@ -59746,10 +59746,10 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="T742" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="743">
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,41 +59795,41 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N743" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="O743" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="P743" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="T743" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44533</v>
+        <v>44578</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,7 +59875,7 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
@@ -59884,20 +59884,20 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>70</v>
+        <v>720</v>
       </c>
       <c r="N744" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O744" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P744" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R744" t="inlineStr">
@@ -59906,10 +59906,10 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T744" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="745">
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59970,10 +59970,10 @@
         <v>13500</v>
       </c>
       <c r="O745" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P745" t="n">
-        <v>14250</v>
+        <v>13500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="T745" t="n">
         <v>15</v>
@@ -60035,29 +60035,29 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N746" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="O746" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="P746" t="n">
-        <v>2000</v>
+        <v>10500</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
@@ -60066,10 +60066,10 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="T746" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="747">
@@ -60115,41 +60115,41 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N747" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="O747" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P747" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="T747" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748">
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N748" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O748" t="n">
         <v>15000</v>
       </c>
       <c r="P748" t="n">
-        <v>14250</v>
+        <v>15000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60226,7 +60226,7 @@
         </is>
       </c>
       <c r="S748" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="T748" t="n">
         <v>15</v>
@@ -60275,41 +60275,41 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N749" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O749" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P749" t="n">
-        <v>12000</v>
+        <v>14250</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="T749" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="750">
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,20 +60364,20 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N750" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="O750" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="P750" t="n">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
@@ -60386,10 +60386,10 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="T750" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
@@ -60435,41 +60435,41 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N751" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O751" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P751" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T751" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="752">
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,20 +60524,20 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N752" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O752" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P752" t="n">
-        <v>10000</v>
+        <v>14250</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T752" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753">
@@ -60600,24 +60600,24 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N753" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O753" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P753" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
@@ -60626,10 +60626,10 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T753" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="754">
@@ -60680,20 +60680,20 @@
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M754" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="O754" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P754" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60702,11 +60702,11 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="T754" t="n">
         <v>15</v>
@@ -60760,36 +60760,36 @@
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N755" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O755" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P755" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T755" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="N756" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O756" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P756" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="T756" t="n">
         <v>10</v>
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,29 +60915,29 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="N757" t="n">
-        <v>3500</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="P757" t="n">
-        <v>3750</v>
+        <v>15000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="T757" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N758" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O758" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="P758" t="n">
-        <v>7500</v>
+        <v>12750</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="T758" t="n">
         <v>15</v>
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,25 +61075,25 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N759" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O759" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P759" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61102,11 +61102,11 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S759" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T759" t="n">
         <v>10</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61167,17 +61167,17 @@
         <v>1200</v>
       </c>
       <c r="N760" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O760" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="P760" t="n">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
@@ -61186,10 +61186,10 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="T760" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,25 +61235,25 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N761" t="n">
-        <v>16000</v>
+        <v>3500</v>
       </c>
       <c r="O761" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="P761" t="n">
-        <v>16000</v>
+        <v>3750</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1600</v>
+        <v>375</v>
       </c>
       <c r="T761" t="n">
         <v>10</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61324,20 +61324,20 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N762" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="O762" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="P762" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
@@ -61346,10 +61346,10 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="T762" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="N763" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="O763" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="P763" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="T763" t="n">
         <v>10</v>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44525</v>
+        <v>44571</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Van</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="N764" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="O764" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="P764" t="n">
-        <v>13000</v>
+        <v>2500</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="T764" t="n">
         <v>5</v>
@@ -61555,25 +61555,25 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N765" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O765" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P765" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="T765" t="n">
         <v>10</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,20 +61644,20 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N766" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="O766" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="P766" t="n">
-        <v>22500</v>
+        <v>25000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="T766" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="767">
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,20 +61724,20 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N767" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O767" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P767" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
@@ -61746,10 +61746,10 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T767" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768">
@@ -61795,41 +61795,41 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N768" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="O768" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="P768" t="n">
-        <v>28500</v>
+        <v>13000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="T768" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="769">
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="N769" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O769" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P769" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S769" t="n">
         <v>1500</v>
       </c>
       <c r="T769" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="770">
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N770" t="n">
         <v>22500</v>
       </c>
       <c r="O770" t="n">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="P770" t="n">
-        <v>23250</v>
+        <v>22500</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N772" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="O772" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="P772" t="n">
-        <v>11000</v>
+        <v>28500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>733</v>
+        <v>1900</v>
       </c>
       <c r="T772" t="n">
         <v>15</v>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N773" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O773" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="P773" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="T773" t="n">
         <v>5</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,29 +62275,29 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N774" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O774" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P774" t="n">
-        <v>10000</v>
+        <v>23250</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
@@ -62306,10 +62306,10 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>2000</v>
+        <v>1550</v>
       </c>
       <c r="T774" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="775">
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44512</v>
+        <v>44525</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,29 +62355,29 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N775" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O775" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P775" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T775" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,40 +62435,360 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>960</v>
+        <v>160</v>
       </c>
       <c r="N776" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O776" t="n">
         <v>12000</v>
       </c>
       <c r="P776" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q776" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R776" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S776" t="n">
+        <v>733</v>
+      </c>
+      <c r="T776" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>6</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D777" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E777" t="n">
+        <v>13</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I777" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>Early Burlat</t>
+        </is>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M777" t="n">
+        <v>200</v>
+      </c>
+      <c r="N777" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O777" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P777" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S777" t="n">
+        <v>2600</v>
+      </c>
+      <c r="T777" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>6</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D778" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E778" t="n">
+        <v>13</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I778" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>Early Burlat</t>
+        </is>
+      </c>
+      <c r="L778" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M778" t="n">
+        <v>250</v>
+      </c>
+      <c r="N778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q778" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S778" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T778" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>6</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E779" t="n">
+        <v>13</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I779" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M779" t="n">
+        <v>150</v>
+      </c>
+      <c r="N779" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O779" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P779" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q779" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S779" t="n">
+        <v>2000</v>
+      </c>
+      <c r="T779" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>6</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D780" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E780" t="n">
+        <v>13</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I780" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Early Burlat</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M780" t="n">
+        <v>960</v>
+      </c>
+      <c r="N780" t="n">
         <v>12000</v>
       </c>
-      <c r="Q776" t="inlineStr">
+      <c r="O780" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P780" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q780" t="inlineStr">
         <is>
           <t>$/bandeja 5 kilos</t>
         </is>
       </c>
-      <c r="R776" t="inlineStr">
+      <c r="R780" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S776" t="n">
+      <c r="S780" t="n">
         <v>2400</v>
       </c>
-      <c r="T776" t="n">
+      <c r="T780" t="n">
         <v>5</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T792"/>
+  <dimension ref="A1:T796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>245</v>
+        <v>720</v>
       </c>
       <c r="N762" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="O762" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="P762" t="n">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="T762" t="n">
         <v>10</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,32 +61404,32 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N763" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="O763" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="P763" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="T763" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,25 +61475,25 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="N764" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="O764" t="n">
-        <v>3200</v>
+        <v>5000</v>
       </c>
       <c r="P764" t="n">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61506,7 +61506,7 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="T764" t="n">
         <v>10</v>
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="N765" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="O765" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="P765" t="n">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T765" t="n">
         <v>10</v>
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61635,7 +61635,7 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
@@ -61644,16 +61644,16 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N766" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O766" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="P766" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="T766" t="n">
         <v>10</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,16 +61724,16 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>700</v>
+        <v>245</v>
       </c>
       <c r="N767" t="n">
-        <v>14000</v>
+        <v>2800</v>
       </c>
       <c r="O767" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="P767" t="n">
-        <v>14500</v>
+        <v>2800</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61742,11 +61742,11 @@
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1450</v>
+        <v>280</v>
       </c>
       <c r="T767" t="n">
         <v>10</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,25 +61795,25 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N768" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="O768" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="P768" t="n">
-        <v>10000</v>
+        <v>3100</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61826,7 +61826,7 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="T768" t="n">
         <v>10</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M769" t="n">
+        <v>320</v>
+      </c>
+      <c r="N769" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O769" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P769" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q769" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S769" t="n">
         <v>250</v>
       </c>
-      <c r="N769" t="n">
-        <v>22500</v>
-      </c>
-      <c r="O769" t="n">
-        <v>22500</v>
-      </c>
-      <c r="P769" t="n">
-        <v>22500</v>
-      </c>
-      <c r="Q769" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R769" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S769" t="n">
-        <v>1500</v>
-      </c>
       <c r="T769" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="770">
@@ -61955,29 +61955,29 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N770" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="O770" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="P770" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61986,10 +61986,10 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="T770" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="771">
@@ -62035,29 +62035,29 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N771" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O771" t="n">
         <v>15000</v>
       </c>
       <c r="P771" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
@@ -62066,10 +62066,10 @@
         </is>
       </c>
       <c r="S771" t="n">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772">
@@ -62115,25 +62115,25 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N772" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O772" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P772" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62146,7 +62146,7 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="T772" t="n">
         <v>10</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N773" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="O773" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="P773" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,7 +62284,7 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N774" t="n">
         <v>19500</v>
@@ -62355,29 +62355,29 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N775" t="n">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="O775" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P775" t="n">
-        <v>6750</v>
+        <v>15000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="T775" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776">
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,29 +62435,29 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N776" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="O776" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P776" t="n">
-        <v>11250</v>
+        <v>4500</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
@@ -62466,10 +62466,10 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="T776" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,7 +62515,7 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
@@ -62524,7 +62524,7 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N777" t="n">
         <v>7500</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,25 +62595,25 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="N778" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O778" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="P778" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44209</v>
+        <v>44162</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,20 +62684,20 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N779" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="O779" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P779" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>1050</v>
+        <v>1350</v>
       </c>
       <c r="T779" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,29 +62755,29 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N780" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P780" t="n">
-        <v>8000</v>
+        <v>11250</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T780" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,25 +62835,25 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N781" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O781" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P781" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62866,7 +62866,7 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="T781" t="n">
         <v>15</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N782" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="O782" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="P782" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62946,7 +62946,7 @@
         </is>
       </c>
       <c r="S782" t="n">
-        <v>467</v>
+        <v>700</v>
       </c>
       <c r="T782" t="n">
         <v>15</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>1120</v>
+        <v>350</v>
       </c>
       <c r="N783" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O783" t="n">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="P783" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63022,11 +63022,11 @@
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="T783" t="n">
         <v>10</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,25 +63075,25 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N784" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O784" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P784" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T784" t="n">
         <v>10</v>
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63155,41 +63155,41 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="N785" t="n">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="O785" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="P785" t="n">
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>200</v>
+        <v>633</v>
       </c>
       <c r="T785" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,41 +63235,41 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N786" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O786" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P786" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>375</v>
+        <v>467</v>
       </c>
       <c r="T786" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,7 +63324,7 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>800</v>
+        <v>1120</v>
       </c>
       <c r="N787" t="n">
         <v>3000</v>
@@ -63342,7 +63342,7 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
@@ -63404,7 +63404,7 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="N788" t="n">
         <v>3000</v>
@@ -63475,41 +63475,41 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N789" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="O789" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P789" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T789" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N790" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="O790" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="P790" t="n">
-        <v>2000</v>
+        <v>3750</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63582,11 +63582,11 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="T790" t="n">
         <v>10</v>
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N791" t="n">
         <v>3000</v>
       </c>
       <c r="O791" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P791" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T791" t="n">
         <v>10</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63724,20 +63724,20 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N792" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="O792" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="P792" t="n">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63749,6 +63749,326 @@
         <v>300</v>
       </c>
       <c r="T792" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>6</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D793" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E793" t="n">
+        <v>13</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H793" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I793" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>250</v>
+      </c>
+      <c r="N793" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O793" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P793" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>300</v>
+      </c>
+      <c r="T793" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>6</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E794" t="n">
+        <v>13</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M794" t="n">
+        <v>600</v>
+      </c>
+      <c r="N794" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O794" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P794" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S794" t="n">
+        <v>200</v>
+      </c>
+      <c r="T794" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>6</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E795" t="n">
+        <v>13</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M795" t="n">
+        <v>900</v>
+      </c>
+      <c r="N795" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O795" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P795" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S795" t="n">
+        <v>325</v>
+      </c>
+      <c r="T795" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>6</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E796" t="n">
+        <v>13</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M796" t="n">
+        <v>300</v>
+      </c>
+      <c r="N796" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O796" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P796" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q796" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R796" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S796" t="n">
+        <v>300</v>
+      </c>
+      <c r="T796" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T806"/>
+  <dimension ref="A1:T809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53207,7 +53207,7 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E661" t="n">
         <v>13</v>
@@ -53235,25 +53235,25 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M661" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N661" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O661" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P661" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q661" t="inlineStr">
         <is>
@@ -53262,11 +53262,11 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S661" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T661" t="n">
         <v>10</v>
@@ -53287,7 +53287,7 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E662" t="n">
         <v>13</v>
@@ -53315,7 +53315,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Summit</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -53324,16 +53324,16 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>250</v>
+        <v>720</v>
       </c>
       <c r="N662" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O662" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P662" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q662" t="inlineStr">
         <is>
@@ -53342,11 +53342,11 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S662" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T662" t="n">
         <v>10</v>
@@ -53367,7 +53367,7 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44536</v>
+        <v>44588</v>
       </c>
       <c r="E663" t="n">
         <v>13</v>
@@ -53395,41 +53395,41 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M663" t="n">
-        <v>175</v>
+        <v>1200</v>
       </c>
       <c r="N663" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="O663" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P663" t="n">
-        <v>14000</v>
+        <v>3750</v>
       </c>
       <c r="Q663" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S663" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="T663" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="664">
@@ -53475,25 +53475,25 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="N664" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O664" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P664" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T664" t="n">
         <v>10</v>
@@ -53555,7 +53555,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -53564,16 +53564,16 @@
         </is>
       </c>
       <c r="M665" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N665" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O665" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P665" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
@@ -53586,7 +53586,7 @@
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="T665" t="n">
         <v>10</v>
@@ -53640,20 +53640,20 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M666" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N666" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O666" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P666" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
@@ -53666,7 +53666,7 @@
         </is>
       </c>
       <c r="S666" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T666" t="n">
         <v>10</v>
@@ -53715,7 +53715,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -53724,16 +53724,16 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="N667" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O667" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P667" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
@@ -53742,11 +53742,11 @@
       </c>
       <c r="R667" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S667" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="T667" t="n">
         <v>10</v>
@@ -53795,25 +53795,25 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M668" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N668" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O668" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P668" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
@@ -53826,7 +53826,7 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T668" t="n">
         <v>10</v>
@@ -53875,25 +53875,25 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M669" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N669" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="O669" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="P669" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
@@ -53906,7 +53906,7 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="T669" t="n">
         <v>10</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,7 +53964,7 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N670" t="n">
         <v>8000</v>
@@ -53982,7 +53982,7 @@
       </c>
       <c r="R670" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S670" t="n">
@@ -54035,29 +54035,29 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M671" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N671" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O671" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P671" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
@@ -54066,10 +54066,10 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T671" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54115,25 +54115,25 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M672" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N672" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O672" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P672" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54142,11 +54142,11 @@
       </c>
       <c r="R672" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S672" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T672" t="n">
         <v>10</v>
@@ -54200,36 +54200,36 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M673" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N673" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O673" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P673" t="n">
-        <v>8143</v>
+        <v>8000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S673" t="n">
-        <v>543</v>
+        <v>800</v>
       </c>
       <c r="T673" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674">
@@ -54247,7 +54247,7 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E674" t="n">
         <v>13</v>
@@ -54275,41 +54275,41 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M674" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N674" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O674" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P674" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R674" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S674" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T674" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="675">
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,25 +54355,25 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M675" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N675" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O675" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P675" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
@@ -54386,7 +54386,7 @@
         </is>
       </c>
       <c r="S675" t="n">
-        <v>775</v>
+        <v>600</v>
       </c>
       <c r="T675" t="n">
         <v>10</v>
@@ -54407,7 +54407,7 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44187</v>
+        <v>44536</v>
       </c>
       <c r="E676" t="n">
         <v>13</v>
@@ -54435,25 +54435,25 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M676" t="n">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="N676" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O676" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P676" t="n">
-        <v>12000</v>
+        <v>8143</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>800</v>
+        <v>543</v>
       </c>
       <c r="T676" t="n">
         <v>15</v>
@@ -54520,20 +54520,20 @@
       </c>
       <c r="L677" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M677" t="n">
         <v>240</v>
       </c>
       <c r="N677" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O677" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P677" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>550</v>
+        <v>900</v>
       </c>
       <c r="T677" t="n">
         <v>10</v>
@@ -54600,24 +54600,24 @@
       </c>
       <c r="L678" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M678" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N678" t="n">
         <v>7500</v>
       </c>
       <c r="O678" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P678" t="n">
-        <v>7500</v>
+        <v>7750</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
@@ -54626,10 +54626,10 @@
         </is>
       </c>
       <c r="S678" t="n">
-        <v>500</v>
+        <v>775</v>
       </c>
       <c r="T678" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679">
@@ -54680,24 +54680,24 @@
       </c>
       <c r="L679" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M679" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="N679" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O679" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P679" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
@@ -54706,10 +54706,10 @@
         </is>
       </c>
       <c r="S679" t="n">
-        <v>375</v>
+        <v>800</v>
       </c>
       <c r="T679" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="680">
@@ -54755,25 +54755,25 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M680" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N680" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O680" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P680" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="Q680" t="inlineStr">
         <is>
@@ -54786,7 +54786,7 @@
         </is>
       </c>
       <c r="S680" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="T680" t="n">
         <v>10</v>
@@ -54835,7 +54835,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -54844,16 +54844,16 @@
         </is>
       </c>
       <c r="M681" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N681" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O681" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="P681" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54866,7 +54866,7 @@
         </is>
       </c>
       <c r="S681" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T681" t="n">
         <v>15</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N682" t="n">
-        <v>8000</v>
+        <v>3500</v>
       </c>
       <c r="O682" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P682" t="n">
-        <v>8000</v>
+        <v>3750</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54946,7 +54946,7 @@
         </is>
       </c>
       <c r="S682" t="n">
-        <v>800</v>
+        <v>375</v>
       </c>
       <c r="T682" t="n">
         <v>10</v>
@@ -54967,7 +54967,7 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E683" t="n">
         <v>13</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N683" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O683" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T683" t="n">
         <v>10</v>
@@ -55047,7 +55047,7 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44202</v>
+        <v>44187</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N684" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O684" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P684" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T684" t="n">
         <v>15</v>
@@ -55155,29 +55155,29 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N685" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O685" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="P685" t="n">
-        <v>9750</v>
+        <v>8000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R685" t="inlineStr">
@@ -55186,10 +55186,10 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="T685" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="686">
@@ -55235,7 +55235,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -55244,32 +55244,32 @@
         </is>
       </c>
       <c r="M686" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O686" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P686" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R686" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S686" t="n">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="T686" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="687">
@@ -55320,20 +55320,20 @@
       </c>
       <c r="L687" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M687" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N687" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O687" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P687" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q687" t="inlineStr">
         <is>
@@ -55342,11 +55342,11 @@
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="T687" t="n">
         <v>15</v>
@@ -55395,7 +55395,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -55404,16 +55404,16 @@
         </is>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N688" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O688" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P688" t="n">
-        <v>8250</v>
+        <v>9750</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
@@ -55426,7 +55426,7 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="T688" t="n">
         <v>15</v>
@@ -55475,7 +55475,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -55484,16 +55484,16 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N689" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O689" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P689" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q689" t="inlineStr">
         <is>
@@ -55506,7 +55506,7 @@
         </is>
       </c>
       <c r="S689" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T689" t="n">
         <v>15</v>
@@ -55555,7 +55555,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -55564,16 +55564,16 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P690" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q690" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         </is>
       </c>
       <c r="S690" t="n">
-        <v>467</v>
+        <v>533</v>
       </c>
       <c r="T690" t="n">
         <v>15</v>
@@ -55607,7 +55607,7 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44561</v>
+        <v>44202</v>
       </c>
       <c r="E691" t="n">
         <v>13</v>
@@ -55635,29 +55635,29 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N691" t="n">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="O691" t="n">
-        <v>3500</v>
+        <v>9000</v>
       </c>
       <c r="P691" t="n">
-        <v>3500</v>
+        <v>8250</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R691" t="inlineStr">
@@ -55666,10 +55666,10 @@
         </is>
       </c>
       <c r="S691" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="T691" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="692">
@@ -55687,7 +55687,7 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44561</v>
+        <v>44202</v>
       </c>
       <c r="E692" t="n">
         <v>13</v>
@@ -55715,7 +55715,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -55724,32 +55724,32 @@
         </is>
       </c>
       <c r="M692" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N692" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O692" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="P692" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R692" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S692" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T692" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="693">
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44561</v>
+        <v>44202</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,7 +55795,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -55804,32 +55804,32 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N693" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="O693" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="P693" t="n">
-        <v>2500</v>
+        <v>7000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>250</v>
+        <v>467</v>
       </c>
       <c r="T693" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="694">
@@ -55875,7 +55875,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -55887,13 +55887,13 @@
         <v>200</v>
       </c>
       <c r="N694" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="O694" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="P694" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="Q694" t="inlineStr">
         <is>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="S694" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="T694" t="n">
         <v>10</v>
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -56035,7 +56035,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -56087,7 +56087,7 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E697" t="n">
         <v>13</v>
@@ -56115,41 +56115,41 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N697" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="O697" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="P697" t="n">
-        <v>7000</v>
+        <v>3600</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="T697" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698">
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,7 +56195,7 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
@@ -56204,16 +56204,16 @@
         </is>
       </c>
       <c r="M698" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N698" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="O698" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="P698" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="T698" t="n">
         <v>10</v>
@@ -56247,7 +56247,7 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44526</v>
+        <v>44561</v>
       </c>
       <c r="E699" t="n">
         <v>13</v>
@@ -56275,7 +56275,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
@@ -56284,16 +56284,16 @@
         </is>
       </c>
       <c r="M699" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N699" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="O699" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="P699" t="n">
-        <v>16000</v>
+        <v>2500</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56302,11 +56302,11 @@
       </c>
       <c r="R699" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S699" t="n">
-        <v>1600</v>
+        <v>250</v>
       </c>
       <c r="T699" t="n">
         <v>10</v>
@@ -56355,7 +56355,7 @@
       </c>
       <c r="K700" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L700" t="inlineStr">
@@ -56364,20 +56364,20 @@
         </is>
       </c>
       <c r="M700" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N700" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O700" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P700" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R700" t="inlineStr">
@@ -56386,10 +56386,10 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T700" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="701">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="K701" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L701" t="inlineStr">
@@ -56444,20 +56444,20 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N701" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O701" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P701" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R701" t="inlineStr">
@@ -56466,10 +56466,10 @@
         </is>
       </c>
       <c r="S701" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="T701" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702">
@@ -56515,16 +56515,16 @@
       </c>
       <c r="K702" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M702" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N702" t="n">
         <v>16000</v>
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56604,32 +56604,32 @@
         </is>
       </c>
       <c r="M703" t="n">
-        <v>630</v>
+        <v>360</v>
       </c>
       <c r="N703" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="O703" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P703" t="n">
-        <v>6750</v>
+        <v>13000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R703" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S703" t="n">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="T703" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704">
@@ -56675,41 +56675,41 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N704" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O704" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P704" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T704" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="705">
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N705" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O705" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P705" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56786,7 +56786,7 @@
         </is>
       </c>
       <c r="S705" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="T705" t="n">
         <v>10</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,7 +56835,7 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
@@ -56844,20 +56844,20 @@
         </is>
       </c>
       <c r="M706" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="N706" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="O706" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P706" t="n">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R706" t="inlineStr">
@@ -56866,10 +56866,10 @@
         </is>
       </c>
       <c r="S706" t="n">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="T706" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="707">
@@ -56887,7 +56887,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E707" t="n">
         <v>13</v>
@@ -56915,29 +56915,29 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N707" t="n">
-        <v>10500</v>
+        <v>5000</v>
       </c>
       <c r="O707" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="P707" t="n">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R707" t="inlineStr">
@@ -56946,10 +56946,10 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T707" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708">
@@ -56967,7 +56967,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44533</v>
+        <v>44526</v>
       </c>
       <c r="E708" t="n">
         <v>13</v>
@@ -56995,29 +56995,29 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N708" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="O708" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="P708" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
@@ -57026,10 +57026,10 @@
         </is>
       </c>
       <c r="S708" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="T708" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709">
@@ -57075,7 +57075,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -57084,16 +57084,16 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="N709" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O709" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P709" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
@@ -57106,7 +57106,7 @@
         </is>
       </c>
       <c r="S709" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T709" t="n">
         <v>15</v>
@@ -57155,25 +57155,25 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M710" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N710" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O710" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P710" t="n">
-        <v>14250</v>
+        <v>10500</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57182,11 +57182,11 @@
       </c>
       <c r="R710" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S710" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="T710" t="n">
         <v>15</v>
@@ -57235,7 +57235,7 @@
       </c>
       <c r="K711" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L711" t="inlineStr">
@@ -57247,29 +57247,29 @@
         <v>150</v>
       </c>
       <c r="N711" t="n">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="O711" t="n">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="P711" t="n">
-        <v>2000</v>
+        <v>16500</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="T711" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="712">
@@ -57315,7 +57315,7 @@
       </c>
       <c r="K712" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L712" t="inlineStr">
@@ -57324,20 +57324,20 @@
         </is>
       </c>
       <c r="M712" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="N712" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="O712" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P712" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R712" t="inlineStr">
@@ -57346,10 +57346,10 @@
         </is>
       </c>
       <c r="S712" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T712" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="713">
@@ -57395,7 +57395,7 @@
       </c>
       <c r="K713" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L713" t="inlineStr">
@@ -57404,7 +57404,7 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N713" t="n">
         <v>13500</v>
@@ -57422,7 +57422,7 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S713" t="n">
@@ -57475,7 +57475,7 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
@@ -57484,29 +57484,29 @@
         </is>
       </c>
       <c r="M714" t="n">
+        <v>150</v>
+      </c>
+      <c r="N714" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O714" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P714" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q714" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R714" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S714" t="n">
         <v>200</v>
-      </c>
-      <c r="N714" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O714" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P714" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Q714" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R714" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S714" t="n">
-        <v>1200</v>
       </c>
       <c r="T714" t="n">
         <v>10</v>
@@ -57555,29 +57555,29 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M715" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N715" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="O715" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="P715" t="n">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R715" t="inlineStr">
@@ -57586,10 +57586,10 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="T715" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="716">
@@ -57635,25 +57635,25 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M716" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N716" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O716" t="n">
         <v>15000</v>
       </c>
       <c r="P716" t="n">
-        <v>15000</v>
+        <v>14250</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
@@ -57662,11 +57662,11 @@
       </c>
       <c r="R716" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S716" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="T716" t="n">
         <v>15</v>
@@ -57720,20 +57720,20 @@
       </c>
       <c r="L717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M717" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N717" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O717" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P717" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
@@ -57746,7 +57746,7 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="T717" t="n">
         <v>10</v>
@@ -57800,20 +57800,20 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="N718" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="O718" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="P718" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
@@ -57826,7 +57826,7 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="T718" t="n">
         <v>15</v>
@@ -57880,20 +57880,20 @@
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N719" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O719" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="P719" t="n">
-        <v>12750</v>
+        <v>15000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
@@ -57906,7 +57906,7 @@
         </is>
       </c>
       <c r="S719" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T719" t="n">
         <v>15</v>
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N720" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O720" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P720" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T720" t="n">
         <v>10</v>
@@ -58007,7 +58007,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E721" t="n">
         <v>13</v>
@@ -58035,41 +58035,41 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="N721" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O721" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P721" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R721" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S721" t="n">
-        <v>1833</v>
+        <v>1000</v>
       </c>
       <c r="T721" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="722">
@@ -58087,7 +58087,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E722" t="n">
         <v>13</v>
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,20 +58124,20 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="N722" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O722" t="n">
-        <v>30000</v>
+        <v>13500</v>
       </c>
       <c r="P722" t="n">
-        <v>30000</v>
+        <v>12750</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R722" t="inlineStr">
@@ -58146,10 +58146,10 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>3000</v>
+        <v>850</v>
       </c>
       <c r="T722" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="723">
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44523</v>
+        <v>44533</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,7 +58195,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -58204,16 +58204,16 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="N723" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="O723" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P723" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
@@ -58222,11 +58222,11 @@
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>2500</v>
+        <v>700</v>
       </c>
       <c r="T723" t="n">
         <v>10</v>
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,20 +58284,20 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="N724" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O724" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P724" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q724" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R724" t="inlineStr">
@@ -58306,10 +58306,10 @@
         </is>
       </c>
       <c r="S724" t="n">
-        <v>1700</v>
+        <v>1833</v>
       </c>
       <c r="T724" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="725">
@@ -58355,7 +58355,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -58364,16 +58364,16 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N725" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="O725" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="P725" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="T725" t="n">
         <v>10</v>
@@ -58435,7 +58435,7 @@
       </c>
       <c r="K726" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L726" t="inlineStr">
@@ -58444,16 +58444,16 @@
         </is>
       </c>
       <c r="M726" t="n">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="N726" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O726" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P726" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="T726" t="n">
         <v>10</v>
@@ -58515,7 +58515,7 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -58524,16 +58524,16 @@
         </is>
       </c>
       <c r="M727" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N727" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O727" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P727" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="T727" t="n">
         <v>10</v>
@@ -58595,25 +58595,25 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N728" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O728" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P728" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="T728" t="n">
         <v>10</v>
@@ -58675,25 +58675,25 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N729" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O729" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P729" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
@@ -58702,11 +58702,11 @@
       </c>
       <c r="R729" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S729" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="T729" t="n">
         <v>10</v>
@@ -58760,36 +58760,36 @@
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N730" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="O730" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="P730" t="n">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="T730" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="731">
@@ -58807,7 +58807,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,20 +58844,20 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="N731" t="n">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="O731" t="n">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="P731" t="n">
-        <v>1500</v>
+        <v>18000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R731" t="inlineStr">
@@ -58866,10 +58866,10 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="T731" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="732">
@@ -58887,7 +58887,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58924,32 +58924,32 @@
         </is>
       </c>
       <c r="M732" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N732" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="O732" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="P732" t="n">
-        <v>1300</v>
+        <v>16000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="T732" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="733">
@@ -58967,7 +58967,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44167</v>
+        <v>44523</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -58995,29 +58995,29 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="N733" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="O733" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="P733" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R733" t="inlineStr">
@@ -59026,10 +59026,10 @@
         </is>
       </c>
       <c r="S733" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T733" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="734">
@@ -59075,7 +59075,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -59087,13 +59087,13 @@
         <v>350</v>
       </c>
       <c r="N734" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="O734" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="P734" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59106,7 +59106,7 @@
         </is>
       </c>
       <c r="S734" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T734" t="n">
         <v>1</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,20 +59164,20 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N735" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="O735" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="P735" t="n">
-        <v>15000</v>
+        <v>1300</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R735" t="inlineStr">
@@ -59186,10 +59186,10 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T735" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -59235,41 +59235,41 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N736" t="n">
-        <v>7500</v>
+        <v>900</v>
       </c>
       <c r="O736" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="P736" t="n">
-        <v>7667</v>
+        <v>900</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>1533</v>
+        <v>900</v>
       </c>
       <c r="T736" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737">
@@ -59320,20 +59320,20 @@
       </c>
       <c r="L737" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M737" t="n">
         <v>350</v>
       </c>
       <c r="N737" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="O737" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="P737" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         </is>
       </c>
       <c r="S737" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="T737" t="n">
         <v>1</v>
@@ -59400,24 +59400,24 @@
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N738" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="O738" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="P738" t="n">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R738" t="inlineStr">
@@ -59426,10 +59426,10 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T738" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739">
@@ -59480,36 +59480,36 @@
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>80</v>
+        <v>750</v>
       </c>
       <c r="N739" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O739" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P739" t="n">
-        <v>12000</v>
+        <v>7667</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>800</v>
+        <v>1533</v>
       </c>
       <c r="T739" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="740">
@@ -59555,41 +59555,41 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N740" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="O740" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="P740" t="n">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="T740" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -59635,41 +59635,41 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N741" t="n">
-        <v>22500</v>
+        <v>1000</v>
       </c>
       <c r="O741" t="n">
-        <v>22500</v>
+        <v>1000</v>
       </c>
       <c r="P741" t="n">
-        <v>22500</v>
+        <v>1000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T741" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -59715,25 +59715,25 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M742" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="N742" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="O742" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="P742" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T742" t="n">
         <v>15</v>
@@ -59800,36 +59800,36 @@
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N743" t="n">
-        <v>19500</v>
+        <v>7500</v>
       </c>
       <c r="O743" t="n">
-        <v>19500</v>
+        <v>7500</v>
       </c>
       <c r="P743" t="n">
-        <v>19500</v>
+        <v>7500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T743" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744">
@@ -59880,20 +59880,20 @@
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N744" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="O744" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="P744" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T744" t="n">
         <v>15</v>
@@ -59927,7 +59927,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59967,13 +59967,13 @@
         <v>100</v>
       </c>
       <c r="N745" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="O745" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="P745" t="n">
-        <v>18000</v>
+        <v>22500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="T745" t="n">
         <v>15</v>
@@ -60007,7 +60007,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E746" t="n">
         <v>13</v>
@@ -60035,7 +60035,7 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
@@ -60044,16 +60044,16 @@
         </is>
       </c>
       <c r="M746" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N746" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O746" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P746" t="n">
-        <v>14250</v>
+        <v>19500</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T746" t="n">
         <v>15</v>
@@ -60087,7 +60087,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44186</v>
+        <v>44167</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -60115,25 +60115,25 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N747" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O747" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P747" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
@@ -60142,11 +60142,11 @@
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T747" t="n">
         <v>15</v>
@@ -60200,20 +60200,20 @@
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N748" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O748" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P748" t="n">
-        <v>9750</v>
+        <v>18000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="T748" t="n">
         <v>15</v>
@@ -60280,20 +60280,20 @@
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M749" t="n">
         <v>200</v>
       </c>
       <c r="N749" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O749" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P749" t="n">
-        <v>10500</v>
+        <v>14250</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="T749" t="n">
         <v>15</v>
@@ -60355,41 +60355,41 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N750" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O750" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P750" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T750" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="751">
@@ -60435,25 +60435,25 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M751" t="n">
         <v>120</v>
       </c>
       <c r="N751" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O751" t="n">
-        <v>18000</v>
+        <v>10500</v>
       </c>
       <c r="P751" t="n">
-        <v>18000</v>
+        <v>9750</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60462,11 +60462,11 @@
       </c>
       <c r="R751" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S751" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="T751" t="n">
         <v>15</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,16 +60524,16 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N752" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="O752" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="P752" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60542,11 +60542,11 @@
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T752" t="n">
         <v>15</v>
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N753" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O753" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="T753" t="n">
         <v>10</v>
@@ -60675,25 +60675,25 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M754" t="n">
         <v>120</v>
       </c>
       <c r="N754" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O754" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P754" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60702,11 +60702,11 @@
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T754" t="n">
         <v>15</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,29 +60755,29 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N755" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O755" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P755" t="n">
-        <v>9200</v>
+        <v>15000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
@@ -60786,10 +60786,10 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="T755" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="756">
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,29 +60835,29 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M756" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N756" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O756" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P756" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>767</v>
+        <v>700</v>
       </c>
       <c r="T756" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44176</v>
+        <v>44186</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,41 +60915,41 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N757" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O757" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P757" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T757" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -61000,24 +61000,24 @@
       </c>
       <c r="L758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M758" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N758" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O758" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P758" t="n">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,10 +61026,10 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>600</v>
+        <v>920</v>
       </c>
       <c r="T758" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759">
@@ -61075,7 +61075,7 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -61084,16 +61084,16 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N759" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O759" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P759" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>867</v>
+        <v>767</v>
       </c>
       <c r="T759" t="n">
         <v>15</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61164,20 +61164,20 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N760" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O760" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P760" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
@@ -61186,10 +61186,10 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1083</v>
+        <v>700</v>
       </c>
       <c r="T760" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T761" t="n">
         <v>15</v>
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N762" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="O762" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P762" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>1100</v>
+        <v>867</v>
       </c>
       <c r="T762" t="n">
         <v>15</v>
@@ -61395,29 +61395,29 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N763" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O763" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P763" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
@@ -61426,10 +61426,10 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1200</v>
+        <v>1083</v>
       </c>
       <c r="T763" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="764">
@@ -61475,41 +61475,41 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N764" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O764" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P764" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T764" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="765">
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="N765" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="O765" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="P765" t="n">
-        <v>13286</v>
+        <v>16500</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>886</v>
+        <v>1100</v>
       </c>
       <c r="T765" t="n">
         <v>15</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N766" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O766" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P766" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T766" t="n">
         <v>15</v>
@@ -61724,32 +61724,32 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>530</v>
+        <v>150</v>
       </c>
       <c r="N767" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O767" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P767" t="n">
-        <v>13019</v>
+        <v>9000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>868</v>
+        <v>900</v>
       </c>
       <c r="T767" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768">
@@ -61800,36 +61800,36 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="N768" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O768" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P768" t="n">
-        <v>7000</v>
+        <v>13286</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>700</v>
+        <v>886</v>
       </c>
       <c r="T768" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="769">
@@ -61880,20 +61880,20 @@
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N769" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O769" t="n">
-        <v>11250</v>
+        <v>12000</v>
       </c>
       <c r="P769" t="n">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61902,11 +61902,11 @@
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="T769" t="n">
         <v>15</v>
@@ -61960,20 +61960,20 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="N770" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O770" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P770" t="n">
-        <v>10500</v>
+        <v>13019</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>700</v>
+        <v>868</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62044,32 +62044,32 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="N771" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O771" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P771" t="n">
-        <v>9021</v>
+        <v>7000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44585</v>
+        <v>44176</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,41 +62115,41 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M772" t="n">
+        <v>250</v>
+      </c>
+      <c r="N772" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O772" t="n">
+        <v>11250</v>
+      </c>
+      <c r="P772" t="n">
+        <v>10800</v>
+      </c>
+      <c r="Q772" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R772" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S772" t="n">
         <v>720</v>
       </c>
-      <c r="N772" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O772" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P772" t="n">
-        <v>6500</v>
-      </c>
-      <c r="Q772" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R772" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S772" t="n">
-        <v>650</v>
-      </c>
       <c r="T772" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44585</v>
+        <v>44176</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N773" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O773" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="P773" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44585</v>
+        <v>44176</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,32 +62284,32 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="N774" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O774" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P774" t="n">
-        <v>5000</v>
+        <v>9021</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="T774" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="775">
@@ -62355,25 +62355,25 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="N775" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O775" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P775" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="T775" t="n">
         <v>10</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,41 +62435,41 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N776" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O776" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="P776" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T776" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="777">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>245</v>
+        <v>480</v>
       </c>
       <c r="N777" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="O777" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="P777" t="n">
-        <v>2800</v>
+        <v>5000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="T777" t="n">
         <v>10</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="N778" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O778" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="P778" t="n">
-        <v>3100</v>
+        <v>10000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="T778" t="n">
         <v>10</v>
@@ -62675,25 +62675,25 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="N779" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O779" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="P779" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="T779" t="n">
         <v>10</v>
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N780" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="O780" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="P780" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>1700</v>
+        <v>280</v>
       </c>
       <c r="T780" t="n">
         <v>10</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,16 +62844,16 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>700</v>
+        <v>310</v>
       </c>
       <c r="N781" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O781" t="n">
-        <v>15000</v>
+        <v>3200</v>
       </c>
       <c r="P781" t="n">
-        <v>14500</v>
+        <v>3100</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62866,7 +62866,7 @@
         </is>
       </c>
       <c r="S781" t="n">
-        <v>1450</v>
+        <v>310</v>
       </c>
       <c r="T781" t="n">
         <v>10</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44162</v>
+        <v>44560</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,7 +62915,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -62924,29 +62924,29 @@
         </is>
       </c>
       <c r="M782" t="n">
+        <v>320</v>
+      </c>
+      <c r="N782" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O782" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P782" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q782" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R782" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S782" t="n">
         <v>250</v>
-      </c>
-      <c r="N782" t="n">
-        <v>10000</v>
-      </c>
-      <c r="O782" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P782" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q782" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R782" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S782" t="n">
-        <v>1000</v>
       </c>
       <c r="T782" t="n">
         <v>10</v>
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63007,17 +63007,17 @@
         <v>250</v>
       </c>
       <c r="N783" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="O783" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="P783" t="n">
-        <v>22500</v>
+        <v>17000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="784">
@@ -63075,7 +63075,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -63084,20 +63084,20 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N784" t="n">
-        <v>19500</v>
+        <v>14000</v>
       </c>
       <c r="O784" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="P784" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>1300</v>
+        <v>1450</v>
       </c>
       <c r="T784" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="785">
@@ -63155,7 +63155,7 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
@@ -63164,20 +63164,20 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N785" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O785" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P785" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63189,7 +63189,7 @@
         <v>1000</v>
       </c>
       <c r="T785" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="786">
@@ -63240,24 +63240,24 @@
       </c>
       <c r="L786" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M786" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N786" t="n">
-        <v>4000</v>
+        <v>22500</v>
       </c>
       <c r="O786" t="n">
-        <v>5000</v>
+        <v>22500</v>
       </c>
       <c r="P786" t="n">
-        <v>4500</v>
+        <v>22500</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="T786" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
@@ -63320,20 +63320,20 @@
       </c>
       <c r="L787" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M787" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N787" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="O787" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="P787" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63346,7 +63346,7 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T787" t="n">
         <v>15</v>
@@ -63395,25 +63395,25 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M788" t="n">
         <v>150</v>
       </c>
       <c r="N788" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O788" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="P788" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T788" t="n">
         <v>15</v>
@@ -63475,29 +63475,29 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M789" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="N789" t="n">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="O789" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P789" t="n">
-        <v>6750</v>
+        <v>4500</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
@@ -63506,10 +63506,10 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>1350</v>
+        <v>450</v>
       </c>
       <c r="T789" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790">
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63555,25 +63555,25 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N790" t="n">
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="O790" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P790" t="n">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63586,7 +63586,7 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T790" t="n">
         <v>15</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63635,25 +63635,25 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N791" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="O791" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="P791" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="T791" t="n">
         <v>15</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44189</v>
+        <v>44162</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,29 +63715,29 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M792" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N792" t="n">
-        <v>10500</v>
+        <v>6500</v>
       </c>
       <c r="O792" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="P792" t="n">
-        <v>10500</v>
+        <v>6750</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R792" t="inlineStr">
@@ -63746,10 +63746,10 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>700</v>
+        <v>1350</v>
       </c>
       <c r="T792" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="793">
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,7 +63795,7 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N793" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="O793" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P793" t="n">
-        <v>10500</v>
+        <v>11250</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>1050</v>
+        <v>750</v>
       </c>
       <c r="T793" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,29 +63875,29 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M794" t="n">
         <v>200</v>
       </c>
       <c r="N794" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O794" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P794" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R794" t="inlineStr">
@@ -63906,10 +63906,10 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T794" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="795">
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44209</v>
+        <v>44189</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63955,25 +63955,25 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M795" t="n">
         <v>140</v>
       </c>
       <c r="N795" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O795" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P795" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
@@ -63986,7 +63986,7 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="T795" t="n">
         <v>15</v>
@@ -64035,29 +64035,29 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N796" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O796" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P796" t="n">
-        <v>7000</v>
+        <v>10500</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,10 +64066,10 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>467</v>
+        <v>1050</v>
       </c>
       <c r="T796" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="797">
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64115,25 +64115,25 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M797" t="n">
-        <v>1120</v>
+        <v>200</v>
       </c>
       <c r="N797" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="O797" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="P797" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64142,11 +64142,11 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T797" t="n">
         <v>10</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64195,7 +64195,7 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
@@ -64204,32 +64204,32 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="N798" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="O798" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="P798" t="n">
-        <v>3000</v>
+        <v>9500</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>300</v>
+        <v>633</v>
       </c>
       <c r="T798" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="799">
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,32 +64284,32 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N799" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="O799" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="P799" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>200</v>
+        <v>467</v>
       </c>
       <c r="T799" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="800">
@@ -64355,25 +64355,25 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>480</v>
+        <v>1120</v>
       </c>
       <c r="N800" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="O800" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="P800" t="n">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64386,7 +64386,7 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T800" t="n">
         <v>10</v>
@@ -64435,7 +64435,7 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
@@ -64444,7 +64444,7 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N801" t="n">
         <v>3000</v>
@@ -64462,7 +64462,7 @@
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S801" t="n">
@@ -64515,25 +64515,25 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>1200</v>
+        <v>180</v>
       </c>
       <c r="N802" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="O802" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="P802" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T802" t="n">
         <v>10</v>
@@ -64600,36 +64600,36 @@
       </c>
       <c r="L803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M803" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="N803" t="n">
-        <v>4500</v>
+        <v>3500</v>
       </c>
       <c r="O803" t="n">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="P803" t="n">
-        <v>4500</v>
+        <v>3750</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="T803" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="804">
@@ -64680,20 +64680,20 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N804" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="O804" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="P804" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
@@ -64706,7 +64706,7 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T804" t="n">
         <v>10</v>
@@ -64755,7 +64755,7 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L805" t="inlineStr">
@@ -64764,16 +64764,16 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N805" t="n">
         <v>3000</v>
       </c>
       <c r="O805" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="P805" t="n">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
@@ -64786,7 +64786,7 @@
         </is>
       </c>
       <c r="S805" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="T805" t="n">
         <v>10</v>
@@ -64835,7 +64835,7 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
@@ -64844,7 +64844,7 @@
         </is>
       </c>
       <c r="M806" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N806" t="n">
         <v>4500</v>
@@ -64862,13 +64862,253 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S806" t="n">
         <v>300</v>
       </c>
       <c r="T806" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>6</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D807" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E807" t="n">
+        <v>13</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I807" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M807" t="n">
+        <v>600</v>
+      </c>
+      <c r="N807" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O807" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P807" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q807" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S807" t="n">
+        <v>200</v>
+      </c>
+      <c r="T807" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>6</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I808" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M808" t="n">
+        <v>900</v>
+      </c>
+      <c r="N808" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O808" t="n">
+        <v>3500</v>
+      </c>
+      <c r="P808" t="n">
+        <v>3250</v>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S808" t="n">
+        <v>325</v>
+      </c>
+      <c r="T808" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>6</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>44554</v>
+      </c>
+      <c r="E809" t="n">
+        <v>13</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I809" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M809" t="n">
+        <v>300</v>
+      </c>
+      <c r="N809" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O809" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P809" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q809" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S809" t="n">
+        <v>300</v>
+      </c>
+      <c r="T809" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T805"/>
+  <dimension ref="A1:T806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,7 +62195,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -62207,17 +62207,17 @@
         <v>250</v>
       </c>
       <c r="N773" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O773" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P773" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
@@ -62226,10 +62226,10 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T773" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="774">
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N774" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="O774" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="P774" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T774" t="n">
         <v>15</v>
@@ -62355,41 +62355,41 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>2400</v>
+        <v>180</v>
       </c>
       <c r="N775" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O775" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P775" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T775" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="776">
@@ -62444,7 +62444,7 @@
         </is>
       </c>
       <c r="M776" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="N776" t="n">
         <v>3500</v>
@@ -62462,7 +62462,7 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S776" t="n">
@@ -62524,32 +62524,32 @@
         </is>
       </c>
       <c r="M777" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="N777" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O777" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P777" t="n">
-        <v>6577</v>
+        <v>3750</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="T777" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="778">
@@ -62604,16 +62604,16 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="N778" t="n">
         <v>6000</v>
       </c>
       <c r="O778" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P778" t="n">
-        <v>6000</v>
+        <v>6577</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62622,11 +62622,11 @@
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="T778" t="n">
         <v>15</v>
@@ -62680,24 +62680,24 @@
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M779" t="n">
         <v>250</v>
       </c>
       <c r="N779" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O779" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="P779" t="n">
-        <v>2750</v>
+        <v>6000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
@@ -62706,10 +62706,10 @@
         </is>
       </c>
       <c r="S779" t="n">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="T779" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="780">
@@ -62755,25 +62755,25 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N780" t="n">
-        <v>7000</v>
+        <v>2500</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="P780" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>750</v>
+        <v>275</v>
       </c>
       <c r="T780" t="n">
         <v>10</v>
@@ -62844,32 +62844,32 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N781" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O781" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P781" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="T781" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="782">
@@ -62915,7 +62915,7 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
@@ -62924,32 +62924,32 @@
         </is>
       </c>
       <c r="M782" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N782" t="n">
-        <v>3500</v>
+        <v>12000</v>
       </c>
       <c r="O782" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P782" t="n">
-        <v>3750</v>
+        <v>12000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>375</v>
+        <v>800</v>
       </c>
       <c r="T782" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="783">
@@ -63004,32 +63004,32 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N783" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O783" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P783" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S783" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="784">
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,7 +63075,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -63084,16 +63084,16 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63102,11 +63102,11 @@
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T784" t="n">
         <v>15</v>
@@ -63164,7 +63164,7 @@
         </is>
       </c>
       <c r="M785" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N785" t="n">
         <v>9000</v>
@@ -63182,7 +63182,7 @@
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S785" t="n">
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,32 +63244,32 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N786" t="n">
         <v>9000</v>
       </c>
       <c r="O786" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P786" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="T786" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="787">
@@ -63324,16 +63324,16 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N787" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O787" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P787" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="T787" t="n">
         <v>10</v>
@@ -63404,32 +63404,32 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N788" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O788" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P788" t="n">
-        <v>14250</v>
+        <v>11500</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>950</v>
+        <v>1150</v>
       </c>
       <c r="T788" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="789">
@@ -63475,7 +63475,7 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N789" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="O789" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P789" t="n">
-        <v>9000</v>
+        <v>14250</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="T789" t="n">
         <v>15</v>
@@ -63555,41 +63555,41 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N790" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O790" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P790" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T790" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="791">
@@ -63640,20 +63640,20 @@
       </c>
       <c r="L791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M791" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N791" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O791" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P791" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="T791" t="n">
         <v>10</v>
@@ -63727,13 +63727,13 @@
         <v>480</v>
       </c>
       <c r="N792" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O792" t="n">
         <v>6000</v>
       </c>
       <c r="P792" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63742,11 +63742,11 @@
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T792" t="n">
         <v>10</v>
@@ -63804,32 +63804,32 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N793" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O793" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P793" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
         <v>600</v>
       </c>
       <c r="T793" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794">
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="M794" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N794" t="n">
         <v>9000</v>
@@ -63902,7 +63902,7 @@
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S794" t="n">
@@ -63960,24 +63960,24 @@
       </c>
       <c r="L795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M795" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="N795" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O795" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P795" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T795" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,25 +64035,25 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N796" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="O796" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="P796" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64062,11 +64062,11 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="T796" t="n">
         <v>10</v>
@@ -64115,7 +64115,7 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
@@ -64124,16 +64124,16 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N797" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="O797" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P797" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64146,7 +64146,7 @@
         </is>
       </c>
       <c r="S797" t="n">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="T797" t="n">
         <v>10</v>
@@ -64200,20 +64200,20 @@
       </c>
       <c r="L798" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M798" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N798" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O798" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P798" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64222,11 +64222,11 @@
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T798" t="n">
         <v>10</v>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,16 +64284,16 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N799" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O799" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P799" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64306,7 +64306,7 @@
         </is>
       </c>
       <c r="S799" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="T799" t="n">
         <v>10</v>
@@ -64364,20 +64364,20 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N800" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O800" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P800" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64389,7 +64389,7 @@
         <v>1200</v>
       </c>
       <c r="T800" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="801">
@@ -64440,24 +64440,24 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P801" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
@@ -64466,10 +64466,10 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T801" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="802">
@@ -64515,25 +64515,25 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M802" t="n">
-        <v>1380</v>
+        <v>240</v>
       </c>
       <c r="N802" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="O802" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P802" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64546,7 +64546,7 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T802" t="n">
         <v>10</v>
@@ -64604,20 +64604,20 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>150</v>
+        <v>1380</v>
       </c>
       <c r="N803" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="O803" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="P803" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64629,7 +64629,7 @@
         <v>1500</v>
       </c>
       <c r="T803" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="804">
@@ -64680,24 +64680,24 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>890</v>
+        <v>150</v>
       </c>
       <c r="N804" t="n">
-        <v>10000</v>
+        <v>22500</v>
       </c>
       <c r="O804" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="P804" t="n">
-        <v>11798</v>
+        <v>22500</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
@@ -64706,10 +64706,10 @@
         </is>
       </c>
       <c r="S804" t="n">
-        <v>1180</v>
+        <v>1500</v>
       </c>
       <c r="T804" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805">
@@ -64760,35 +64760,115 @@
       </c>
       <c r="L805" t="inlineStr">
         <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M805" t="n">
+        <v>890</v>
+      </c>
+      <c r="N805" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O805" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P805" t="n">
+        <v>11798</v>
+      </c>
+      <c r="Q805" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S805" t="n">
+        <v>1180</v>
+      </c>
+      <c r="T805" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>6</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E806" t="n">
+        <v>13</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I806" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M805" t="n">
+      <c r="M806" t="n">
         <v>195</v>
       </c>
-      <c r="N805" t="n">
+      <c r="N806" t="n">
         <v>5000</v>
       </c>
-      <c r="O805" t="n">
+      <c r="O806" t="n">
         <v>6000</v>
       </c>
-      <c r="P805" t="n">
+      <c r="P806" t="n">
         <v>5769</v>
       </c>
-      <c r="Q805" t="inlineStr">
+      <c r="Q806" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R805" t="inlineStr">
+      <c r="R806" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S805" t="n">
+      <c r="S806" t="n">
         <v>577</v>
       </c>
-      <c r="T805" t="n">
+      <c r="T806" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T814"/>
+  <dimension ref="A1:T816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59767,7 +59767,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -59795,29 +59795,29 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N743" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O743" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P743" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R743" t="inlineStr">
@@ -59826,10 +59826,10 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>2300</v>
+        <v>1400</v>
       </c>
       <c r="T743" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744">
@@ -59847,7 +59847,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44522</v>
+        <v>44610</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N744" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O744" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P744" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59906,7 +59906,7 @@
         </is>
       </c>
       <c r="S744" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="T744" t="n">
         <v>5</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59964,20 +59964,20 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N745" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="O745" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="P745" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R745" t="inlineStr">
@@ -59986,10 +59986,10 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="T745" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="746">
@@ -60035,29 +60035,29 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>120</v>
+        <v>1100</v>
       </c>
       <c r="N746" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="O746" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="P746" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
@@ -60066,10 +60066,10 @@
         </is>
       </c>
       <c r="S746" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="T746" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747">
@@ -60115,41 +60115,41 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M747" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N747" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="O747" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P747" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="T747" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="748">
@@ -60195,41 +60195,41 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M748" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N748" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O748" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="P748" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T748" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="749">
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N749" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O749" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P749" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60306,7 +60306,7 @@
         </is>
       </c>
       <c r="S749" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T749" t="n">
         <v>10</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N750" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O750" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P750" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60386,7 +60386,7 @@
         </is>
       </c>
       <c r="S750" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="T750" t="n">
         <v>10</v>
@@ -60407,7 +60407,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -60435,7 +60435,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="N751" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O751" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P751" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>650</v>
+        <v>2000</v>
       </c>
       <c r="T751" t="n">
         <v>10</v>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,29 +60515,29 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N752" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O752" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P752" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
@@ -60546,10 +60546,10 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="T752" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="753">
@@ -60600,20 +60600,20 @@
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="N753" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O753" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P753" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
@@ -60626,7 +60626,7 @@
         </is>
       </c>
       <c r="S753" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="T753" t="n">
         <v>10</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,32 +60684,32 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="N754" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O754" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P754" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="T754" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755">
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N755" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O755" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P755" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T755" t="n">
         <v>10</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,29 +60844,29 @@
         </is>
       </c>
       <c r="M756" t="n">
+        <v>430</v>
+      </c>
+      <c r="N756" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O756" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P756" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q756" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R756" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S756" t="n">
         <v>1200</v>
-      </c>
-      <c r="N756" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O756" t="n">
-        <v>6000</v>
-      </c>
-      <c r="P756" t="n">
-        <v>6000</v>
-      </c>
-      <c r="Q756" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R756" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S756" t="n">
-        <v>600</v>
       </c>
       <c r="T756" t="n">
         <v>10</v>
@@ -60915,29 +60915,29 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M757" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N757" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="O757" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="P757" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
@@ -60946,10 +60946,10 @@
         </is>
       </c>
       <c r="S757" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="T757" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758">
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,7 +61004,7 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N758" t="n">
         <v>6000</v>
@@ -61022,7 +61022,7 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
@@ -61080,24 +61080,24 @@
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N759" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O759" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P759" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T759" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="760">
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,41 +61155,41 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N760" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="O760" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="P760" t="n">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="T760" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,20 +61244,20 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="N761" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="O761" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="P761" t="n">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="T761" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762">
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M762" t="n">
         <v>350</v>
       </c>
       <c r="N762" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="O762" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="P762" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T762" t="n">
         <v>1</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M763" t="n">
         <v>350</v>
       </c>
       <c r="N763" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="O763" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="P763" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61426,7 +61426,7 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="T763" t="n">
         <v>1</v>
@@ -61475,29 +61475,29 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N764" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="O764" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="P764" t="n">
-        <v>15000</v>
+        <v>900</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
@@ -61506,10 +61506,10 @@
         </is>
       </c>
       <c r="S764" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="T764" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765">
@@ -61560,36 +61560,36 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N765" t="n">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="O765" t="n">
-        <v>8000</v>
+        <v>1600</v>
       </c>
       <c r="P765" t="n">
-        <v>7667</v>
+        <v>1600</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>1533</v>
+        <v>1600</v>
       </c>
       <c r="T765" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766">
@@ -61644,20 +61644,20 @@
         </is>
       </c>
       <c r="M766" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N766" t="n">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="O766" t="n">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="P766" t="n">
-        <v>1400</v>
+        <v>15000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
@@ -61666,10 +61666,10 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="T766" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="767">
@@ -61720,36 +61720,36 @@
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="N767" t="n">
-        <v>1000</v>
+        <v>7500</v>
       </c>
       <c r="O767" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="P767" t="n">
-        <v>1000</v>
+        <v>7667</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>1000</v>
+        <v>1533</v>
       </c>
       <c r="T767" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="768">
@@ -61800,24 +61800,24 @@
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N768" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="O768" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="P768" t="n">
-        <v>12000</v>
+        <v>1400</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
@@ -61826,10 +61826,10 @@
         </is>
       </c>
       <c r="S768" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="T768" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -61875,41 +61875,41 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N769" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="O769" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="P769" t="n">
-        <v>7500</v>
+        <v>1000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T769" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -61955,25 +61955,25 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N770" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="O770" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="P770" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61982,11 +61982,11 @@
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="T770" t="n">
         <v>15</v>
@@ -62044,32 +62044,32 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N771" t="n">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="O771" t="n">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="P771" t="n">
-        <v>22500</v>
+        <v>7500</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S771" t="n">
         <v>1500</v>
       </c>
       <c r="T771" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="772">
@@ -62120,20 +62120,20 @@
       </c>
       <c r="L772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M772" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N772" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="O772" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="P772" t="n">
-        <v>19500</v>
+        <v>22500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
@@ -62142,11 +62142,11 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T772" t="n">
         <v>15</v>
@@ -62200,20 +62200,20 @@
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N773" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="O773" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="P773" t="n">
-        <v>16500</v>
+        <v>22500</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="T773" t="n">
         <v>15</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44179</v>
+        <v>44167</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="N774" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="O774" t="n">
-        <v>13000</v>
+        <v>19500</v>
       </c>
       <c r="P774" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62306,7 +62306,7 @@
         </is>
       </c>
       <c r="S774" t="n">
-        <v>833</v>
+        <v>1300</v>
       </c>
       <c r="T774" t="n">
         <v>15</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44179</v>
+        <v>44167</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,7 +62355,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -62364,16 +62364,16 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N775" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="O775" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="P775" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62386,7 +62386,7 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>667</v>
+        <v>1100</v>
       </c>
       <c r="T775" t="n">
         <v>15</v>
@@ -62435,29 +62435,29 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="N776" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="O776" t="n">
-        <v>1500</v>
+        <v>13000</v>
       </c>
       <c r="P776" t="n">
-        <v>1500</v>
+        <v>12500</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R776" t="inlineStr">
@@ -62466,10 +62466,10 @@
         </is>
       </c>
       <c r="S776" t="n">
-        <v>1500</v>
+        <v>833</v>
       </c>
       <c r="T776" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="777">
@@ -62515,29 +62515,29 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="N777" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="O777" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="P777" t="n">
-        <v>1300</v>
+        <v>10000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
-          <t>$/kilo (en caja de 15 kilos)</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R777" t="inlineStr">
@@ -62546,10 +62546,10 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>1300</v>
+        <v>667</v>
       </c>
       <c r="T777" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="778">
@@ -62600,20 +62600,20 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N778" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="O778" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="P778" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
@@ -62626,7 +62626,7 @@
         </is>
       </c>
       <c r="S778" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T778" t="n">
         <v>1</v>
@@ -62675,7 +62675,7 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
@@ -62684,32 +62684,32 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="N779" t="n">
-        <v>11000</v>
+        <v>1300</v>
       </c>
       <c r="O779" t="n">
-        <v>12000</v>
+        <v>1300</v>
       </c>
       <c r="P779" t="n">
-        <v>11500</v>
+        <v>1300</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>767</v>
+        <v>1300</v>
       </c>
       <c r="T779" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -62755,7 +62755,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -62764,32 +62764,32 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N780" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="O780" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="P780" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo (en caja de 15 kilos)</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>533</v>
+        <v>900</v>
       </c>
       <c r="T780" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44595</v>
+        <v>44179</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,32 +62844,32 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N781" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O781" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P781" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="T781" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44552</v>
+        <v>44179</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="N782" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O782" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P782" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T782" t="n">
         <v>15</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,29 +62995,29 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M783" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N783" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="O783" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="P783" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R783" t="inlineStr">
@@ -63026,10 +63026,10 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="T783" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="784">
@@ -63075,7 +63075,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -63084,32 +63084,32 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>2400</v>
+        <v>250</v>
       </c>
       <c r="N784" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="O784" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P784" t="n">
-        <v>3750</v>
+        <v>6000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S784" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="T784" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="785">
@@ -63155,29 +63155,29 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="N785" t="n">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="O785" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="P785" t="n">
-        <v>3750</v>
+        <v>4500</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
@@ -63186,10 +63186,10 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="T785" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="786">
@@ -63244,20 +63244,20 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>650</v>
+        <v>2400</v>
       </c>
       <c r="N786" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O786" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="P786" t="n">
-        <v>6577</v>
+        <v>3750</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
@@ -63266,10 +63266,10 @@
         </is>
       </c>
       <c r="S786" t="n">
-        <v>438</v>
+        <v>375</v>
       </c>
       <c r="T786" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="787">
@@ -63324,20 +63324,20 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N787" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="O787" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P787" t="n">
-        <v>6000</v>
+        <v>3750</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
@@ -63346,10 +63346,10 @@
         </is>
       </c>
       <c r="S787" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="T787" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788">
@@ -63400,36 +63400,36 @@
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="N788" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="O788" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P788" t="n">
-        <v>2750</v>
+        <v>6577</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>275</v>
+        <v>438</v>
       </c>
       <c r="T788" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="789">
@@ -63475,7 +63475,7 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
@@ -63484,32 +63484,32 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N789" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O789" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P789" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R789" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S789" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="T789" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="790">
@@ -63555,29 +63555,29 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M790" t="n">
         <v>250</v>
       </c>
       <c r="N790" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="O790" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="P790" t="n">
-        <v>12000</v>
+        <v>2750</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
@@ -63586,10 +63586,10 @@
         </is>
       </c>
       <c r="S790" t="n">
-        <v>800</v>
+        <v>275</v>
       </c>
       <c r="T790" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791">
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N791" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O791" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P791" t="n">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="T791" t="n">
         <v>10</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N792" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O792" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P792" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T792" t="n">
         <v>15</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,7 +63795,7 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
@@ -63804,20 +63804,20 @@
         </is>
       </c>
       <c r="M793" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N793" t="n">
-        <v>9000</v>
+        <v>3500</v>
       </c>
       <c r="O793" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P793" t="n">
-        <v>9000</v>
+        <v>3750</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R793" t="inlineStr">
@@ -63826,10 +63826,10 @@
         </is>
       </c>
       <c r="S793" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="T793" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794">
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
@@ -63887,13 +63887,13 @@
         <v>300</v>
       </c>
       <c r="N794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P794" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63906,7 +63906,7 @@
         </is>
       </c>
       <c r="S794" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T794" t="n">
         <v>15</v>
@@ -63955,7 +63955,7 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
@@ -63964,20 +63964,20 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N795" t="n">
         <v>9000</v>
       </c>
       <c r="O795" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P795" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -63986,10 +63986,10 @@
         </is>
       </c>
       <c r="S795" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="T795" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="796">
@@ -64035,7 +64035,7 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
@@ -64047,17 +64047,17 @@
         <v>300</v>
       </c>
       <c r="N796" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O796" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P796" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R796" t="inlineStr">
@@ -64066,10 +64066,10 @@
         </is>
       </c>
       <c r="S796" t="n">
-        <v>1150</v>
+        <v>600</v>
       </c>
       <c r="T796" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="797">
@@ -64124,20 +64124,20 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N797" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O797" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P797" t="n">
-        <v>14250</v>
+        <v>9500</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R797" t="inlineStr">
@@ -64149,7 +64149,7 @@
         <v>950</v>
       </c>
       <c r="T797" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="798">
@@ -64195,7 +64195,7 @@
       </c>
       <c r="K798" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L798" t="inlineStr">
@@ -64207,29 +64207,29 @@
         <v>300</v>
       </c>
       <c r="N798" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O798" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P798" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R798" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S798" t="n">
-        <v>600</v>
+        <v>1150</v>
       </c>
       <c r="T798" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="799">
@@ -64275,41 +64275,41 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M799" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N799" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O799" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P799" t="n">
-        <v>8000</v>
+        <v>14250</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T799" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="800">
@@ -64355,7 +64355,7 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
@@ -64364,20 +64364,20 @@
         </is>
       </c>
       <c r="M800" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="N800" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O800" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P800" t="n">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R800" t="inlineStr">
@@ -64386,10 +64386,10 @@
         </is>
       </c>
       <c r="S800" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="T800" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="801">
@@ -64440,20 +64440,20 @@
       </c>
       <c r="L801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M801" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N801" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O801" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P801" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
@@ -64466,7 +64466,7 @@
         </is>
       </c>
       <c r="S801" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T801" t="n">
         <v>10</v>
@@ -64524,20 +64524,20 @@
         </is>
       </c>
       <c r="M802" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N802" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O802" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P802" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R802" t="inlineStr">
@@ -64546,10 +64546,10 @@
         </is>
       </c>
       <c r="S802" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T802" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -64604,20 +64604,20 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N803" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O803" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P803" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
@@ -64629,7 +64629,7 @@
         <v>600</v>
       </c>
       <c r="T803" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="804">
@@ -64680,36 +64680,36 @@
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N804" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="O804" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="P804" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="Q804" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S804" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T804" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="805">
@@ -64727,7 +64727,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -64755,7 +64755,7 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L805" t="inlineStr">
@@ -64764,32 +64764,32 @@
         </is>
       </c>
       <c r="M805" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N805" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O805" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P805" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q805" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R805" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S805" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T805" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="806">
@@ -64807,7 +64807,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -64835,25 +64835,25 @@
       </c>
       <c r="K806" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L806" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M806" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N806" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="O806" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="P806" t="n">
-        <v>19000</v>
+        <v>4000</v>
       </c>
       <c r="Q806" t="inlineStr">
         <is>
@@ -64862,11 +64862,11 @@
       </c>
       <c r="R806" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S806" t="n">
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="T806" t="n">
         <v>10</v>
@@ -64915,25 +64915,25 @@
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M807" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N807" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O807" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P807" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q807" t="inlineStr">
         <is>
@@ -64942,11 +64942,11 @@
       </c>
       <c r="R807" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S807" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="T807" t="n">
         <v>10</v>
@@ -64995,25 +64995,25 @@
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M808" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N808" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O808" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P808" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q808" t="inlineStr">
         <is>
@@ -65022,11 +65022,11 @@
       </c>
       <c r="R808" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S808" t="n">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="T808" t="n">
         <v>10</v>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="K809" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L809" t="inlineStr">
@@ -65087,17 +65087,17 @@
         <v>120</v>
       </c>
       <c r="N809" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O809" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P809" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q809" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R809" t="inlineStr">
@@ -65106,10 +65106,10 @@
         </is>
       </c>
       <c r="S809" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="T809" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="810">
@@ -65160,20 +65160,20 @@
       </c>
       <c r="L810" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M810" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N810" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="O810" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="P810" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="Q810" t="inlineStr">
         <is>
@@ -65186,7 +65186,7 @@
         </is>
       </c>
       <c r="S810" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="T810" t="n">
         <v>10</v>
@@ -65235,29 +65235,29 @@
       </c>
       <c r="K811" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M811" t="n">
-        <v>1380</v>
+        <v>120</v>
       </c>
       <c r="N811" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O811" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P811" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q811" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R811" t="inlineStr">
@@ -65266,10 +65266,10 @@
         </is>
       </c>
       <c r="S811" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="T811" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="812">
@@ -65315,29 +65315,29 @@
       </c>
       <c r="K812" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L812" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M812" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N812" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="O812" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="P812" t="n">
-        <v>22500</v>
+        <v>5000</v>
       </c>
       <c r="Q812" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R812" t="inlineStr">
@@ -65346,10 +65346,10 @@
         </is>
       </c>
       <c r="S812" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T812" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="813">
@@ -65400,20 +65400,20 @@
       </c>
       <c r="L813" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M813" t="n">
-        <v>890</v>
+        <v>1380</v>
       </c>
       <c r="N813" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O813" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P813" t="n">
-        <v>11798</v>
+        <v>15000</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>1180</v>
+        <v>1500</v>
       </c>
       <c r="T813" t="n">
         <v>10</v>
@@ -65480,35 +65480,195 @@
       </c>
       <c r="L814" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M814" t="n">
+        <v>150</v>
+      </c>
+      <c r="N814" t="n">
+        <v>22500</v>
+      </c>
+      <c r="O814" t="n">
+        <v>22500</v>
+      </c>
+      <c r="P814" t="n">
+        <v>22500</v>
+      </c>
+      <c r="Q814" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R814" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S814" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T814" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>6</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D815" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E815" t="n">
+        <v>13</v>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G815" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I815" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L815" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M815" t="n">
+        <v>890</v>
+      </c>
+      <c r="N815" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O815" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P815" t="n">
+        <v>11798</v>
+      </c>
+      <c r="Q815" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R815" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S815" t="n">
+        <v>1180</v>
+      </c>
+      <c r="T815" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>6</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D816" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E816" t="n">
+        <v>13</v>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G816" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I816" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L816" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="M814" t="n">
+      <c r="M816" t="n">
         <v>195</v>
       </c>
-      <c r="N814" t="n">
+      <c r="N816" t="n">
         <v>5000</v>
       </c>
-      <c r="O814" t="n">
+      <c r="O816" t="n">
         <v>6000</v>
       </c>
-      <c r="P814" t="n">
+      <c r="P816" t="n">
         <v>5769</v>
       </c>
-      <c r="Q814" t="inlineStr">
+      <c r="Q816" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R814" t="inlineStr">
+      <c r="R816" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S814" t="n">
+      <c r="S816" t="n">
         <v>577</v>
       </c>
-      <c r="T814" t="n">
+      <c r="T816" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T899"/>
+  <dimension ref="A1:T927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72312,6 +72312,2246 @@
         <v>10</v>
       </c>
     </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>6</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D900" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E900" t="n">
+        <v>13</v>
+      </c>
+      <c r="F900" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G900" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H900" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I900" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="L900" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M900" t="n">
+        <v>360</v>
+      </c>
+      <c r="N900" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O900" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P900" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q900" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R900" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S900" t="n">
+        <v>800</v>
+      </c>
+      <c r="T900" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>6</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D901" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E901" t="n">
+        <v>13</v>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G901" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H901" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I901" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="L901" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M901" t="n">
+        <v>480</v>
+      </c>
+      <c r="N901" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O901" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P901" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q901" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R901" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S901" t="n">
+        <v>600</v>
+      </c>
+      <c r="T901" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>6</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D902" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E902" t="n">
+        <v>13</v>
+      </c>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G902" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H902" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I902" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="L902" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M902" t="n">
+        <v>360</v>
+      </c>
+      <c r="N902" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O902" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P902" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q902" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R902" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S902" t="n">
+        <v>400</v>
+      </c>
+      <c r="T902" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>6</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D903" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E903" t="n">
+        <v>13</v>
+      </c>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G903" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H903" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I903" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L903" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M903" t="n">
+        <v>360</v>
+      </c>
+      <c r="N903" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O903" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P903" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q903" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R903" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S903" t="n">
+        <v>800</v>
+      </c>
+      <c r="T903" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>6</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D904" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E904" t="n">
+        <v>13</v>
+      </c>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G904" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H904" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I904" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L904" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M904" t="n">
+        <v>480</v>
+      </c>
+      <c r="N904" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O904" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P904" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q904" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R904" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S904" t="n">
+        <v>600</v>
+      </c>
+      <c r="T904" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>6</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D905" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E905" t="n">
+        <v>13</v>
+      </c>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G905" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H905" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I905" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L905" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M905" t="n">
+        <v>240</v>
+      </c>
+      <c r="N905" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O905" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P905" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q905" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R905" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S905" t="n">
+        <v>400</v>
+      </c>
+      <c r="T905" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>6</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D906" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E906" t="n">
+        <v>13</v>
+      </c>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G906" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I906" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L906" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M906" t="n">
+        <v>360</v>
+      </c>
+      <c r="N906" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O906" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P906" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q906" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R906" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S906" t="n">
+        <v>1800</v>
+      </c>
+      <c r="T906" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>6</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D907" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E907" t="n">
+        <v>13</v>
+      </c>
+      <c r="F907" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G907" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I907" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>Rainier</t>
+        </is>
+      </c>
+      <c r="L907" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M907" t="n">
+        <v>240</v>
+      </c>
+      <c r="N907" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O907" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P907" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q907" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S907" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T907" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>6</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E908" t="n">
+        <v>13</v>
+      </c>
+      <c r="F908" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G908" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I908" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L908" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M908" t="n">
+        <v>480</v>
+      </c>
+      <c r="N908" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O908" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P908" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q908" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R908" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S908" t="n">
+        <v>700</v>
+      </c>
+      <c r="T908" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>6</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D909" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E909" t="n">
+        <v>13</v>
+      </c>
+      <c r="F909" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G909" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H909" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I909" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L909" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M909" t="n">
+        <v>300</v>
+      </c>
+      <c r="N909" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O909" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P909" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q909" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R909" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S909" t="n">
+        <v>700</v>
+      </c>
+      <c r="T909" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>6</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D910" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E910" t="n">
+        <v>13</v>
+      </c>
+      <c r="F910" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G910" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H910" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I910" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L910" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M910" t="n">
+        <v>600</v>
+      </c>
+      <c r="N910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P910" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q910" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R910" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S910" t="n">
+        <v>500</v>
+      </c>
+      <c r="T910" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>6</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D911" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E911" t="n">
+        <v>13</v>
+      </c>
+      <c r="F911" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G911" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H911" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I911" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L911" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M911" t="n">
+        <v>250</v>
+      </c>
+      <c r="N911" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O911" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P911" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q911" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R911" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S911" t="n">
+        <v>500</v>
+      </c>
+      <c r="T911" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>6</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D912" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E912" t="n">
+        <v>13</v>
+      </c>
+      <c r="F912" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G912" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H912" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I912" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L912" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M912" t="n">
+        <v>360</v>
+      </c>
+      <c r="N912" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O912" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P912" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q912" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R912" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S912" t="n">
+        <v>400</v>
+      </c>
+      <c r="T912" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>6</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D913" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E913" t="n">
+        <v>13</v>
+      </c>
+      <c r="F913" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G913" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H913" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I913" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L913" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M913" t="n">
+        <v>300</v>
+      </c>
+      <c r="N913" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O913" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P913" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q913" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R913" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S913" t="n">
+        <v>400</v>
+      </c>
+      <c r="T913" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>6</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D914" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E914" t="n">
+        <v>13</v>
+      </c>
+      <c r="F914" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G914" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H914" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I914" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>Royal Dawn</t>
+        </is>
+      </c>
+      <c r="L914" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M914" t="n">
+        <v>250</v>
+      </c>
+      <c r="N914" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O914" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P914" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q914" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R914" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S914" t="n">
+        <v>267</v>
+      </c>
+      <c r="T914" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>6</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D915" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E915" t="n">
+        <v>13</v>
+      </c>
+      <c r="F915" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G915" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H915" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I915" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L915" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M915" t="n">
+        <v>480</v>
+      </c>
+      <c r="N915" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O915" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P915" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q915" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R915" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S915" t="n">
+        <v>700</v>
+      </c>
+      <c r="T915" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>6</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D916" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E916" t="n">
+        <v>13</v>
+      </c>
+      <c r="F916" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G916" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H916" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I916" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L916" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M916" t="n">
+        <v>800</v>
+      </c>
+      <c r="N916" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O916" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P916" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q916" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R916" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S916" t="n">
+        <v>700</v>
+      </c>
+      <c r="T916" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>6</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D917" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E917" t="n">
+        <v>13</v>
+      </c>
+      <c r="F917" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G917" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H917" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I917" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L917" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M917" t="n">
+        <v>200</v>
+      </c>
+      <c r="N917" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O917" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P917" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q917" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R917" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S917" t="n">
+        <v>700</v>
+      </c>
+      <c r="T917" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>6</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D918" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E918" t="n">
+        <v>13</v>
+      </c>
+      <c r="F918" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G918" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H918" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I918" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L918" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M918" t="n">
+        <v>300</v>
+      </c>
+      <c r="N918" t="n">
+        <v>10500</v>
+      </c>
+      <c r="O918" t="n">
+        <v>10500</v>
+      </c>
+      <c r="P918" t="n">
+        <v>10500</v>
+      </c>
+      <c r="Q918" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R918" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S918" t="n">
+        <v>700</v>
+      </c>
+      <c r="T918" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>6</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D919" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E919" t="n">
+        <v>13</v>
+      </c>
+      <c r="F919" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G919" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H919" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I919" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L919" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M919" t="n">
+        <v>720</v>
+      </c>
+      <c r="N919" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O919" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P919" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q919" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R919" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S919" t="n">
+        <v>500</v>
+      </c>
+      <c r="T919" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>6</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D920" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E920" t="n">
+        <v>13</v>
+      </c>
+      <c r="F920" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G920" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H920" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I920" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L920" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M920" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N920" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O920" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P920" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q920" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R920" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S920" t="n">
+        <v>500</v>
+      </c>
+      <c r="T920" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>6</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D921" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E921" t="n">
+        <v>13</v>
+      </c>
+      <c r="F921" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G921" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I921" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L921" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M921" t="n">
+        <v>300</v>
+      </c>
+      <c r="N921" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O921" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P921" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q921" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R921" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S921" t="n">
+        <v>500</v>
+      </c>
+      <c r="T921" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>6</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D922" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E922" t="n">
+        <v>13</v>
+      </c>
+      <c r="F922" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G922" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I922" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L922" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M922" t="n">
+        <v>400</v>
+      </c>
+      <c r="N922" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O922" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P922" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q922" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R922" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S922" t="n">
+        <v>500</v>
+      </c>
+      <c r="T922" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>6</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D923" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E923" t="n">
+        <v>13</v>
+      </c>
+      <c r="F923" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G923" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I923" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L923" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M923" t="n">
+        <v>600</v>
+      </c>
+      <c r="N923" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O923" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P923" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q923" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R923" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S923" t="n">
+        <v>400</v>
+      </c>
+      <c r="T923" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>6</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D924" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E924" t="n">
+        <v>13</v>
+      </c>
+      <c r="F924" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G924" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I924" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L924" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M924" t="n">
+        <v>200</v>
+      </c>
+      <c r="N924" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O924" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P924" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q924" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R924" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S924" t="n">
+        <v>400</v>
+      </c>
+      <c r="T924" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>6</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D925" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E925" t="n">
+        <v>13</v>
+      </c>
+      <c r="F925" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G925" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I925" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L925" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M925" t="n">
+        <v>300</v>
+      </c>
+      <c r="N925" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O925" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P925" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q925" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R925" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S925" t="n">
+        <v>267</v>
+      </c>
+      <c r="T925" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>6</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D926" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E926" t="n">
+        <v>13</v>
+      </c>
+      <c r="F926" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G926" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I926" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L926" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M926" t="n">
+        <v>480</v>
+      </c>
+      <c r="N926" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O926" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P926" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q926" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R926" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S926" t="n">
+        <v>700</v>
+      </c>
+      <c r="T926" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>6</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D927" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="E927" t="n">
+        <v>13</v>
+      </c>
+      <c r="F927" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G927" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I927" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L927" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M927" t="n">
+        <v>600</v>
+      </c>
+      <c r="N927" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O927" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P927" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q927" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R927" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S927" t="n">
+        <v>500</v>
+      </c>
+      <c r="T927" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1171"/>
+  <dimension ref="A1:T1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94072,6 +94072,726 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1172" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1172" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1172" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1172" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1172" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1172" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1172" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1172" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1172" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1172" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1173" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1173" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1173" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1173" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1173" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1173" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1173" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1173" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1173" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1173" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1173" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1173" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1174" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1174" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1174" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1174" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1174" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1174" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1174" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1174" t="n">
+        <v>720</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1174" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1174" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1174" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1175" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1175" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1175" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1175" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1175" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1175" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1175" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q1175" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1175" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1175" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1175" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1176" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1176" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1176" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1176" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1176" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1176" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1176" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1176" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1176" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1176" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1176" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1177" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1177" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1177" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1177" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1177" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1177" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1177" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1177" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1177" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1177" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1177" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1177" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1178" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1178" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1178" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1178" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1178" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1178" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1178" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1178" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1178" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1178" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1178" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1178" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1179" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1179" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1179" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1179" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1179" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1179" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1179" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1179" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q1179" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1179" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1179" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1179" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1180" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1180" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1180" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1180" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1180" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1180" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1180" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1180" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1180" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1180" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1180" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1180" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Cereza.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1231"/>
+  <dimension ref="A1:T1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -89555,29 +89555,29 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N1115" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="O1115" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="P1115" t="n">
-        <v>11500</v>
+        <v>4000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1115" t="inlineStr">
@@ -89586,10 +89586,10 @@
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>2300</v>
+        <v>400</v>
       </c>
       <c r="T1115" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1116">
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -89635,7 +89635,7 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
@@ -89644,16 +89644,16 @@
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="N1116" t="n">
-        <v>28000</v>
+        <v>3000</v>
       </c>
       <c r="O1116" t="n">
-        <v>28000</v>
+        <v>3000</v>
       </c>
       <c r="P1116" t="n">
-        <v>28000</v>
+        <v>3000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
@@ -89662,11 +89662,11 @@
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>2800</v>
+        <v>300</v>
       </c>
       <c r="T1116" t="n">
         <v>10</v>
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44516</v>
+        <v>44918</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -89715,7 +89715,7 @@
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="L1117" t="inlineStr">
@@ -89724,20 +89724,20 @@
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>30</v>
+        <v>480</v>
       </c>
       <c r="N1117" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="O1117" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="P1117" t="n">
-        <v>30000</v>
+        <v>2000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1117" t="inlineStr">
@@ -89746,10 +89746,10 @@
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="T1117" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1118">
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -89795,7 +89795,7 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1118" t="inlineStr">
@@ -89804,16 +89804,16 @@
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>250</v>
+        <v>1440</v>
       </c>
       <c r="N1118" t="n">
-        <v>17000</v>
+        <v>3000</v>
       </c>
       <c r="O1118" t="n">
-        <v>17000</v>
+        <v>3500</v>
       </c>
       <c r="P1118" t="n">
-        <v>17000</v>
+        <v>3250</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>1700</v>
+        <v>325</v>
       </c>
       <c r="T1118" t="n">
         <v>10</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -89875,29 +89875,29 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N1119" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="O1119" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="P1119" t="n">
-        <v>14500</v>
+        <v>4500</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
@@ -89906,10 +89906,10 @@
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>1450</v>
+        <v>300</v>
       </c>
       <c r="T1119" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1120">
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -89955,41 +89955,41 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1120" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="O1120" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="P1120" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="T1120" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1121">
@@ -90007,7 +90007,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -90035,29 +90035,29 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N1121" t="n">
-        <v>22500</v>
+        <v>2000</v>
       </c>
       <c r="O1121" t="n">
-        <v>22500</v>
+        <v>2500</v>
       </c>
       <c r="P1121" t="n">
-        <v>22500</v>
+        <v>2250</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
@@ -90066,10 +90066,10 @@
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>1500</v>
+        <v>225</v>
       </c>
       <c r="T1121" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1122">
@@ -90087,7 +90087,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -90115,7 +90115,7 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
@@ -90124,16 +90124,16 @@
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N1122" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="O1122" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="P1122" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
       <c r="T1122" t="n">
         <v>15</v>
@@ -90167,7 +90167,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N1123" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="O1123" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="P1123" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90222,11 +90222,11 @@
       </c>
       <c r="R1123" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="T1123" t="n">
         <v>15</v>
@@ -90247,7 +90247,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -90275,25 +90275,25 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="N1124" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O1124" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P1124" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
@@ -90306,7 +90306,7 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T1124" t="n">
         <v>10</v>
@@ -90327,7 +90327,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -90355,29 +90355,29 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="N1125" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O1125" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P1125" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
@@ -90386,10 +90386,10 @@
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T1125" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1126">
@@ -90407,7 +90407,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -90435,29 +90435,29 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N1126" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="O1126" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="P1126" t="n">
-        <v>19500</v>
+        <v>3000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
@@ -90466,10 +90466,10 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="T1126" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1127">
@@ -90487,7 +90487,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44162</v>
+        <v>44918</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -90515,7 +90515,7 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
@@ -90524,20 +90524,20 @@
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="N1127" t="n">
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="O1127" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="P1127" t="n">
-        <v>6750</v>
+        <v>2000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/caja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
@@ -90546,10 +90546,10 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>1350</v>
+        <v>200</v>
       </c>
       <c r="T1127" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1128">
@@ -90567,7 +90567,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44883</v>
+        <v>44918</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -90595,7 +90595,7 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
@@ -90604,16 +90604,16 @@
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N1128" t="n">
-        <v>14000</v>
+        <v>3000</v>
       </c>
       <c r="O1128" t="n">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="P1128" t="n">
-        <v>14000</v>
+        <v>3250</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
@@ -90622,11 +90622,11 @@
       </c>
       <c r="R1128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>1400</v>
+        <v>325</v>
       </c>
       <c r="T1128" t="n">
         <v>10</v>
@@ -90647,7 +90647,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44883</v>
+        <v>44918</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -90675,7 +90675,7 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
@@ -90684,16 +90684,16 @@
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="N1129" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="O1129" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="P1129" t="n">
-        <v>12000</v>
+        <v>2250</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
@@ -90702,11 +90702,11 @@
       </c>
       <c r="R1129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>1200</v>
+        <v>225</v>
       </c>
       <c r="T1129" t="n">
         <v>10</v>
@@ -90727,7 +90727,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44883</v>
+        <v>44516</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -90755,7 +90755,7 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
@@ -90764,32 +90764,32 @@
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N1130" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O1130" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="P1130" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="T1130" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1131">
@@ -90807,7 +90807,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44883</v>
+        <v>44516</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -90840,20 +90840,20 @@
       </c>
       <c r="L1131" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="N1131" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="O1131" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P1131" t="n">
-        <v>17020</v>
+        <v>28000</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>1702</v>
+        <v>2800</v>
       </c>
       <c r="T1131" t="n">
         <v>10</v>
@@ -90887,7 +90887,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44883</v>
+        <v>44516</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -90920,24 +90920,24 @@
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="N1132" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="O1132" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="P1132" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
@@ -90946,10 +90946,10 @@
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="T1132" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1133">
@@ -90967,7 +90967,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -90995,25 +90995,25 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="N1133" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O1133" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P1133" t="n">
-        <v>13909</v>
+        <v>17000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
@@ -91026,7 +91026,7 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>1391</v>
+        <v>1700</v>
       </c>
       <c r="T1133" t="n">
         <v>10</v>
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -91075,25 +91075,25 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1134" t="n">
-        <v>490</v>
+        <v>700</v>
       </c>
       <c r="N1134" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1134" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P1134" t="n">
-        <v>11020</v>
+        <v>14500</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>1102</v>
+        <v>1450</v>
       </c>
       <c r="T1134" t="n">
         <v>10</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -91155,29 +91155,29 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N1135" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="O1135" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="P1135" t="n">
-        <v>22500</v>
+        <v>10000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1135" t="inlineStr">
@@ -91186,10 +91186,10 @@
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="T1135" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1136">
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -91235,7 +91235,7 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
@@ -91262,7 +91262,7 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1136" t="n">
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -91315,7 +91315,7 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
@@ -91324,7 +91324,7 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N1137" t="n">
         <v>19500</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -91395,25 +91395,25 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1138" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O1138" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="P1138" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
@@ -91422,11 +91422,11 @@
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="T1138" t="n">
         <v>15</v>
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44883</v>
+        <v>44162</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -91475,41 +91475,41 @@
       </c>
       <c r="K1139" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1139" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N1139" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="O1139" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P1139" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T1139" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1140">
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44879</v>
+        <v>44162</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -91555,41 +91555,41 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="N1140" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="O1140" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="P1140" t="n">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="T1140" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44879</v>
+        <v>44162</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -91635,41 +91635,41 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1141" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="O1141" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P1141" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T1141" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1142">
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44879</v>
+        <v>44162</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -91715,7 +91715,7 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
@@ -91724,32 +91724,32 @@
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N1142" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="O1142" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P1142" t="n">
-        <v>20000</v>
+        <v>6750</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 5 kilos</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>2000</v>
+        <v>1350</v>
       </c>
       <c r="T1142" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -91795,25 +91795,25 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N1143" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1143" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1143" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
@@ -91826,7 +91826,7 @@
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="T1143" t="n">
         <v>10</v>
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44879</v>
+        <v>44883</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -91875,7 +91875,7 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
@@ -91884,16 +91884,16 @@
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N1144" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O1144" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P1144" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
@@ -91906,7 +91906,7 @@
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="T1144" t="n">
         <v>10</v>
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -91955,41 +91955,41 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1145" t="n">
         <v>250</v>
       </c>
       <c r="N1145" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O1145" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P1145" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T1145" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -92035,29 +92035,29 @@
       </c>
       <c r="K1146" t="inlineStr">
         <is>
-          <t>Early Burlat</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="N1146" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="O1146" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P1146" t="n">
-        <v>10500</v>
+        <v>17020</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
@@ -92066,10 +92066,10 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>700</v>
+        <v>1702</v>
       </c>
       <c r="T1146" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,32 +92124,32 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N1147" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="O1147" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="P1147" t="n">
-        <v>16500</v>
+        <v>8000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="T1147" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1148">
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -92195,7 +92195,7 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
@@ -92204,20 +92204,20 @@
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="N1148" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O1148" t="n">
         <v>15000</v>
       </c>
       <c r="P1148" t="n">
-        <v>15000</v>
+        <v>13909</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
@@ -92226,10 +92226,10 @@
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>1000</v>
+        <v>1391</v>
       </c>
       <c r="T1148" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -92275,41 +92275,41 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="N1149" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="O1149" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1149" t="n">
-        <v>14250</v>
+        <v>11020</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>950</v>
+        <v>1102</v>
       </c>
       <c r="T1149" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1150">
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -92355,7 +92355,7 @@
       </c>
       <c r="K1150" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1150" t="inlineStr">
@@ -92364,20 +92364,20 @@
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N1150" t="n">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="O1150" t="n">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="P1150" t="n">
-        <v>2000</v>
+        <v>22500</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
@@ -92386,10 +92386,10 @@
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="T1150" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1151">
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -92435,41 +92435,41 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N1151" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="O1151" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="P1151" t="n">
-        <v>16000</v>
+        <v>22500</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="T1151" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1152">
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -92515,7 +92515,7 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
@@ -92524,16 +92524,16 @@
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1152" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O1152" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P1152" t="n">
-        <v>14250</v>
+        <v>19500</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92546,7 +92546,7 @@
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>950</v>
+        <v>1300</v>
       </c>
       <c r="T1152" t="n">
         <v>15</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -92600,36 +92600,36 @@
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N1153" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="O1153" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="P1153" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="T1153" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1154">
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44533</v>
+        <v>44883</v>
       </c>
       <c r="E1154" t="n">
         <v>13</v>
@@ -92680,20 +92680,20 @@
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N1154" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="O1154" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P1154" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
@@ -92702,11 +92702,11 @@
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="T1154" t="n">
         <v>15</v>
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E1155" t="n">
         <v>13</v>
@@ -92755,29 +92755,29 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N1155" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O1155" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P1155" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R1155" t="inlineStr">
@@ -92786,10 +92786,10 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="T1155" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1156">
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E1156" t="n">
         <v>13</v>
@@ -92835,25 +92835,25 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N1156" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O1156" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P1156" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
@@ -92862,11 +92862,11 @@
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="T1156" t="n">
         <v>10</v>
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E1157" t="n">
         <v>13</v>
@@ -92915,7 +92915,7 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
@@ -92924,32 +92924,32 @@
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>280</v>
+        <v>480</v>
       </c>
       <c r="N1157" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O1157" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P1157" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T1157" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1158">
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E1158" t="n">
         <v>13</v>
@@ -92995,29 +92995,29 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N1158" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1158" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P1158" t="n">
-        <v>12750</v>
+        <v>10000</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1158" t="inlineStr">
@@ -93026,10 +93026,10 @@
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="T1158" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1159">
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44533</v>
+        <v>44879</v>
       </c>
       <c r="E1159" t="n">
         <v>13</v>
@@ -93080,20 +93080,20 @@
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
         <v>300</v>
       </c>
       <c r="N1159" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O1159" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P1159" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93102,11 +93102,11 @@
       </c>
       <c r="R1159" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="T1159" t="n">
         <v>10</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1160" t="n">
         <v>13</v>
@@ -93155,7 +93155,7 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
@@ -93164,20 +93164,20 @@
         </is>
       </c>
       <c r="M1160" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="N1160" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="O1160" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="P1160" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1160" t="inlineStr">
@@ -93186,10 +93186,10 @@
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T1160" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1161">
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1161" t="n">
         <v>13</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Early Burlat</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,20 +93244,20 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N1161" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="O1161" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="P1161" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1161" t="inlineStr">
@@ -93266,10 +93266,10 @@
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T1161" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1162">
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44217</v>
+        <v>44533</v>
       </c>
       <c r="E1162" t="n">
         <v>13</v>
@@ -93315,25 +93315,25 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N1162" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="O1162" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="P1162" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
@@ -93346,7 +93346,7 @@
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="T1162" t="n">
         <v>15</v>
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1163" t="n">
         <v>13</v>
@@ -93395,29 +93395,29 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N1163" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O1163" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P1163" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1163" t="inlineStr">
@@ -93426,10 +93426,10 @@
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T1163" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1164">
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1164" t="n">
         <v>13</v>
@@ -93475,7 +93475,7 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
@@ -93484,32 +93484,32 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N1164" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="O1164" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P1164" t="n">
-        <v>5000</v>
+        <v>14250</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="T1164" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1165">
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1165" t="n">
         <v>13</v>
@@ -93555,25 +93555,25 @@
       </c>
       <c r="K1165" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N1165" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="O1165" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="P1165" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
@@ -93582,11 +93582,11 @@
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T1165" t="n">
         <v>10</v>
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1166" t="n">
         <v>13</v>
@@ -93635,25 +93635,25 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N1166" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="O1166" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="P1166" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
@@ -93666,7 +93666,7 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="T1166" t="n">
         <v>10</v>
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1167" t="n">
         <v>13</v>
@@ -93715,41 +93715,41 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1167" t="n">
-        <v>3000</v>
+        <v>13500</v>
       </c>
       <c r="O1167" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="P1167" t="n">
-        <v>3000</v>
+        <v>14250</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="T1167" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1168">
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1168" t="n">
         <v>13</v>
@@ -93795,7 +93795,7 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
@@ -93804,16 +93804,16 @@
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1168" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O1168" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P1168" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="T1168" t="n">
         <v>10</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1169" t="n">
         <v>13</v>
@@ -93875,7 +93875,7 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
@@ -93884,16 +93884,16 @@
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N1169" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="O1169" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="P1169" t="n">
-        <v>9000</v>
+        <v>16500</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="T1169" t="n">
         <v>15</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1170" t="n">
         <v>13</v>
@@ -93955,29 +93955,29 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N1170" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="O1170" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="P1170" t="n">
-        <v>4750</v>
+        <v>15000</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
@@ -93986,10 +93986,10 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="T1170" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1171" t="n">
         <v>13</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,32 +94044,32 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="N1171" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O1171" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P1171" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T1171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1172">
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1172" t="n">
         <v>13</v>
@@ -94115,7 +94115,7 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
@@ -94124,16 +94124,16 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N1172" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O1172" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="P1172" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
@@ -94146,7 +94146,7 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T1172" t="n">
         <v>15</v>
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1173" t="n">
         <v>13</v>
@@ -94200,20 +94200,20 @@
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N1173" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O1173" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="P1173" t="n">
-        <v>9000</v>
+        <v>12750</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
@@ -94222,11 +94222,11 @@
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="T1173" t="n">
         <v>15</v>
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44545</v>
+        <v>44533</v>
       </c>
       <c r="E1174" t="n">
         <v>13</v>
@@ -94280,36 +94280,36 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1174" t="n">
         <v>300</v>
       </c>
       <c r="N1174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O1174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P1174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T1174" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1175">
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1175" t="n">
         <v>13</v>
@@ -94355,7 +94355,7 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
@@ -94364,32 +94364,32 @@
         </is>
       </c>
       <c r="M1175" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1175" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1175" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1175" t="n">
         <v>1000</v>
       </c>
-      <c r="N1175" t="n">
-        <v>7500</v>
-      </c>
-      <c r="O1175" t="n">
-        <v>7500</v>
-      </c>
-      <c r="P1175" t="n">
-        <v>7500</v>
-      </c>
-      <c r="Q1175" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="R1175" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S1175" t="n">
-        <v>500</v>
-      </c>
       <c r="T1175" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44545</v>
+        <v>44217</v>
       </c>
       <c r="E1176" t="n">
         <v>13</v>
@@ -94435,41 +94435,41 @@
       </c>
       <c r="K1176" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N1176" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O1176" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P1176" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T1176" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1177">
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44613</v>
+        <v>44217</v>
       </c>
       <c r="E1177" t="n">
         <v>13</v>
@@ -94515,41 +94515,41 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>558</v>
+        <v>200</v>
       </c>
       <c r="N1177" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O1177" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P1177" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="T1177" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1178">
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1178" t="n">
         <v>13</v>
@@ -94604,16 +94604,16 @@
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N1178" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O1178" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P1178" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94626,7 +94626,7 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T1178" t="n">
         <v>10</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1179" t="n">
         <v>13</v>
@@ -94684,16 +94684,16 @@
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N1179" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O1179" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P1179" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
@@ -94706,7 +94706,7 @@
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T1179" t="n">
         <v>10</v>
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -94760,20 +94760,20 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N1180" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1180" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1180" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1180" t="n">
         <v>10</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -94835,25 +94835,25 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N1181" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O1181" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P1181" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
@@ -94866,7 +94866,7 @@
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T1181" t="n">
         <v>10</v>
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -94915,25 +94915,25 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1182" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O1182" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1182" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
@@ -94942,11 +94942,11 @@
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T1182" t="n">
         <v>10</v>
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1183" t="n">
         <v>13</v>
@@ -95000,20 +95000,20 @@
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N1183" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1183" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1183" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T1183" t="n">
         <v>10</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1184" t="n">
         <v>13</v>
@@ -95075,7 +95075,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -95084,20 +95084,20 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N1184" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="O1184" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P1184" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
@@ -95106,10 +95106,10 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>1800</v>
+        <v>600</v>
       </c>
       <c r="T1184" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1185">
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1185" t="n">
         <v>13</v>
@@ -95155,7 +95155,7 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Rainier</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
@@ -95164,16 +95164,16 @@
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N1185" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="O1185" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="P1185" t="n">
-        <v>15000</v>
+        <v>4750</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
@@ -95186,7 +95186,7 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>1500</v>
+        <v>475</v>
       </c>
       <c r="T1185" t="n">
         <v>10</v>
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -95235,41 +95235,41 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N1186" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O1186" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P1186" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T1186" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1187">
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -95315,12 +95315,12 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1187" t="n">
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -95395,41 +95395,41 @@
       </c>
       <c r="K1188" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1188" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q1188" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1188" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1188" t="n">
         <v>600</v>
       </c>
-      <c r="N1188" t="n">
-        <v>5000</v>
-      </c>
-      <c r="O1188" t="n">
-        <v>5000</v>
-      </c>
-      <c r="P1188" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q1188" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R1188" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S1188" t="n">
-        <v>500</v>
-      </c>
       <c r="T1188" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1189">
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1189" t="n">
         <v>13</v>
@@ -95475,25 +95475,25 @@
       </c>
       <c r="K1189" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O1189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P1189" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
@@ -95502,11 +95502,11 @@
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T1189" t="n">
         <v>15</v>
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1190" t="n">
         <v>13</v>
@@ -95555,29 +95555,29 @@
       </c>
       <c r="K1190" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="N1190" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="O1190" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="P1190" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
@@ -95586,10 +95586,10 @@
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1190" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1191">
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44890</v>
+        <v>44545</v>
       </c>
       <c r="E1191" t="n">
         <v>13</v>
@@ -95635,25 +95635,25 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N1191" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O1191" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P1191" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
@@ -95662,11 +95662,11 @@
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T1191" t="n">
         <v>15</v>
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44890</v>
+        <v>44613</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -95715,29 +95715,29 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Royal Dawn</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>250</v>
+        <v>558</v>
       </c>
       <c r="N1192" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O1192" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P1192" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 5 kilos</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
@@ -95746,10 +95746,10 @@
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>267</v>
+        <v>1200</v>
       </c>
       <c r="T1192" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1193">
@@ -95795,7 +95795,7 @@
       </c>
       <c r="K1193" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1193" t="inlineStr">
@@ -95804,16 +95804,16 @@
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="N1193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O1193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P1193" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
@@ -95826,7 +95826,7 @@
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T1193" t="n">
         <v>10</v>
@@ -95875,25 +95875,25 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="N1194" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O1194" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P1194" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
@@ -95902,11 +95902,11 @@
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T1194" t="n">
         <v>10</v>
@@ -95955,29 +95955,29 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N1195" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="O1195" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="P1195" t="n">
-        <v>10500</v>
+        <v>4000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1195" t="inlineStr">
@@ -95986,10 +95986,10 @@
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T1195" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1196">
@@ -96035,7 +96035,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -96044,32 +96044,32 @@
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N1196" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="O1196" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="P1196" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T1196" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1197">
@@ -96115,7 +96115,7 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
@@ -96124,16 +96124,16 @@
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>720</v>
+        <v>480</v>
       </c>
       <c r="N1197" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O1197" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P1197" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
@@ -96146,7 +96146,7 @@
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T1197" t="n">
         <v>10</v>
@@ -96195,25 +96195,25 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="N1198" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1198" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1198" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
@@ -96222,11 +96222,11 @@
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T1198" t="n">
         <v>10</v>
@@ -96275,41 +96275,41 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N1199" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O1199" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="P1199" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="T1199" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1200">
@@ -96355,7 +96355,7 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Rainier</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
@@ -96364,20 +96364,20 @@
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N1200" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="O1200" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="P1200" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1200" t="inlineStr">
@@ -96386,10 +96386,10 @@
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T1200" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1201">
@@ -96435,25 +96435,25 @@
       </c>
       <c r="K1201" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="N1201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1201" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
@@ -96466,7 +96466,7 @@
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T1201" t="n">
         <v>10</v>
@@ -96515,25 +96515,25 @@
       </c>
       <c r="K1202" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1202" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N1202" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="O1202" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="P1202" t="n">
-        <v>6000</v>
+        <v>10500</v>
       </c>
       <c r="Q1202" t="inlineStr">
         <is>
@@ -96542,11 +96542,11 @@
       </c>
       <c r="R1202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1202" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T1202" t="n">
         <v>15</v>
@@ -96595,29 +96595,29 @@
       </c>
       <c r="K1203" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1203" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1203" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N1203" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1203" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1203" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1203" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1203" t="inlineStr">
@@ -96626,10 +96626,10 @@
         </is>
       </c>
       <c r="S1203" t="n">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="T1203" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1204">
@@ -96675,29 +96675,29 @@
       </c>
       <c r="K1204" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1204" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1204" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O1204" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P1204" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q1204" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1204" t="inlineStr">
@@ -96706,10 +96706,10 @@
         </is>
       </c>
       <c r="S1204" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T1204" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1205">
@@ -96755,25 +96755,25 @@
       </c>
       <c r="K1205" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1205" t="n">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="N1205" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1205" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1205" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q1205" t="inlineStr">
         <is>
@@ -96786,7 +96786,7 @@
         </is>
       </c>
       <c r="S1205" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T1205" t="n">
         <v>10</v>
@@ -96807,7 +96807,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -96835,29 +96835,29 @@
       </c>
       <c r="K1206" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1206" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N1206" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O1206" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P1206" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q1206" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1206" t="inlineStr">
@@ -96866,10 +96866,10 @@
         </is>
       </c>
       <c r="S1206" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T1206" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1207">
@@ -96887,7 +96887,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -96915,29 +96915,29 @@
       </c>
       <c r="K1207" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Royal Dawn</t>
         </is>
       </c>
       <c r="L1207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1207" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1207" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1207" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P1207" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q1207" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1207" t="inlineStr">
@@ -96946,10 +96946,10 @@
         </is>
       </c>
       <c r="S1207" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="T1207" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1208">
@@ -96967,7 +96967,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -96995,25 +96995,25 @@
       </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1208" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="N1208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P1208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q1208" t="inlineStr">
         <is>
@@ -97026,7 +97026,7 @@
         </is>
       </c>
       <c r="S1208" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T1208" t="n">
         <v>10</v>
@@ -97047,7 +97047,7 @@
         </is>
       </c>
       <c r="D1209" s="2" t="n">
-        <v>44580</v>
+        <v>44890</v>
       </c>
       <c r="E1209" t="n">
         <v>13</v>
@@ -97075,25 +97075,25 @@
       </c>
       <c r="K1209" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1209" t="n">
-        <v>240</v>
+        <v>800</v>
       </c>
       <c r="N1209" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1209" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1209" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q1209" t="inlineStr">
         <is>
@@ -97102,11 +97102,11 @@
       </c>
       <c r="R1209" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1209" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T1209" t="n">
         <v>10</v>
@@ -97127,7 +97127,7 @@
         </is>
       </c>
       <c r="D1210" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1210" t="n">
         <v>13</v>
@@ -97155,29 +97155,29 @@
       </c>
       <c r="K1210" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1210" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1210" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N1210" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="O1210" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="P1210" t="n">
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="Q1210" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1210" t="inlineStr">
@@ -97186,10 +97186,10 @@
         </is>
       </c>
       <c r="S1210" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="T1210" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1211">
@@ -97207,7 +97207,7 @@
         </is>
       </c>
       <c r="D1211" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1211" t="n">
         <v>13</v>
@@ -97235,25 +97235,25 @@
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1211" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N1211" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="O1211" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="P1211" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="Q1211" t="inlineStr">
         <is>
@@ -97266,7 +97266,7 @@
         </is>
       </c>
       <c r="S1211" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="T1211" t="n">
         <v>15</v>
@@ -97287,7 +97287,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -97315,25 +97315,25 @@
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1212" t="n">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="N1212" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="O1212" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="P1212" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="Q1212" t="inlineStr">
         <is>
@@ -97346,7 +97346,7 @@
         </is>
       </c>
       <c r="S1212" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T1212" t="n">
         <v>10</v>
@@ -97367,7 +97367,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -97400,24 +97400,24 @@
       </c>
       <c r="L1213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1213" t="n">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="N1213" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O1213" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P1213" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q1213" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1213" t="inlineStr">
@@ -97426,10 +97426,10 @@
         </is>
       </c>
       <c r="S1213" t="n">
-        <v>267</v>
+        <v>500</v>
       </c>
       <c r="T1213" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1214">
@@ -97447,7 +97447,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -97484,16 +97484,16 @@
         </is>
       </c>
       <c r="M1214" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N1214" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="O1214" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="P1214" t="n">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="Q1214" t="inlineStr">
         <is>
@@ -97502,11 +97502,11 @@
       </c>
       <c r="R1214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1214" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T1214" t="n">
         <v>15</v>
@@ -97527,7 +97527,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1215" t="n">
         <v>13</v>
@@ -97560,20 +97560,20 @@
       </c>
       <c r="L1215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1215" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="N1215" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="O1215" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="P1215" t="n">
-        <v>2000</v>
+        <v>7500</v>
       </c>
       <c r="Q1215" t="inlineStr">
         <is>
@@ -97586,7 +97586,7 @@
         </is>
       </c>
       <c r="S1215" t="n">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="T1215" t="n">
         <v>15</v>
@@ -97607,7 +97607,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -97635,25 +97635,25 @@
       </c>
       <c r="K1216" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1216" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1216" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="N1216" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1216" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1216" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q1216" t="inlineStr">
         <is>
@@ -97662,11 +97662,11 @@
       </c>
       <c r="R1216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1216" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T1216" t="n">
         <v>10</v>
@@ -97687,7 +97687,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44565</v>
+        <v>44890</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -97715,7 +97715,7 @@
       </c>
       <c r="K1217" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1217" t="inlineStr">
@@ -97724,20 +97724,20 @@
         </is>
       </c>
       <c r="M1217" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N1217" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="O1217" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="P1217" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q1217" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1217" t="inlineStr">
@@ -97746,10 +97746,10 @@
         </is>
       </c>
       <c r="S1217" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T1217" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1218">
@@ -97767,7 +97767,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44571</v>
+        <v>44890</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -97795,29 +97795,29 @@
       </c>
       <c r="K1218" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1218" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N1218" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O1218" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1218" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="Q1218" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R1218" t="inlineStr">
@@ -97826,10 +97826,10 @@
         </is>
       </c>
       <c r="S1218" t="n">
-        <v>550</v>
+        <v>267</v>
       </c>
       <c r="T1218" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1219">
@@ -97847,7 +97847,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44571</v>
+        <v>44890</v>
       </c>
       <c r="E1219" t="n">
         <v>13</v>
@@ -97875,25 +97875,25 @@
       </c>
       <c r="K1219" t="inlineStr">
         <is>
-          <t>Lapins</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1219" t="n">
         <v>480</v>
       </c>
       <c r="N1219" t="n">
-        <v>3500</v>
+        <v>7000</v>
       </c>
       <c r="O1219" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1219" t="n">
-        <v>3750</v>
+        <v>7000</v>
       </c>
       <c r="Q1219" t="inlineStr">
         <is>
@@ -97906,7 +97906,7 @@
         </is>
       </c>
       <c r="S1219" t="n">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="T1219" t="n">
         <v>10</v>
@@ -97927,7 +97927,7 @@
         </is>
       </c>
       <c r="D1220" s="2" t="n">
-        <v>44571</v>
+        <v>44890</v>
       </c>
       <c r="E1220" t="n">
         <v>13</v>
@@ -97955,7 +97955,7 @@
       </c>
       <c r="K1220" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1220" t="inlineStr">
@@ -97964,20 +97964,20 @@
         </is>
       </c>
       <c r="M1220" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N1220" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="O1220" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="P1220" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q1220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1220" t="inlineStr">
@@ -97989,7 +97989,7 @@
         <v>500</v>
       </c>
       <c r="T1220" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1221">
@@ -98007,7 +98007,7 @@
         </is>
       </c>
       <c r="D1221" s="2" t="n">
-        <v>44571</v>
+        <v>44580</v>
       </c>
       <c r="E1221" t="n">
         <v>13</v>
@@ -98035,7 +98035,7 @@
       </c>
       <c r="K1221" t="inlineStr">
         <is>
-          <t>Sweet Heart</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1221" t="inlineStr">
@@ -98044,16 +98044,16 @@
         </is>
       </c>
       <c r="M1221" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N1221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O1221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P1221" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q1221" t="inlineStr">
         <is>
@@ -98062,11 +98062,11 @@
       </c>
       <c r="R1221" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S1221" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T1221" t="n">
         <v>10</v>
@@ -98087,7 +98087,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44571</v>
+        <v>44580</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -98115,29 +98115,29 @@
       </c>
       <c r="K1222" t="inlineStr">
         <is>
-          <t>Van</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1222" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="N1222" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="O1222" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="P1222" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="Q1222" t="inlineStr">
         <is>
-          <t>$/bandeja 5 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1222" t="inlineStr">
@@ -98149,7 +98149,7 @@
         <v>500</v>
       </c>
       <c r="T1222" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1223">
@@ -98167,7 +98167,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44911</v>
+        <v>44580</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -98195,38 +98195,38 @@
       </c>
       <c r="K1223" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1223" t="n">
+        <v>360</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1223" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1223" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1223" t="n">
         <v>600</v>
-      </c>
-      <c r="N1223" t="n">
-        <v>4000</v>
-      </c>
-      <c r="O1223" t="n">
-        <v>4000</v>
-      </c>
-      <c r="P1223" t="n">
-        <v>4000</v>
-      </c>
-      <c r="Q1223" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R1223" t="inlineStr">
-        <is>
-          <t>Provincia de Curicó</t>
-        </is>
-      </c>
-      <c r="S1223" t="n">
-        <v>400</v>
       </c>
       <c r="T1223" t="n">
         <v>10</v>
@@ -98247,7 +98247,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44911</v>
+        <v>44580</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -98275,29 +98275,29 @@
       </c>
       <c r="K1224" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1224" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N1224" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O1224" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P1224" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q1224" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1224" t="inlineStr">
@@ -98309,7 +98309,7 @@
         <v>400</v>
       </c>
       <c r="T1224" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1225">
@@ -98327,7 +98327,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -98355,7 +98355,7 @@
       </c>
       <c r="K1225" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1225" t="inlineStr">
@@ -98364,7 +98364,7 @@
         </is>
       </c>
       <c r="M1225" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="N1225" t="n">
         <v>3000</v>
@@ -98407,7 +98407,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -98435,7 +98435,7 @@
       </c>
       <c r="K1226" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1226" t="inlineStr">
@@ -98444,7 +98444,7 @@
         </is>
       </c>
       <c r="M1226" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N1226" t="n">
         <v>4500</v>
@@ -98462,7 +98462,7 @@
       </c>
       <c r="R1226" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1226" t="n">
@@ -98487,7 +98487,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -98515,7 +98515,7 @@
       </c>
       <c r="K1227" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Lapins</t>
         </is>
       </c>
       <c r="L1227" t="inlineStr">
@@ -98524,7 +98524,7 @@
         </is>
       </c>
       <c r="M1227" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="N1227" t="n">
         <v>2000</v>
@@ -98567,7 +98567,7 @@
         </is>
       </c>
       <c r="D1228" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1228" t="n">
         <v>13</v>
@@ -98595,25 +98595,25 @@
       </c>
       <c r="K1228" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Santina</t>
         </is>
       </c>
       <c r="L1228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1228" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N1228" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="O1228" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="P1228" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="Q1228" t="inlineStr">
         <is>
@@ -98622,11 +98622,11 @@
       </c>
       <c r="R1228" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1228" t="n">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="T1228" t="n">
         <v>15</v>
@@ -98647,7 +98647,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1229" t="n">
         <v>13</v>
@@ -98680,20 +98680,20 @@
       </c>
       <c r="L1229" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1229" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N1229" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O1229" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="P1229" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="Q1229" t="inlineStr">
         <is>
@@ -98702,11 +98702,11 @@
       </c>
       <c r="R1229" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1229" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="T1229" t="n">
         <v>15</v>
@@ -98727,7 +98727,7 @@
         </is>
       </c>
       <c r="D1230" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1230" t="n">
         <v>13</v>
@@ -98760,20 +98760,20 @@
       </c>
       <c r="L1230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1230" t="n">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="N1230" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="O1230" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="P1230" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="Q1230" t="inlineStr">
         <is>
@@ -98782,11 +98782,11 @@
       </c>
       <c r="R1230" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1230" t="n">
-        <v>300</v>
+        <v>133</v>
       </c>
       <c r="T1230" t="n">
         <v>15</v>
@@ -98807,7 +98807,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -98835,16 +98835,16 @@
       </c>
       <c r="K1231" t="inlineStr">
         <is>
-          <t>Santina</t>
+          <t>Sweet Heart</t>
         </is>
       </c>
       <c r="L1231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1231" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="N1231" t="n">
         <v>3000</v>
@@ -98857,18 +98857,1218 @@
       </c>
       <c r="Q1231" t="inlineStr">
         <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1231" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1231" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1231" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1232" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1232" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1232" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1232" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1232" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1232" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1232" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1232" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1233" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1233" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1233" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1233" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1233" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1233" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1233" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q1233" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1233" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1233" t="n">
+        <v>550</v>
+      </c>
+      <c r="T1233" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1234" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1234" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1234" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1234" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1234" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1234" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>Lapins</t>
+        </is>
+      </c>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1234" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>3500</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>3750</v>
+      </c>
+      <c r="Q1234" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1234" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1234" t="n">
+        <v>375</v>
+      </c>
+      <c r="T1234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1235" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1235" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1235" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1235" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1235" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1235" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1235" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>7500</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q1235" t="inlineStr">
+        <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="R1231" t="inlineStr">
+      <c r="R1235" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S1231" t="n">
+      <c r="S1235" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1235" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1236" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1236" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1236" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1236" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1236" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1236" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>Sweet Heart</t>
+        </is>
+      </c>
+      <c r="L1236" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1236" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1236" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1236" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="S1236" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1236" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1237" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1237" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1237" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1237" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1237" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1237" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>Van</t>
+        </is>
+      </c>
+      <c r="L1237" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1237" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>2500</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q1237" t="inlineStr">
+        <is>
+          <t>$/bandeja 5 kilos</t>
+        </is>
+      </c>
+      <c r="R1237" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1237" t="n">
+        <v>500</v>
+      </c>
+      <c r="T1237" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1238" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1238" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1238" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1238" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1238" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1238" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1238" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1238" t="n">
+        <v>600</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>4000</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>4000</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>4000</v>
+      </c>
+      <c r="Q1238" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1238" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1238" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1238" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1239" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1239" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1239" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1239" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1239" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1239" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1239" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1239" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1239" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1239" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1239" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1239" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1240" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1240" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1240" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1240" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1240" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1240" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1240" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1240" t="n">
+        <v>720</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1240" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1240" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1240" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1240" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1241" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1241" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1241" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1241" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1241" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1241" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1241" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1241" t="n">
         <v>200</v>
       </c>
-      <c r="T1231" t="n">
+      <c r="N1241" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q1241" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1241" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1241" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1241" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1242" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1242" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1242" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1242" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1242" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1242" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1242" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1242" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q1242" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1242" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1242" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1242" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1243" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1243" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1243" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1243" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1243" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1243" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>Bing</t>
+        </is>
+      </c>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1243" t="n">
+        <v>150</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1243" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1243" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1243" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1243" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1244" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1244" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1244" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1244" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1244" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1244" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1244" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1244" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q1244" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1244" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1244" t="n">
+        <v>400</v>
+      </c>
+      <c r="T1244" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1245" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1245" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1245" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1245" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1245" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1245" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1245" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1245" t="n">
+        <v>400</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>4500</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>4500</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q1245" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1245" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1245" t="n">
+        <v>300</v>
+      </c>
+      <c r="T1245" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1246" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1246" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1246" t="n">
+        <v>100103</v>
+      </c>
+      <c r="H1246" t="inlineStr">
+        <is>
+          <t>Frutos de hueso (carozo)</t>
+        </is>
+      </c>
+      <c r="I1246" t="n">
+        <v>100103001</v>
+      </c>
+      <c r="J1246" t="inlineStr">
+        <is>
+          <t>Cereza</t>
+        </is>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>Santina</t>
+        </is>
+      </c>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1246" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>3000</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Q1246" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R1246" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S1246" t="n">
+        <v>200</v>
+      </c>
+      <c r="T1246" t="n">
         <v>15</v>
       </c>
     </row>
